--- a/AAII_Financials/Quarterly/ZH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="92">
   <si>
     <t>ZH</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,155 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>74600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>81100</v>
+      </c>
+      <c r="F8" s="3">
+        <v>59700</v>
+      </c>
+      <c r="G8" s="3">
+        <v>40800</v>
+      </c>
+      <c r="H8" s="3">
+        <v>29400</v>
+      </c>
+      <c r="I8" s="3">
+        <v>34900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>27100</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>29100</v>
+      </c>
+      <c r="F9" s="3">
+        <v>25400</v>
+      </c>
+      <c r="G9" s="3">
+        <v>21100</v>
+      </c>
+      <c r="H9" s="3">
+        <v>17100</v>
+      </c>
+      <c r="I9" s="3">
+        <v>15700</v>
+      </c>
+      <c r="J9" s="3">
+        <v>14100</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>42500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>52000</v>
+      </c>
+      <c r="F10" s="3">
+        <v>34300</v>
+      </c>
+      <c r="G10" s="3">
+        <v>19700</v>
+      </c>
+      <c r="H10" s="3">
+        <v>12200</v>
+      </c>
+      <c r="I10" s="3">
+        <v>19200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>13000</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,37 +825,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
+      <c r="D12" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>12800</v>
+      </c>
+      <c r="F12" s="3">
+        <v>12000</v>
+      </c>
+      <c r="G12" s="3">
+        <v>13000</v>
+      </c>
+      <c r="H12" s="3">
+        <v>13500</v>
+      </c>
+      <c r="I12" s="3">
+        <v>14000</v>
+      </c>
+      <c r="J12" s="3">
+        <v>12900</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,66 +887,75 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,16 +964,17 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>128000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>97400</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>4</v>
@@ -955,11 +982,11 @@
       <c r="G17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>4</v>
+      <c r="H17" s="3">
+        <v>62300</v>
+      </c>
+      <c r="I17" s="3">
+        <v>78200</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>4</v>
@@ -967,16 +994,19 @@
       <c r="K17" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-53400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-16300</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>4</v>
@@ -984,11 +1014,11 @@
       <c r="G18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
+      <c r="H18" s="3">
+        <v>-32900</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-43200</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>4</v>
@@ -996,8 +1026,11 @@
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,16 +1042,17 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2300</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>4</v>
@@ -1026,11 +1060,11 @@
       <c r="G20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
+      <c r="H20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I20" s="3">
+        <v>5500</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>4</v>
@@ -1038,16 +1072,19 @@
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>-13200</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
@@ -1058,8 +1095,8 @@
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
+      <c r="I21" s="3">
+        <v>-34600</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
@@ -1067,95 +1104,107 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-50600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-43900</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
+      <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
+        <v>100</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H24" s="3">
+        <v>100</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,16 +1232,19 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-50700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-14000</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>4</v>
@@ -1200,11 +1252,11 @@
       <c r="G26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>4</v>
+      <c r="H26" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-37800</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>4</v>
@@ -1212,16 +1264,19 @@
       <c r="K26" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-77300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-40500</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>4</v>
@@ -1229,11 +1284,11 @@
       <c r="G27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>4</v>
+      <c r="H27" s="3">
+        <v>-57200</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-63200</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>4</v>
@@ -1241,8 +1296,11 @@
       <c r="K27" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,37 +1328,43 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>4</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,16 +1424,19 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-2300</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>4</v>
@@ -1374,11 +1444,11 @@
       <c r="G32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
+      <c r="H32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-5500</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>4</v>
@@ -1386,16 +1456,19 @@
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-77300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-40500</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>4</v>
@@ -1403,11 +1476,11 @@
       <c r="G33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>4</v>
+      <c r="H33" s="3">
+        <v>-57200</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-63200</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>4</v>
@@ -1415,8 +1488,11 @@
       <c r="K33" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,16 +1520,19 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-77300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-40500</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>4</v>
@@ -1461,11 +1540,11 @@
       <c r="G35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>4</v>
+      <c r="H35" s="3">
+        <v>-57200</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-63200</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>4</v>
@@ -1473,42 +1552,48 @@
       <c r="K35" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,19 +1619,20 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>4</v>
+      <c r="D41" s="3">
+        <v>936900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>149400</v>
+      </c>
+      <c r="F41" s="3">
+        <v>103400</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>4</v>
@@ -1562,19 +1649,22 @@
       <c r="K41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
+      <c r="D42" s="3">
+        <v>279300</v>
+      </c>
+      <c r="E42" s="3">
+        <v>333700</v>
+      </c>
+      <c r="F42" s="3">
+        <v>400300</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>4</v>
@@ -1591,19 +1681,22 @@
       <c r="K42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
+      <c r="D43" s="3">
+        <v>78800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>85300</v>
+      </c>
+      <c r="F43" s="3">
+        <v>62100</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>4</v>
@@ -1620,48 +1713,54 @@
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
+      <c r="D45" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F45" s="3">
+        <v>7100</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>4</v>
@@ -1678,19 +1777,22 @@
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>4</v>
+      <c r="D46" s="3">
+        <v>1310700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>580400</v>
+      </c>
+      <c r="F46" s="3">
+        <v>572800</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>4</v>
@@ -1707,13 +1809,16 @@
       <c r="K46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>4</v>
+      <c r="D47" s="3">
+        <v>3100</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>4</v>
@@ -1736,19 +1841,22 @@
       <c r="K47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
+      <c r="D48" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F48" s="3">
+        <v>2900</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>4</v>
@@ -1765,19 +1873,22 @@
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
+      <c r="D49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F49" s="3">
+        <v>4100</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>4</v>
@@ -1794,8 +1905,11 @@
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,19 +1969,22 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F52" s="3">
+        <v>100</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>4</v>
@@ -1881,8 +2001,11 @@
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,19 +2033,22 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>4</v>
+      <c r="D54" s="3">
+        <v>1356700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>586800</v>
+      </c>
+      <c r="F54" s="3">
+        <v>579900</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>4</v>
@@ -1939,8 +2065,11 @@
       <c r="K54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,19 +2095,20 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
+      <c r="D57" s="3">
+        <v>93800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>78300</v>
+      </c>
+      <c r="F57" s="3">
+        <v>61600</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>4</v>
@@ -1994,48 +2125,54 @@
       <c r="K57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
+      <c r="D59" s="3">
+        <v>98700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>80000</v>
+      </c>
+      <c r="F59" s="3">
+        <v>72000</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>4</v>
@@ -2052,19 +2189,22 @@
       <c r="K59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>4</v>
+      <c r="D60" s="3">
+        <v>192500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>158300</v>
+      </c>
+      <c r="F60" s="3">
+        <v>133600</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>4</v>
@@ -2081,8 +2221,11 @@
       <c r="K60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,19 +2253,22 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
+      <c r="D62" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>100</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
@@ -2139,8 +2285,11 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,19 +2381,22 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>4</v>
+      <c r="D66" s="3">
+        <v>200200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>158300</v>
+      </c>
+      <c r="F66" s="3">
+        <v>133700</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>4</v>
@@ -2255,8 +2413,11 @@
       <c r="K66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,37 +2491,43 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>4</v>
+      <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>1231100</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1204600</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
+        <v>0</v>
       </c>
       <c r="K70" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,19 +2555,22 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>4</v>
+      <c r="E72" s="3">
+        <v>-772000</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-741900</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>4</v>
@@ -2413,8 +2587,11 @@
       <c r="K72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,19 +2683,22 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>4</v>
+      <c r="D76" s="3">
+        <v>1156500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-802600</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-758500</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>4</v>
@@ -2529,8 +2715,11 @@
       <c r="K76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,50 +2747,56 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-77300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-40500</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>4</v>
@@ -2609,11 +2804,11 @@
       <c r="G81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>4</v>
+      <c r="H81" s="3">
+        <v>-57200</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-63200</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>4</v>
@@ -2621,8 +2816,11 @@
       <c r="K81" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,16 +2832,17 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
+      <c r="E83" s="3">
+        <v>700</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>4</v>
@@ -2663,8 +2862,11 @@
       <c r="K83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,16 +3022,19 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>4</v>
+      <c r="E89" s="3">
+        <v>8200</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>4</v>
@@ -2837,8 +3054,11 @@
       <c r="K89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,16 +3070,17 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
+      <c r="E91" s="3">
+        <v>-100</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>4</v>
@@ -2879,8 +3100,11 @@
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,16 +3164,19 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
+      <c r="E94" s="3">
+        <v>47800</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>4</v>
@@ -2966,8 +3196,11 @@
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,16 +3338,19 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
+      <c r="E100" s="3">
+        <v>500</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>4</v>
@@ -3124,16 +3370,19 @@
       <c r="K100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>4</v>
+      <c r="E101" s="3">
+        <v>-10400</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>4</v>
@@ -3153,16 +3402,19 @@
       <c r="K101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>4</v>
+      <c r="E102" s="3">
+        <v>46000</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>4</v>
@@ -3180,6 +3432,9 @@
         <v>4</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="92">
   <si>
     <t>ZH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,168 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>74600</v>
+        <v>98300</v>
       </c>
       <c r="E8" s="3">
-        <v>81100</v>
+        <v>73600</v>
       </c>
       <c r="F8" s="3">
-        <v>59700</v>
+        <v>80000</v>
       </c>
       <c r="G8" s="3">
-        <v>40800</v>
+        <v>58900</v>
       </c>
       <c r="H8" s="3">
-        <v>29400</v>
+        <v>40300</v>
       </c>
       <c r="I8" s="3">
-        <v>34900</v>
+        <v>29000</v>
       </c>
       <c r="J8" s="3">
+        <v>34500</v>
+      </c>
+      <c r="K8" s="3">
         <v>27100</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>32100</v>
+        <v>40300</v>
       </c>
       <c r="E9" s="3">
-        <v>29100</v>
+        <v>31700</v>
       </c>
       <c r="F9" s="3">
-        <v>25400</v>
+        <v>28800</v>
       </c>
       <c r="G9" s="3">
-        <v>21100</v>
+        <v>25100</v>
       </c>
       <c r="H9" s="3">
-        <v>17100</v>
+        <v>20800</v>
       </c>
       <c r="I9" s="3">
-        <v>15700</v>
+        <v>16900</v>
       </c>
       <c r="J9" s="3">
+        <v>15500</v>
+      </c>
+      <c r="K9" s="3">
         <v>14100</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>42500</v>
+        <v>58000</v>
       </c>
       <c r="E10" s="3">
-        <v>52000</v>
+        <v>42000</v>
       </c>
       <c r="F10" s="3">
-        <v>34300</v>
+        <v>51300</v>
       </c>
       <c r="G10" s="3">
-        <v>19700</v>
+        <v>33900</v>
       </c>
       <c r="H10" s="3">
-        <v>12200</v>
+        <v>19500</v>
       </c>
       <c r="I10" s="3">
-        <v>19200</v>
+        <v>12100</v>
       </c>
       <c r="J10" s="3">
+        <v>19000</v>
+      </c>
+      <c r="K10" s="3">
         <v>13000</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,40 +839,44 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>16600</v>
+        <v>18600</v>
       </c>
       <c r="E12" s="3">
-        <v>12800</v>
+        <v>16400</v>
       </c>
       <c r="F12" s="3">
-        <v>12000</v>
+        <v>12700</v>
       </c>
       <c r="G12" s="3">
-        <v>13000</v>
+        <v>11900</v>
       </c>
       <c r="H12" s="3">
-        <v>13500</v>
+        <v>12900</v>
       </c>
       <c r="I12" s="3">
-        <v>14000</v>
+        <v>13300</v>
       </c>
       <c r="J12" s="3">
+        <v>13900</v>
+      </c>
+      <c r="K12" s="3">
         <v>12900</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +907,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -916,14 +936,17 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -948,14 +971,17 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,31 +991,32 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>128000</v>
+        <v>152300</v>
       </c>
       <c r="E17" s="3">
-        <v>97400</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>4</v>
+        <v>126400</v>
+      </c>
+      <c r="F17" s="3">
+        <v>96100</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="3">
-        <v>62300</v>
+      <c r="H17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I17" s="3">
-        <v>78200</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>4</v>
+        <v>61500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>77200</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>4</v>
@@ -997,31 +1024,34 @@
       <c r="L17" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-53400</v>
+        <v>-54000</v>
       </c>
       <c r="E18" s="3">
-        <v>-16300</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
+        <v>-52700</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-16100</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="3">
-        <v>-32900</v>
+      <c r="H18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I18" s="3">
-        <v>-43200</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
+        <v>-32500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-42700</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>4</v>
@@ -1029,8 +1059,11 @@
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,31 +1076,32 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2900</v>
+        <v>4800</v>
       </c>
       <c r="E20" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F20" s="3">
         <v>2300</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3">
         <v>1600</v>
       </c>
-      <c r="I20" s="3">
-        <v>5500</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
+      <c r="J20" s="3">
+        <v>5400</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>4</v>
@@ -1075,19 +1109,22 @@
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
-        <v>-13200</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-13100</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
@@ -1095,11 +1132,11 @@
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
-        <v>-34600</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-34200</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
@@ -1107,8 +1144,11 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1133,51 +1173,57 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-50600</v>
+        <v>-49200</v>
       </c>
       <c r="E23" s="3">
-        <v>-14000</v>
+        <v>-49900</v>
       </c>
       <c r="F23" s="3">
-        <v>-17100</v>
+        <v>-13800</v>
       </c>
       <c r="G23" s="3">
-        <v>-18200</v>
+        <v>-16900</v>
       </c>
       <c r="H23" s="3">
-        <v>-31300</v>
+        <v>-17900</v>
       </c>
       <c r="I23" s="3">
-        <v>-37800</v>
+        <v>-30900</v>
       </c>
       <c r="J23" s="3">
+        <v>-37300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-43900</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
         <v>100</v>
@@ -1186,25 +1232,28 @@
         <v>100</v>
       </c>
       <c r="G24" s="3">
+        <v>100</v>
+      </c>
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>4</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,31 +1284,34 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-50700</v>
+        <v>-49400</v>
       </c>
       <c r="E26" s="3">
-        <v>-14000</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>4</v>
+        <v>-50000</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-13900</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H26" s="3">
-        <v>-31400</v>
+      <c r="H26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I26" s="3">
-        <v>-37800</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>4</v>
+        <v>-31000</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-37300</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>4</v>
@@ -1267,31 +1319,34 @@
       <c r="L26" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-77300</v>
+        <v>-49400</v>
       </c>
       <c r="E27" s="3">
-        <v>-40500</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>4</v>
+        <v>-76300</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-40000</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H27" s="3">
-        <v>-57200</v>
+      <c r="H27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I27" s="3">
-        <v>-63200</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>4</v>
+        <v>-56500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-62300</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>4</v>
@@ -1299,8 +1354,11 @@
       <c r="L27" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1389,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1357,14 +1418,17 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>4</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,31 +1494,34 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2900</v>
+        <v>-4800</v>
       </c>
       <c r="E32" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2300</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1600</v>
       </c>
-      <c r="I32" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
+      <c r="J32" s="3">
+        <v>-5400</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>4</v>
@@ -1459,31 +1529,34 @@
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-77300</v>
+        <v>-49400</v>
       </c>
       <c r="E33" s="3">
-        <v>-40500</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>4</v>
+        <v>-76300</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-40000</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H33" s="3">
-        <v>-57200</v>
+      <c r="H33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I33" s="3">
-        <v>-63200</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>4</v>
+        <v>-56500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-62300</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>4</v>
@@ -1491,8 +1564,11 @@
       <c r="L33" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,31 +1599,34 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-77300</v>
+        <v>-49400</v>
       </c>
       <c r="E35" s="3">
-        <v>-40500</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>4</v>
+        <v>-76300</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-40000</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H35" s="3">
-        <v>-57200</v>
+      <c r="H35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I35" s="3">
-        <v>-63200</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>4</v>
+        <v>-56500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-62300</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>4</v>
@@ -1555,45 +1634,51 @@
       <c r="L35" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,22 +1706,23 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>936900</v>
+        <v>136200</v>
       </c>
       <c r="E41" s="3">
-        <v>149400</v>
+        <v>924800</v>
       </c>
       <c r="F41" s="3">
-        <v>103400</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>4</v>
+        <v>147500</v>
+      </c>
+      <c r="G41" s="3">
+        <v>102000</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>4</v>
@@ -1652,22 +1739,25 @@
       <c r="L41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>279300</v>
+        <v>748500</v>
       </c>
       <c r="E42" s="3">
-        <v>333700</v>
+        <v>275700</v>
       </c>
       <c r="F42" s="3">
-        <v>400300</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
+        <v>329400</v>
+      </c>
+      <c r="G42" s="3">
+        <v>395100</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>4</v>
@@ -1684,22 +1774,25 @@
       <c r="L42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>78800</v>
+        <v>92800</v>
       </c>
       <c r="E43" s="3">
-        <v>85300</v>
+        <v>77800</v>
       </c>
       <c r="F43" s="3">
-        <v>62100</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
+        <v>84200</v>
+      </c>
+      <c r="G43" s="3">
+        <v>61300</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>4</v>
@@ -1716,8 +1809,11 @@
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1742,28 +1838,31 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
+      <c r="K44" s="3">
+        <v>0</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>15600</v>
+        <v>210300</v>
       </c>
       <c r="E45" s="3">
-        <v>12000</v>
+        <v>15400</v>
       </c>
       <c r="F45" s="3">
-        <v>7100</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
+        <v>11800</v>
+      </c>
+      <c r="G45" s="3">
+        <v>7000</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>4</v>
@@ -1780,22 +1879,25 @@
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1310700</v>
+        <v>1187800</v>
       </c>
       <c r="E46" s="3">
-        <v>580400</v>
+        <v>1293600</v>
       </c>
       <c r="F46" s="3">
         <v>572800</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>4</v>
+      <c r="G46" s="3">
+        <v>565400</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>4</v>
@@ -1812,16 +1914,19 @@
       <c r="L46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3100</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
+        <v>3000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>3000</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>4</v>
@@ -1844,22 +1949,25 @@
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13400</v>
+        <v>13900</v>
       </c>
       <c r="E48" s="3">
-        <v>1800</v>
+        <v>13200</v>
       </c>
       <c r="F48" s="3">
-        <v>2900</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
+        <v>1700</v>
+      </c>
+      <c r="G48" s="3">
+        <v>2800</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>4</v>
@@ -1876,22 +1984,25 @@
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E49" s="3">
         <v>3200</v>
       </c>
-      <c r="E49" s="3">
-        <v>3700</v>
-      </c>
       <c r="F49" s="3">
-        <v>4100</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
+        <v>3600</v>
+      </c>
+      <c r="G49" s="3">
+        <v>4000</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>4</v>
@@ -1908,8 +2019,11 @@
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,23 +2089,26 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>26400</v>
+        <v>115300</v>
       </c>
       <c r="E52" s="3">
+        <v>26000</v>
+      </c>
+      <c r="F52" s="3">
         <v>1000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>100</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2004,8 +2124,11 @@
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,22 +2159,25 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1356700</v>
+        <v>1322800</v>
       </c>
       <c r="E54" s="3">
-        <v>586800</v>
+        <v>1339100</v>
       </c>
       <c r="F54" s="3">
-        <v>579900</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>4</v>
+        <v>579200</v>
+      </c>
+      <c r="G54" s="3">
+        <v>572300</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>4</v>
@@ -2068,8 +2194,11 @@
       <c r="L54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,22 +2226,23 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>93800</v>
+        <v>116200</v>
       </c>
       <c r="E57" s="3">
-        <v>78300</v>
+        <v>92600</v>
       </c>
       <c r="F57" s="3">
-        <v>61600</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
+        <v>77300</v>
+      </c>
+      <c r="G57" s="3">
+        <v>60800</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>4</v>
@@ -2128,8 +2259,11 @@
       <c r="L57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2154,28 +2288,31 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>98700</v>
+        <v>103000</v>
       </c>
       <c r="E59" s="3">
-        <v>80000</v>
+        <v>97400</v>
       </c>
       <c r="F59" s="3">
-        <v>72000</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
+        <v>78900</v>
+      </c>
+      <c r="G59" s="3">
+        <v>71000</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>4</v>
@@ -2192,22 +2329,25 @@
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>192500</v>
+        <v>219100</v>
       </c>
       <c r="E60" s="3">
-        <v>158300</v>
+        <v>190000</v>
       </c>
       <c r="F60" s="3">
-        <v>133600</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>4</v>
+        <v>156200</v>
+      </c>
+      <c r="G60" s="3">
+        <v>131900</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>4</v>
@@ -2224,8 +2364,11 @@
       <c r="L60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2256,23 +2399,26 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7700</v>
+        <v>8100</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>7600</v>
       </c>
       <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
         <v>100</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
       </c>
@@ -2288,8 +2434,11 @@
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,22 +2539,25 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>200200</v>
+        <v>227300</v>
       </c>
       <c r="E66" s="3">
-        <v>158300</v>
+        <v>197600</v>
       </c>
       <c r="F66" s="3">
-        <v>133700</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>4</v>
+        <v>156200</v>
+      </c>
+      <c r="G66" s="3">
+        <v>132000</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>4</v>
@@ -2416,8 +2574,11 @@
       <c r="L66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2503,13 +2671,13 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>1231100</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>1204600</v>
+        <v>1215100</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>1189000</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2520,14 +2688,17 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3" t="s">
-        <v>4</v>
+      <c r="K70" s="3">
+        <v>0</v>
       </c>
       <c r="L70" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,22 +2729,25 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E72" s="3">
-        <v>-772000</v>
+      <c r="E72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F72" s="3">
-        <v>-741900</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>4</v>
+        <v>-762000</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-732200</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>4</v>
@@ -2590,8 +2764,11 @@
       <c r="L72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,22 +2869,25 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1156500</v>
+        <v>1095500</v>
       </c>
       <c r="E76" s="3">
-        <v>-802600</v>
+        <v>1141500</v>
       </c>
       <c r="F76" s="3">
-        <v>-758500</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>4</v>
+        <v>-792100</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-748600</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>4</v>
@@ -2718,8 +2904,11 @@
       <c r="L76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,68 +2939,74 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-77300</v>
+        <v>-49400</v>
       </c>
       <c r="E81" s="3">
-        <v>-40500</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>4</v>
+        <v>-76300</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-40000</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H81" s="3">
-        <v>-57200</v>
+      <c r="H81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I81" s="3">
-        <v>-63200</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>4</v>
+        <v>-56500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-62300</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>4</v>
@@ -2819,8 +3014,11 @@
       <c r="L81" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,20 +3031,21 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="3">
         <v>700</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>4</v>
       </c>
@@ -2865,8 +3064,11 @@
       <c r="L83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,19 +3239,22 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E89" s="3">
-        <v>8200</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>4</v>
+      <c r="E89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" s="3">
+        <v>8100</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>4</v>
@@ -3057,8 +3274,11 @@
       <c r="L89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,20 +3291,21 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
@@ -3103,8 +3324,11 @@
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,19 +3394,22 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="3">
-        <v>47800</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3">
+        <v>47200</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
@@ -3199,8 +3429,11 @@
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,20 +3584,23 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>4</v>
       </c>
@@ -3373,19 +3619,22 @@
       <c r="L100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E101" s="3">
-        <v>-10400</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
+      <c r="E101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-10300</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>4</v>
@@ -3405,19 +3654,22 @@
       <c r="L101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E102" s="3">
-        <v>46000</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>4</v>
+      <c r="E102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F102" s="3">
+        <v>45400</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>4</v>
@@ -3435,6 +3687,9 @@
         <v>4</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="92">
   <si>
     <t>ZH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,181 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>98300</v>
+        <v>128900</v>
       </c>
       <c r="E8" s="3">
-        <v>73600</v>
+        <v>99900</v>
       </c>
       <c r="F8" s="3">
-        <v>80000</v>
+        <v>74900</v>
       </c>
       <c r="G8" s="3">
-        <v>58900</v>
+        <v>81400</v>
       </c>
       <c r="H8" s="3">
-        <v>40300</v>
+        <v>59900</v>
       </c>
       <c r="I8" s="3">
-        <v>29000</v>
+        <v>40900</v>
       </c>
       <c r="J8" s="3">
+        <v>29500</v>
+      </c>
+      <c r="K8" s="3">
         <v>34500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>27100</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>40300</v>
+        <v>62400</v>
       </c>
       <c r="E9" s="3">
-        <v>31700</v>
+        <v>41000</v>
       </c>
       <c r="F9" s="3">
-        <v>28800</v>
+        <v>32200</v>
       </c>
       <c r="G9" s="3">
-        <v>25100</v>
+        <v>29200</v>
       </c>
       <c r="H9" s="3">
-        <v>20800</v>
+        <v>51000</v>
       </c>
       <c r="I9" s="3">
-        <v>16900</v>
+        <v>42300</v>
       </c>
       <c r="J9" s="3">
+        <v>17200</v>
+      </c>
+      <c r="K9" s="3">
         <v>15500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>14100</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>58000</v>
+        <v>66500</v>
       </c>
       <c r="E10" s="3">
-        <v>42000</v>
+        <v>59000</v>
       </c>
       <c r="F10" s="3">
-        <v>51300</v>
+        <v>42700</v>
       </c>
       <c r="G10" s="3">
-        <v>33900</v>
+        <v>52100</v>
       </c>
       <c r="H10" s="3">
-        <v>19500</v>
+        <v>9000</v>
       </c>
       <c r="I10" s="3">
-        <v>12100</v>
+        <v>-1300</v>
       </c>
       <c r="J10" s="3">
+        <v>12300</v>
+      </c>
+      <c r="K10" s="3">
         <v>19000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>13000</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,43 +853,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>18600</v>
+        <v>28900</v>
       </c>
       <c r="E12" s="3">
-        <v>16400</v>
+        <v>18900</v>
       </c>
       <c r="F12" s="3">
-        <v>12700</v>
+        <v>16600</v>
       </c>
       <c r="G12" s="3">
-        <v>11900</v>
+        <v>12900</v>
       </c>
       <c r="H12" s="3">
+        <v>24200</v>
+      </c>
+      <c r="I12" s="3">
+        <v>26200</v>
+      </c>
+      <c r="J12" s="3">
+        <v>13600</v>
+      </c>
+      <c r="K12" s="3">
+        <v>13900</v>
+      </c>
+      <c r="L12" s="3">
         <v>12900</v>
       </c>
-      <c r="I12" s="3">
-        <v>13300</v>
-      </c>
-      <c r="J12" s="3">
-        <v>13900</v>
-      </c>
-      <c r="K12" s="3">
-        <v>12900</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +927,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -939,14 +959,17 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -974,14 +997,17 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1018,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>152300</v>
+        <v>179400</v>
       </c>
       <c r="E17" s="3">
-        <v>126400</v>
+        <v>154800</v>
       </c>
       <c r="F17" s="3">
-        <v>96100</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>4</v>
+        <v>128500</v>
+      </c>
+      <c r="G17" s="3">
+        <v>97700</v>
+      </c>
+      <c r="H17" s="3">
+        <v>80300</v>
       </c>
       <c r="I17" s="3">
-        <v>61500</v>
+        <v>65600</v>
       </c>
       <c r="J17" s="3">
+        <v>62500</v>
+      </c>
+      <c r="K17" s="3">
         <v>77200</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-54000</v>
+        <v>-50500</v>
       </c>
       <c r="E18" s="3">
-        <v>-52700</v>
+        <v>-54900</v>
       </c>
       <c r="F18" s="3">
-        <v>-16100</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
+        <v>-53600</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-20300</v>
       </c>
       <c r="I18" s="3">
-        <v>-32500</v>
+        <v>-24700</v>
       </c>
       <c r="J18" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-42700</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,43 +1110,47 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>4800</v>
+        <v>8300</v>
       </c>
       <c r="E20" s="3">
-        <v>2800</v>
+        <v>4900</v>
       </c>
       <c r="F20" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G20" s="3">
         <v>2300</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
+      <c r="H20" s="3">
+        <v>3200</v>
       </c>
       <c r="I20" s="3">
+        <v>6400</v>
+      </c>
+      <c r="J20" s="3">
         <v>1600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>5400</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1123,32 +1160,35 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
-        <v>-13100</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-14800</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>-34200</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1176,57 +1216,63 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-49200</v>
+        <v>-42200</v>
       </c>
       <c r="E23" s="3">
-        <v>-49900</v>
+        <v>-50000</v>
       </c>
       <c r="F23" s="3">
-        <v>-13800</v>
+        <v>-50700</v>
       </c>
       <c r="G23" s="3">
-        <v>-16900</v>
+        <v>-14000</v>
       </c>
       <c r="H23" s="3">
-        <v>-17900</v>
+        <v>-17200</v>
       </c>
       <c r="I23" s="3">
-        <v>-30900</v>
+        <v>-18200</v>
       </c>
       <c r="J23" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-37300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-43900</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
-      </c>
-      <c r="E24" s="3">
-        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>100</v>
@@ -1235,25 +1281,28 @@
         <v>100</v>
       </c>
       <c r="H24" s="3">
+        <v>100</v>
+      </c>
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>4</v>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-49400</v>
+        <v>-42200</v>
       </c>
       <c r="E26" s="3">
-        <v>-50000</v>
+        <v>-50300</v>
       </c>
       <c r="F26" s="3">
-        <v>-13900</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>4</v>
+        <v>-50800</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-17200</v>
       </c>
       <c r="I26" s="3">
-        <v>-31000</v>
+        <v>-18200</v>
       </c>
       <c r="J26" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-37300</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-49400</v>
+        <v>-42200</v>
       </c>
       <c r="E27" s="3">
-        <v>-76300</v>
+        <v>-50300</v>
       </c>
       <c r="F27" s="3">
-        <v>-40000</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>4</v>
+        <v>-77500</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-44300</v>
       </c>
       <c r="I27" s="3">
-        <v>-56500</v>
+        <v>-45200</v>
       </c>
       <c r="J27" s="3">
+        <v>-57400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-62300</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1421,14 +1482,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>4</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1564,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4800</v>
+        <v>-8300</v>
       </c>
       <c r="E32" s="3">
-        <v>-2800</v>
+        <v>-4900</v>
       </c>
       <c r="F32" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="G32" s="3">
         <v>-2300</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
+      <c r="H32" s="3">
+        <v>-3200</v>
       </c>
       <c r="I32" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-5400</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-49400</v>
+        <v>-42200</v>
       </c>
       <c r="E33" s="3">
-        <v>-76300</v>
+        <v>-50300</v>
       </c>
       <c r="F33" s="3">
-        <v>-40000</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>4</v>
+        <v>-77500</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-44300</v>
       </c>
       <c r="I33" s="3">
-        <v>-56500</v>
+        <v>-45200</v>
       </c>
       <c r="J33" s="3">
+        <v>-57400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-62300</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-49400</v>
+        <v>-42200</v>
       </c>
       <c r="E35" s="3">
-        <v>-76300</v>
+        <v>-50300</v>
       </c>
       <c r="F35" s="3">
-        <v>-40000</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>4</v>
+        <v>-77500</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-44300</v>
       </c>
       <c r="I35" s="3">
-        <v>-56500</v>
+        <v>-45200</v>
       </c>
       <c r="J35" s="3">
+        <v>-57400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-62300</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,25 +1793,26 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>136200</v>
+        <v>229700</v>
       </c>
       <c r="E41" s="3">
-        <v>924800</v>
+        <v>138500</v>
       </c>
       <c r="F41" s="3">
-        <v>147500</v>
+        <v>940200</v>
       </c>
       <c r="G41" s="3">
-        <v>102000</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>4</v>
+        <v>150000</v>
+      </c>
+      <c r="H41" s="3">
+        <v>103700</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>4</v>
@@ -1742,25 +1829,28 @@
       <c r="M41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>748500</v>
+        <v>830800</v>
       </c>
       <c r="E42" s="3">
-        <v>275700</v>
+        <v>761100</v>
       </c>
       <c r="F42" s="3">
-        <v>329400</v>
+        <v>280300</v>
       </c>
       <c r="G42" s="3">
-        <v>395100</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
+        <v>334900</v>
+      </c>
+      <c r="H42" s="3">
+        <v>401700</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>4</v>
@@ -1777,25 +1867,28 @@
       <c r="M42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>92800</v>
+        <v>112400</v>
       </c>
       <c r="E43" s="3">
-        <v>77800</v>
+        <v>94400</v>
       </c>
       <c r="F43" s="3">
-        <v>84200</v>
+        <v>79100</v>
       </c>
       <c r="G43" s="3">
-        <v>61300</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
+        <v>85600</v>
+      </c>
+      <c r="H43" s="3">
+        <v>62300</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>4</v>
@@ -1812,8 +1905,11 @@
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1841,31 +1937,34 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
+      <c r="L44" s="3">
+        <v>0</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>210300</v>
+        <v>130400</v>
       </c>
       <c r="E45" s="3">
-        <v>15400</v>
+        <v>213800</v>
       </c>
       <c r="F45" s="3">
-        <v>11800</v>
+        <v>15700</v>
       </c>
       <c r="G45" s="3">
-        <v>7000</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
+        <v>12000</v>
+      </c>
+      <c r="H45" s="3">
+        <v>7100</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>4</v>
@@ -1882,25 +1981,28 @@
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1187800</v>
+        <v>1303400</v>
       </c>
       <c r="E46" s="3">
-        <v>1293600</v>
+        <v>1207700</v>
       </c>
       <c r="F46" s="3">
-        <v>572800</v>
+        <v>1315300</v>
       </c>
       <c r="G46" s="3">
-        <v>565400</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>4</v>
+        <v>582400</v>
+      </c>
+      <c r="H46" s="3">
+        <v>574900</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>4</v>
@@ -1917,8 +2019,11 @@
       <c r="M46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1928,8 +2033,8 @@
       <c r="E47" s="3">
         <v>3000</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
+      <c r="F47" s="3">
+        <v>3100</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>4</v>
@@ -1952,25 +2057,28 @@
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13900</v>
+        <v>16700</v>
       </c>
       <c r="E48" s="3">
-        <v>13200</v>
+        <v>14200</v>
       </c>
       <c r="F48" s="3">
-        <v>1700</v>
+        <v>13400</v>
       </c>
       <c r="G48" s="3">
-        <v>2800</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
+        <v>1800</v>
+      </c>
+      <c r="H48" s="3">
+        <v>2900</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>4</v>
@@ -1987,25 +2095,28 @@
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2700</v>
+        <v>17200</v>
       </c>
       <c r="E49" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F49" s="3">
         <v>3200</v>
       </c>
-      <c r="F49" s="3">
-        <v>3600</v>
-      </c>
       <c r="G49" s="3">
-        <v>4000</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
+        <v>3700</v>
+      </c>
+      <c r="H49" s="3">
+        <v>4100</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>4</v>
@@ -2022,8 +2133,11 @@
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,26 +2209,29 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>115300</v>
+        <v>27300</v>
       </c>
       <c r="E52" s="3">
-        <v>26000</v>
+        <v>117200</v>
       </c>
       <c r="F52" s="3">
+        <v>26500</v>
+      </c>
+      <c r="G52" s="3">
         <v>1000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>100</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2127,8 +2247,11 @@
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,25 +2285,28 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1322800</v>
+        <v>1367700</v>
       </c>
       <c r="E54" s="3">
-        <v>1339100</v>
+        <v>1344900</v>
       </c>
       <c r="F54" s="3">
-        <v>579200</v>
+        <v>1361500</v>
       </c>
       <c r="G54" s="3">
-        <v>572300</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>4</v>
+        <v>588900</v>
+      </c>
+      <c r="H54" s="3">
+        <v>581900</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>4</v>
@@ -2197,8 +2323,11 @@
       <c r="M54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,25 +2357,26 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>116200</v>
+        <v>126400</v>
       </c>
       <c r="E57" s="3">
-        <v>92600</v>
+        <v>118100</v>
       </c>
       <c r="F57" s="3">
-        <v>77300</v>
+        <v>94200</v>
       </c>
       <c r="G57" s="3">
-        <v>60800</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
+        <v>78600</v>
+      </c>
+      <c r="H57" s="3">
+        <v>61900</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>4</v>
@@ -2262,8 +2393,11 @@
       <c r="M57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2291,31 +2425,34 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
+      <c r="L58" s="3">
+        <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>103000</v>
+        <v>124600</v>
       </c>
       <c r="E59" s="3">
-        <v>97400</v>
+        <v>104700</v>
       </c>
       <c r="F59" s="3">
-        <v>78900</v>
+        <v>99100</v>
       </c>
       <c r="G59" s="3">
-        <v>71000</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
+        <v>80300</v>
+      </c>
+      <c r="H59" s="3">
+        <v>72200</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>4</v>
@@ -2332,25 +2469,28 @@
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>219100</v>
+        <v>251000</v>
       </c>
       <c r="E60" s="3">
-        <v>190000</v>
+        <v>222800</v>
       </c>
       <c r="F60" s="3">
-        <v>156200</v>
+        <v>193200</v>
       </c>
       <c r="G60" s="3">
-        <v>131900</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>4</v>
+        <v>158800</v>
+      </c>
+      <c r="H60" s="3">
+        <v>134100</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>4</v>
@@ -2367,8 +2507,11 @@
       <c r="M60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2402,26 +2545,29 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8100</v>
+        <v>18500</v>
       </c>
       <c r="E62" s="3">
-        <v>7600</v>
+        <v>8200</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
+        <v>7700</v>
       </c>
       <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
         <v>100</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
       </c>
@@ -2437,8 +2583,11 @@
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,25 +2697,28 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>227300</v>
+        <v>270100</v>
       </c>
       <c r="E66" s="3">
-        <v>197600</v>
+        <v>231100</v>
       </c>
       <c r="F66" s="3">
-        <v>156200</v>
+        <v>200900</v>
       </c>
       <c r="G66" s="3">
-        <v>132000</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>4</v>
+        <v>158800</v>
+      </c>
+      <c r="H66" s="3">
+        <v>134200</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>4</v>
@@ -2577,8 +2735,11 @@
       <c r="M66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2674,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>1215100</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>1189000</v>
+        <v>1235500</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>1208900</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2691,14 +2859,17 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3" t="s">
-        <v>4</v>
+      <c r="L70" s="3">
+        <v>0</v>
       </c>
       <c r="M70" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,8 +2903,11 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2743,14 +2917,14 @@
       <c r="E72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F72" s="3">
-        <v>-762000</v>
+      <c r="F72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G72" s="3">
-        <v>-732200</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>4</v>
+        <v>-774800</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-744500</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>4</v>
@@ -2767,8 +2941,11 @@
       <c r="M72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,25 +3055,28 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1095500</v>
+        <v>1097600</v>
       </c>
       <c r="E76" s="3">
-        <v>1141500</v>
+        <v>1113900</v>
       </c>
       <c r="F76" s="3">
-        <v>-792100</v>
+        <v>1160600</v>
       </c>
       <c r="G76" s="3">
-        <v>-748600</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>4</v>
+        <v>-805400</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-761100</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>4</v>
@@ -2907,8 +3093,11 @@
       <c r="M76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-49400</v>
+        <v>-42200</v>
       </c>
       <c r="E81" s="3">
-        <v>-76300</v>
+        <v>-50300</v>
       </c>
       <c r="F81" s="3">
-        <v>-40000</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>4</v>
+        <v>-77500</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-44300</v>
       </c>
       <c r="I81" s="3">
-        <v>-56500</v>
+        <v>-45200</v>
       </c>
       <c r="J81" s="3">
+        <v>-57400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-62300</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3230,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3043,11 +3242,11 @@
       <c r="E83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F83" s="3">
-        <v>700</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="3">
+        <v>3100</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>4</v>
@@ -3067,8 +3266,11 @@
       <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,8 +3456,11 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3253,11 +3470,11 @@
       <c r="E89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F89" s="3">
-        <v>8100</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>4</v>
+      <c r="F89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-38300</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>4</v>
@@ -3277,8 +3494,11 @@
       <c r="M89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,8 +3512,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3303,11 +3524,11 @@
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-300</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
@@ -3327,8 +3548,11 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,8 +3624,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3408,11 +3638,11 @@
       <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="3">
-        <v>47200</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3">
+        <v>67300</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
@@ -3432,8 +3662,11 @@
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,8 +3830,11 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3598,11 +3844,11 @@
       <c r="E100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="3">
-        <v>500</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" s="3">
+        <v>1500</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>4</v>
@@ -3622,8 +3868,11 @@
       <c r="M100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3633,11 +3882,11 @@
       <c r="E101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F101" s="3">
-        <v>-10300</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
+      <c r="F101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-21500</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>4</v>
@@ -3657,8 +3906,11 @@
       <c r="M101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3668,11 +3920,11 @@
       <c r="E102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F102" s="3">
-        <v>45400</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>4</v>
+      <c r="F102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G102" s="3">
+        <v>9000</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>4</v>
@@ -3690,6 +3942,9 @@
         <v>4</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZH_QTR_FIN.xlsx
@@ -730,25 +730,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>128900</v>
+        <v>129900</v>
       </c>
       <c r="E8" s="3">
-        <v>99900</v>
+        <v>100700</v>
       </c>
       <c r="F8" s="3">
-        <v>74900</v>
+        <v>75500</v>
       </c>
       <c r="G8" s="3">
-        <v>81400</v>
+        <v>82000</v>
       </c>
       <c r="H8" s="3">
-        <v>59900</v>
+        <v>60400</v>
       </c>
       <c r="I8" s="3">
-        <v>40900</v>
+        <v>41200</v>
       </c>
       <c r="J8" s="3">
-        <v>29500</v>
+        <v>29700</v>
       </c>
       <c r="K8" s="3">
         <v>34500</v>
@@ -768,25 +768,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>62400</v>
+        <v>62900</v>
       </c>
       <c r="E9" s="3">
-        <v>41000</v>
+        <v>41300</v>
       </c>
       <c r="F9" s="3">
-        <v>32200</v>
+        <v>32400</v>
       </c>
       <c r="G9" s="3">
-        <v>29200</v>
+        <v>29500</v>
       </c>
       <c r="H9" s="3">
-        <v>51000</v>
+        <v>51400</v>
       </c>
       <c r="I9" s="3">
-        <v>42300</v>
+        <v>42600</v>
       </c>
       <c r="J9" s="3">
-        <v>17200</v>
+        <v>17300</v>
       </c>
       <c r="K9" s="3">
         <v>15500</v>
@@ -806,25 +806,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>66500</v>
+        <v>67000</v>
       </c>
       <c r="E10" s="3">
-        <v>59000</v>
+        <v>59400</v>
       </c>
       <c r="F10" s="3">
-        <v>42700</v>
+        <v>43000</v>
       </c>
       <c r="G10" s="3">
-        <v>52100</v>
+        <v>52500</v>
       </c>
       <c r="H10" s="3">
         <v>9000</v>
       </c>
       <c r="I10" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="J10" s="3">
-        <v>12300</v>
+        <v>12400</v>
       </c>
       <c r="K10" s="3">
         <v>19000</v>
@@ -860,25 +860,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>28900</v>
+        <v>29100</v>
       </c>
       <c r="E12" s="3">
-        <v>18900</v>
+        <v>19000</v>
       </c>
       <c r="F12" s="3">
-        <v>16600</v>
+        <v>16800</v>
       </c>
       <c r="G12" s="3">
-        <v>12900</v>
+        <v>13000</v>
       </c>
       <c r="H12" s="3">
-        <v>24200</v>
+        <v>24400</v>
       </c>
       <c r="I12" s="3">
-        <v>26200</v>
+        <v>26400</v>
       </c>
       <c r="J12" s="3">
-        <v>13600</v>
+        <v>13700</v>
       </c>
       <c r="K12" s="3">
         <v>13900</v>
@@ -1025,25 +1025,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>179400</v>
+        <v>180800</v>
       </c>
       <c r="E17" s="3">
-        <v>154800</v>
+        <v>156000</v>
       </c>
       <c r="F17" s="3">
-        <v>128500</v>
+        <v>129500</v>
       </c>
       <c r="G17" s="3">
-        <v>97700</v>
+        <v>98500</v>
       </c>
       <c r="H17" s="3">
-        <v>80300</v>
+        <v>80900</v>
       </c>
       <c r="I17" s="3">
-        <v>65600</v>
+        <v>66100</v>
       </c>
       <c r="J17" s="3">
-        <v>62500</v>
+        <v>63000</v>
       </c>
       <c r="K17" s="3">
         <v>77200</v>
@@ -1063,25 +1063,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-50500</v>
+        <v>-50900</v>
       </c>
       <c r="E18" s="3">
-        <v>-54900</v>
+        <v>-55300</v>
       </c>
       <c r="F18" s="3">
-        <v>-53600</v>
+        <v>-54000</v>
       </c>
       <c r="G18" s="3">
-        <v>-16400</v>
+        <v>-16500</v>
       </c>
       <c r="H18" s="3">
-        <v>-20300</v>
+        <v>-20500</v>
       </c>
       <c r="I18" s="3">
-        <v>-24700</v>
+        <v>-24900</v>
       </c>
       <c r="J18" s="3">
-        <v>-33000</v>
+        <v>-33300</v>
       </c>
       <c r="K18" s="3">
         <v>-42700</v>
@@ -1117,7 +1117,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>8300</v>
+        <v>8400</v>
       </c>
       <c r="E20" s="3">
         <v>4900</v>
@@ -1126,13 +1126,13 @@
         <v>2900</v>
       </c>
       <c r="G20" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="H20" s="3">
         <v>3200</v>
       </c>
       <c r="I20" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="J20" s="3">
         <v>1600</v>
@@ -1167,7 +1167,7 @@
         <v>-11000</v>
       </c>
       <c r="H21" s="3">
-        <v>-14800</v>
+        <v>-15000</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
@@ -1231,25 +1231,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-42200</v>
+        <v>-42500</v>
       </c>
       <c r="E23" s="3">
-        <v>-50000</v>
+        <v>-50400</v>
       </c>
       <c r="F23" s="3">
-        <v>-50700</v>
+        <v>-51100</v>
       </c>
       <c r="G23" s="3">
-        <v>-14000</v>
+        <v>-14100</v>
       </c>
       <c r="H23" s="3">
-        <v>-17200</v>
+        <v>-17300</v>
       </c>
       <c r="I23" s="3">
-        <v>-18200</v>
+        <v>-18400</v>
       </c>
       <c r="J23" s="3">
-        <v>-31400</v>
+        <v>-31700</v>
       </c>
       <c r="K23" s="3">
         <v>-37300</v>
@@ -1345,25 +1345,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-42200</v>
+        <v>-42600</v>
       </c>
       <c r="E26" s="3">
-        <v>-50300</v>
+        <v>-50700</v>
       </c>
       <c r="F26" s="3">
-        <v>-50800</v>
+        <v>-51200</v>
       </c>
       <c r="G26" s="3">
-        <v>-14100</v>
+        <v>-14200</v>
       </c>
       <c r="H26" s="3">
-        <v>-17200</v>
+        <v>-17400</v>
       </c>
       <c r="I26" s="3">
-        <v>-18200</v>
+        <v>-18300</v>
       </c>
       <c r="J26" s="3">
-        <v>-31500</v>
+        <v>-31800</v>
       </c>
       <c r="K26" s="3">
         <v>-37300</v>
@@ -1383,25 +1383,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-42200</v>
+        <v>-42600</v>
       </c>
       <c r="E27" s="3">
-        <v>-50300</v>
+        <v>-50700</v>
       </c>
       <c r="F27" s="3">
-        <v>-77500</v>
+        <v>-78100</v>
       </c>
       <c r="G27" s="3">
-        <v>-40700</v>
+        <v>-41000</v>
       </c>
       <c r="H27" s="3">
-        <v>-44300</v>
+        <v>-44600</v>
       </c>
       <c r="I27" s="3">
-        <v>-45200</v>
+        <v>-45500</v>
       </c>
       <c r="J27" s="3">
-        <v>-57400</v>
+        <v>-57900</v>
       </c>
       <c r="K27" s="3">
         <v>-62300</v>
@@ -1573,7 +1573,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-8300</v>
+        <v>-8400</v>
       </c>
       <c r="E32" s="3">
         <v>-4900</v>
@@ -1582,13 +1582,13 @@
         <v>-2900</v>
       </c>
       <c r="G32" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="H32" s="3">
         <v>-3200</v>
       </c>
       <c r="I32" s="3">
-        <v>-6400</v>
+        <v>-6500</v>
       </c>
       <c r="J32" s="3">
         <v>-1600</v>
@@ -1611,25 +1611,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-42200</v>
+        <v>-42600</v>
       </c>
       <c r="E33" s="3">
-        <v>-50300</v>
+        <v>-50700</v>
       </c>
       <c r="F33" s="3">
-        <v>-77500</v>
+        <v>-78100</v>
       </c>
       <c r="G33" s="3">
-        <v>-40700</v>
+        <v>-41000</v>
       </c>
       <c r="H33" s="3">
-        <v>-44300</v>
+        <v>-44600</v>
       </c>
       <c r="I33" s="3">
-        <v>-45200</v>
+        <v>-45500</v>
       </c>
       <c r="J33" s="3">
-        <v>-57400</v>
+        <v>-57900</v>
       </c>
       <c r="K33" s="3">
         <v>-62300</v>
@@ -1687,25 +1687,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-42200</v>
+        <v>-42600</v>
       </c>
       <c r="E35" s="3">
-        <v>-50300</v>
+        <v>-50700</v>
       </c>
       <c r="F35" s="3">
-        <v>-77500</v>
+        <v>-78100</v>
       </c>
       <c r="G35" s="3">
-        <v>-40700</v>
+        <v>-41000</v>
       </c>
       <c r="H35" s="3">
-        <v>-44300</v>
+        <v>-44600</v>
       </c>
       <c r="I35" s="3">
-        <v>-45200</v>
+        <v>-45500</v>
       </c>
       <c r="J35" s="3">
-        <v>-57400</v>
+        <v>-57900</v>
       </c>
       <c r="K35" s="3">
         <v>-62300</v>
@@ -1800,19 +1800,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>229700</v>
+        <v>231500</v>
       </c>
       <c r="E41" s="3">
-        <v>138500</v>
+        <v>139500</v>
       </c>
       <c r="F41" s="3">
-        <v>940200</v>
+        <v>947500</v>
       </c>
       <c r="G41" s="3">
-        <v>150000</v>
+        <v>151100</v>
       </c>
       <c r="H41" s="3">
-        <v>103700</v>
+        <v>104500</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>4</v>
@@ -1838,19 +1838,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>830800</v>
+        <v>837200</v>
       </c>
       <c r="E42" s="3">
-        <v>761100</v>
+        <v>766900</v>
       </c>
       <c r="F42" s="3">
-        <v>280300</v>
+        <v>282500</v>
       </c>
       <c r="G42" s="3">
-        <v>334900</v>
+        <v>337400</v>
       </c>
       <c r="H42" s="3">
-        <v>401700</v>
+        <v>404800</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>4</v>
@@ -1876,19 +1876,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>112400</v>
+        <v>113200</v>
       </c>
       <c r="E43" s="3">
-        <v>94400</v>
+        <v>95100</v>
       </c>
       <c r="F43" s="3">
-        <v>79100</v>
+        <v>79700</v>
       </c>
       <c r="G43" s="3">
-        <v>85600</v>
+        <v>86200</v>
       </c>
       <c r="H43" s="3">
-        <v>62300</v>
+        <v>62800</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>4</v>
@@ -1952,16 +1952,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>130400</v>
+        <v>131400</v>
       </c>
       <c r="E45" s="3">
-        <v>213800</v>
+        <v>215400</v>
       </c>
       <c r="F45" s="3">
-        <v>15700</v>
+        <v>15800</v>
       </c>
       <c r="G45" s="3">
-        <v>12000</v>
+        <v>12100</v>
       </c>
       <c r="H45" s="3">
         <v>7100</v>
@@ -1990,19 +1990,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1303400</v>
+        <v>1313300</v>
       </c>
       <c r="E46" s="3">
-        <v>1207700</v>
+        <v>1217000</v>
       </c>
       <c r="F46" s="3">
-        <v>1315300</v>
+        <v>1325400</v>
       </c>
       <c r="G46" s="3">
-        <v>582400</v>
+        <v>586900</v>
       </c>
       <c r="H46" s="3">
-        <v>574900</v>
+        <v>579300</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>4</v>
@@ -2028,10 +2028,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="E47" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="F47" s="3">
         <v>3100</v>
@@ -2066,13 +2066,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16700</v>
+        <v>16800</v>
       </c>
       <c r="E48" s="3">
-        <v>14200</v>
+        <v>14300</v>
       </c>
       <c r="F48" s="3">
-        <v>13400</v>
+        <v>13500</v>
       </c>
       <c r="G48" s="3">
         <v>1800</v>
@@ -2104,13 +2104,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>17200</v>
+        <v>17300</v>
       </c>
       <c r="E49" s="3">
         <v>2800</v>
       </c>
       <c r="F49" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="G49" s="3">
         <v>3700</v>
@@ -2218,13 +2218,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>27300</v>
+        <v>27500</v>
       </c>
       <c r="E52" s="3">
-        <v>117200</v>
+        <v>118100</v>
       </c>
       <c r="F52" s="3">
-        <v>26500</v>
+        <v>26700</v>
       </c>
       <c r="G52" s="3">
         <v>1000</v>
@@ -2294,19 +2294,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1367700</v>
+        <v>1378100</v>
       </c>
       <c r="E54" s="3">
-        <v>1344900</v>
+        <v>1355200</v>
       </c>
       <c r="F54" s="3">
-        <v>1361500</v>
+        <v>1371900</v>
       </c>
       <c r="G54" s="3">
-        <v>588900</v>
+        <v>593400</v>
       </c>
       <c r="H54" s="3">
-        <v>581900</v>
+        <v>586400</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>4</v>
@@ -2364,19 +2364,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>126400</v>
+        <v>127400</v>
       </c>
       <c r="E57" s="3">
-        <v>118100</v>
+        <v>119000</v>
       </c>
       <c r="F57" s="3">
-        <v>94200</v>
+        <v>94900</v>
       </c>
       <c r="G57" s="3">
-        <v>78600</v>
+        <v>79200</v>
       </c>
       <c r="H57" s="3">
-        <v>61900</v>
+        <v>62300</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>4</v>
@@ -2440,19 +2440,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>124600</v>
+        <v>125500</v>
       </c>
       <c r="E59" s="3">
-        <v>104700</v>
+        <v>105500</v>
       </c>
       <c r="F59" s="3">
-        <v>99100</v>
+        <v>99800</v>
       </c>
       <c r="G59" s="3">
-        <v>80300</v>
+        <v>80900</v>
       </c>
       <c r="H59" s="3">
-        <v>72200</v>
+        <v>72800</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>4</v>
@@ -2478,19 +2478,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>251000</v>
+        <v>253000</v>
       </c>
       <c r="E60" s="3">
-        <v>222800</v>
+        <v>224500</v>
       </c>
       <c r="F60" s="3">
-        <v>193200</v>
+        <v>194700</v>
       </c>
       <c r="G60" s="3">
-        <v>158800</v>
+        <v>160100</v>
       </c>
       <c r="H60" s="3">
-        <v>134100</v>
+        <v>135100</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>4</v>
@@ -2554,10 +2554,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>18500</v>
+        <v>18700</v>
       </c>
       <c r="E62" s="3">
-        <v>8200</v>
+        <v>8300</v>
       </c>
       <c r="F62" s="3">
         <v>7700</v>
@@ -2706,19 +2706,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>270100</v>
+        <v>272100</v>
       </c>
       <c r="E66" s="3">
-        <v>231100</v>
+        <v>232800</v>
       </c>
       <c r="F66" s="3">
-        <v>200900</v>
+        <v>202400</v>
       </c>
       <c r="G66" s="3">
-        <v>158800</v>
+        <v>160100</v>
       </c>
       <c r="H66" s="3">
-        <v>134200</v>
+        <v>135200</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>4</v>
@@ -2845,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>1235500</v>
+        <v>1244900</v>
       </c>
       <c r="H70" s="3">
-        <v>1208900</v>
+        <v>1218200</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2921,10 +2921,10 @@
         <v>4</v>
       </c>
       <c r="G72" s="3">
-        <v>-774800</v>
+        <v>-780700</v>
       </c>
       <c r="H72" s="3">
-        <v>-744500</v>
+        <v>-750200</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>4</v>
@@ -3064,19 +3064,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1097600</v>
+        <v>1106000</v>
       </c>
       <c r="E76" s="3">
-        <v>1113900</v>
+        <v>1122400</v>
       </c>
       <c r="F76" s="3">
-        <v>1160600</v>
+        <v>1169500</v>
       </c>
       <c r="G76" s="3">
-        <v>-805400</v>
+        <v>-811600</v>
       </c>
       <c r="H76" s="3">
-        <v>-761100</v>
+        <v>-767000</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>4</v>
@@ -3183,25 +3183,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-42200</v>
+        <v>-42600</v>
       </c>
       <c r="E81" s="3">
-        <v>-50300</v>
+        <v>-50700</v>
       </c>
       <c r="F81" s="3">
-        <v>-77500</v>
+        <v>-78100</v>
       </c>
       <c r="G81" s="3">
-        <v>-40700</v>
+        <v>-41000</v>
       </c>
       <c r="H81" s="3">
-        <v>-44300</v>
+        <v>-44600</v>
       </c>
       <c r="I81" s="3">
-        <v>-45200</v>
+        <v>-45500</v>
       </c>
       <c r="J81" s="3">
-        <v>-57400</v>
+        <v>-57900</v>
       </c>
       <c r="K81" s="3">
         <v>-62300</v>
@@ -3474,7 +3474,7 @@
         <v>4</v>
       </c>
       <c r="G89" s="3">
-        <v>-38300</v>
+        <v>-38600</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>4</v>
@@ -3642,7 +3642,7 @@
         <v>4</v>
       </c>
       <c r="G94" s="3">
-        <v>67300</v>
+        <v>67900</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
@@ -3886,7 +3886,7 @@
         <v>4</v>
       </c>
       <c r="G101" s="3">
-        <v>-21500</v>
+        <v>-21700</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>4</v>
@@ -3924,7 +3924,7 @@
         <v>4</v>
       </c>
       <c r="G102" s="3">
-        <v>9000</v>
+        <v>9100</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>4</v>

--- a/AAII_Financials/Quarterly/ZH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="92">
   <si>
     <t>ZH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,193 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>129900</v>
+        <v>150200</v>
       </c>
       <c r="E8" s="3">
-        <v>100700</v>
+        <v>121400</v>
       </c>
       <c r="F8" s="3">
-        <v>75500</v>
+        <v>94100</v>
       </c>
       <c r="G8" s="3">
-        <v>82000</v>
+        <v>70500</v>
       </c>
       <c r="H8" s="3">
-        <v>60400</v>
+        <v>76600</v>
       </c>
       <c r="I8" s="3">
-        <v>41200</v>
+        <v>56400</v>
       </c>
       <c r="J8" s="3">
+        <v>38500</v>
+      </c>
+      <c r="K8" s="3">
         <v>29700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>34500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>27100</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>62900</v>
+        <v>79500</v>
       </c>
       <c r="E9" s="3">
-        <v>41300</v>
+        <v>58700</v>
       </c>
       <c r="F9" s="3">
-        <v>32400</v>
+        <v>38600</v>
       </c>
       <c r="G9" s="3">
-        <v>29500</v>
+        <v>30300</v>
       </c>
       <c r="H9" s="3">
-        <v>51400</v>
+        <v>27500</v>
       </c>
       <c r="I9" s="3">
-        <v>42600</v>
+        <v>48000</v>
       </c>
       <c r="J9" s="3">
+        <v>39800</v>
+      </c>
+      <c r="K9" s="3">
         <v>17300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>15500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>14100</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>67000</v>
+        <v>70700</v>
       </c>
       <c r="E10" s="3">
-        <v>59400</v>
+        <v>62600</v>
       </c>
       <c r="F10" s="3">
-        <v>43000</v>
+        <v>55500</v>
       </c>
       <c r="G10" s="3">
-        <v>52500</v>
+        <v>40200</v>
       </c>
       <c r="H10" s="3">
-        <v>9000</v>
+        <v>49100</v>
       </c>
       <c r="I10" s="3">
-        <v>-1400</v>
+        <v>8400</v>
       </c>
       <c r="J10" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K10" s="3">
         <v>12400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>19000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>13000</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,46 +866,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>29100</v>
+        <v>30700</v>
       </c>
       <c r="E12" s="3">
-        <v>19000</v>
+        <v>27200</v>
       </c>
       <c r="F12" s="3">
-        <v>16800</v>
+        <v>17800</v>
       </c>
       <c r="G12" s="3">
-        <v>13000</v>
+        <v>15700</v>
       </c>
       <c r="H12" s="3">
-        <v>24400</v>
+        <v>12100</v>
       </c>
       <c r="I12" s="3">
-        <v>26400</v>
+        <v>22800</v>
       </c>
       <c r="J12" s="3">
+        <v>24600</v>
+      </c>
+      <c r="K12" s="3">
         <v>13700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>13900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>12900</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +946,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -962,14 +981,17 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1000,14 +1022,17 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>180800</v>
+        <v>205500</v>
       </c>
       <c r="E17" s="3">
-        <v>156000</v>
+        <v>168900</v>
       </c>
       <c r="F17" s="3">
-        <v>129500</v>
+        <v>145700</v>
       </c>
       <c r="G17" s="3">
-        <v>98500</v>
+        <v>120900</v>
       </c>
       <c r="H17" s="3">
-        <v>80900</v>
+        <v>92000</v>
       </c>
       <c r="I17" s="3">
-        <v>66100</v>
+        <v>75500</v>
       </c>
       <c r="J17" s="3">
+        <v>61700</v>
+      </c>
+      <c r="K17" s="3">
         <v>63000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>77200</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-50900</v>
+        <v>-55300</v>
       </c>
       <c r="E18" s="3">
-        <v>-55300</v>
+        <v>-47500</v>
       </c>
       <c r="F18" s="3">
-        <v>-54000</v>
+        <v>-51600</v>
       </c>
       <c r="G18" s="3">
-        <v>-16500</v>
+        <v>-50500</v>
       </c>
       <c r="H18" s="3">
-        <v>-20500</v>
+        <v>-15400</v>
       </c>
       <c r="I18" s="3">
-        <v>-24900</v>
+        <v>-19100</v>
       </c>
       <c r="J18" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-33300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-42700</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,46 +1143,50 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>8400</v>
+        <v>-700</v>
       </c>
       <c r="E20" s="3">
-        <v>4900</v>
+        <v>7800</v>
       </c>
       <c r="F20" s="3">
-        <v>2900</v>
+        <v>4600</v>
       </c>
       <c r="G20" s="3">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="H20" s="3">
-        <v>3200</v>
+        <v>2200</v>
       </c>
       <c r="I20" s="3">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="J20" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K20" s="3">
         <v>1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5400</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1163,32 +1199,35 @@
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="3">
-        <v>-11000</v>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H21" s="3">
-        <v>-15000</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
+        <v>-10300</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-14000</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3">
         <v>-34200</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1219,63 +1258,69 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-42500</v>
+        <v>-56000</v>
       </c>
       <c r="E23" s="3">
-        <v>-50400</v>
+        <v>-39700</v>
       </c>
       <c r="F23" s="3">
-        <v>-51100</v>
+        <v>-47100</v>
       </c>
       <c r="G23" s="3">
-        <v>-14100</v>
+        <v>-47800</v>
       </c>
       <c r="H23" s="3">
-        <v>-17300</v>
+        <v>-13200</v>
       </c>
       <c r="I23" s="3">
-        <v>-18400</v>
+        <v>-16200</v>
       </c>
       <c r="J23" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-31700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-37300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-43900</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>200</v>
-      </c>
-      <c r="F24" s="3">
-        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>100</v>
@@ -1284,25 +1329,28 @@
         <v>100</v>
       </c>
       <c r="I24" s="3">
+        <v>100</v>
+      </c>
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>4</v>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-42600</v>
+        <v>-56500</v>
       </c>
       <c r="E26" s="3">
-        <v>-50700</v>
+        <v>-39800</v>
       </c>
       <c r="F26" s="3">
-        <v>-51200</v>
+        <v>-47300</v>
       </c>
       <c r="G26" s="3">
-        <v>-14200</v>
+        <v>-47800</v>
       </c>
       <c r="H26" s="3">
-        <v>-17400</v>
+        <v>-13300</v>
       </c>
       <c r="I26" s="3">
-        <v>-18300</v>
+        <v>-16200</v>
       </c>
       <c r="J26" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-31800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-37300</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-42600</v>
+        <v>-56500</v>
       </c>
       <c r="E27" s="3">
-        <v>-50700</v>
+        <v>-39800</v>
       </c>
       <c r="F27" s="3">
-        <v>-78100</v>
+        <v>-47300</v>
       </c>
       <c r="G27" s="3">
-        <v>-41000</v>
+        <v>-73000</v>
       </c>
       <c r="H27" s="3">
-        <v>-44600</v>
+        <v>-38300</v>
       </c>
       <c r="I27" s="3">
-        <v>-45500</v>
+        <v>-41700</v>
       </c>
       <c r="J27" s="3">
+        <v>-42500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-57900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-62300</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1485,14 +1545,17 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>4</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1633,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-8400</v>
+        <v>700</v>
       </c>
       <c r="E32" s="3">
-        <v>-4900</v>
+        <v>-7800</v>
       </c>
       <c r="F32" s="3">
-        <v>-2900</v>
+        <v>-4600</v>
       </c>
       <c r="G32" s="3">
-        <v>-2400</v>
+        <v>-2700</v>
       </c>
       <c r="H32" s="3">
-        <v>-3200</v>
+        <v>-2200</v>
       </c>
       <c r="I32" s="3">
-        <v>-6500</v>
+        <v>-3000</v>
       </c>
       <c r="J32" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5400</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-42600</v>
+        <v>-56500</v>
       </c>
       <c r="E33" s="3">
-        <v>-50700</v>
+        <v>-39800</v>
       </c>
       <c r="F33" s="3">
-        <v>-78100</v>
+        <v>-47300</v>
       </c>
       <c r="G33" s="3">
-        <v>-41000</v>
+        <v>-73000</v>
       </c>
       <c r="H33" s="3">
-        <v>-44600</v>
+        <v>-38300</v>
       </c>
       <c r="I33" s="3">
-        <v>-45500</v>
+        <v>-41700</v>
       </c>
       <c r="J33" s="3">
+        <v>-42500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-57900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-62300</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-42600</v>
+        <v>-56500</v>
       </c>
       <c r="E35" s="3">
-        <v>-50700</v>
+        <v>-39800</v>
       </c>
       <c r="F35" s="3">
-        <v>-78100</v>
+        <v>-47300</v>
       </c>
       <c r="G35" s="3">
-        <v>-41000</v>
+        <v>-73000</v>
       </c>
       <c r="H35" s="3">
-        <v>-44600</v>
+        <v>-38300</v>
       </c>
       <c r="I35" s="3">
-        <v>-45500</v>
+        <v>-41700</v>
       </c>
       <c r="J35" s="3">
+        <v>-42500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-57900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-62300</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,28 +1879,29 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>231500</v>
+        <v>317900</v>
       </c>
       <c r="E41" s="3">
-        <v>139500</v>
+        <v>216200</v>
       </c>
       <c r="F41" s="3">
-        <v>947500</v>
+        <v>130300</v>
       </c>
       <c r="G41" s="3">
-        <v>151100</v>
+        <v>885000</v>
       </c>
       <c r="H41" s="3">
-        <v>104500</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>4</v>
+        <v>141100</v>
+      </c>
+      <c r="I41" s="3">
+        <v>97700</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>4</v>
@@ -1832,28 +1918,31 @@
       <c r="N41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>837200</v>
+        <v>744900</v>
       </c>
       <c r="E42" s="3">
-        <v>766900</v>
+        <v>782000</v>
       </c>
       <c r="F42" s="3">
-        <v>282500</v>
+        <v>716300</v>
       </c>
       <c r="G42" s="3">
-        <v>337400</v>
+        <v>263800</v>
       </c>
       <c r="H42" s="3">
-        <v>404800</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>4</v>
+        <v>315200</v>
+      </c>
+      <c r="I42" s="3">
+        <v>378100</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>4</v>
@@ -1870,28 +1959,31 @@
       <c r="N42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>113200</v>
+        <v>125200</v>
       </c>
       <c r="E43" s="3">
-        <v>95100</v>
+        <v>105800</v>
       </c>
       <c r="F43" s="3">
-        <v>79700</v>
+        <v>88800</v>
       </c>
       <c r="G43" s="3">
-        <v>86200</v>
+        <v>74400</v>
       </c>
       <c r="H43" s="3">
-        <v>62800</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
+        <v>80500</v>
+      </c>
+      <c r="I43" s="3">
+        <v>58600</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
@@ -1908,8 +2000,11 @@
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1940,34 +2035,37 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
+      <c r="M44" s="3">
+        <v>0</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>131400</v>
+        <v>40100</v>
       </c>
       <c r="E45" s="3">
-        <v>215400</v>
+        <v>122800</v>
       </c>
       <c r="F45" s="3">
-        <v>15800</v>
+        <v>201200</v>
       </c>
       <c r="G45" s="3">
-        <v>12100</v>
+        <v>14700</v>
       </c>
       <c r="H45" s="3">
-        <v>7100</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
+        <v>11300</v>
+      </c>
+      <c r="I45" s="3">
+        <v>6700</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
@@ -1984,28 +2082,31 @@
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1313300</v>
+        <v>1228100</v>
       </c>
       <c r="E46" s="3">
-        <v>1217000</v>
+        <v>1226800</v>
       </c>
       <c r="F46" s="3">
-        <v>1325400</v>
+        <v>1136800</v>
       </c>
       <c r="G46" s="3">
-        <v>586900</v>
+        <v>1238000</v>
       </c>
       <c r="H46" s="3">
-        <v>579300</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>4</v>
+        <v>548200</v>
+      </c>
+      <c r="I46" s="3">
+        <v>541100</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>4</v>
@@ -2022,22 +2123,25 @@
       <c r="N46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3100</v>
+        <v>2800</v>
       </c>
       <c r="E47" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="F47" s="3">
-        <v>3100</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
+        <v>2900</v>
+      </c>
+      <c r="G47" s="3">
+        <v>2900</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>4</v>
@@ -2060,28 +2164,31 @@
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16800</v>
+        <v>20100</v>
       </c>
       <c r="E48" s="3">
-        <v>14300</v>
+        <v>15700</v>
       </c>
       <c r="F48" s="3">
-        <v>13500</v>
+        <v>13300</v>
       </c>
       <c r="G48" s="3">
-        <v>1800</v>
+        <v>12700</v>
       </c>
       <c r="H48" s="3">
-        <v>2900</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
+        <v>1700</v>
+      </c>
+      <c r="I48" s="3">
+        <v>2700</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
@@ -2098,28 +2205,31 @@
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>17300</v>
+        <v>20900</v>
       </c>
       <c r="E49" s="3">
-        <v>2800</v>
+        <v>16200</v>
       </c>
       <c r="F49" s="3">
-        <v>3300</v>
+        <v>2600</v>
       </c>
       <c r="G49" s="3">
-        <v>3700</v>
+        <v>3000</v>
       </c>
       <c r="H49" s="3">
-        <v>4100</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
+        <v>3500</v>
+      </c>
+      <c r="I49" s="3">
+        <v>3900</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
@@ -2136,8 +2246,11 @@
       <c r="N49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,29 +2328,32 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>27500</v>
+        <v>25600</v>
       </c>
       <c r="E52" s="3">
-        <v>118100</v>
+        <v>25700</v>
       </c>
       <c r="F52" s="3">
-        <v>26700</v>
+        <v>110300</v>
       </c>
       <c r="G52" s="3">
+        <v>24900</v>
+      </c>
+      <c r="H52" s="3">
         <v>1000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2250,8 +2369,11 @@
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,28 +2410,31 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1378100</v>
+        <v>1297500</v>
       </c>
       <c r="E54" s="3">
-        <v>1355200</v>
+        <v>1287300</v>
       </c>
       <c r="F54" s="3">
-        <v>1371900</v>
+        <v>1265900</v>
       </c>
       <c r="G54" s="3">
-        <v>593400</v>
+        <v>1281500</v>
       </c>
       <c r="H54" s="3">
-        <v>586400</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>4</v>
+        <v>554300</v>
+      </c>
+      <c r="I54" s="3">
+        <v>547700</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>4</v>
@@ -2326,8 +2451,11 @@
       <c r="N54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,28 +2487,29 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>127400</v>
+        <v>151300</v>
       </c>
       <c r="E57" s="3">
         <v>119000</v>
       </c>
       <c r="F57" s="3">
-        <v>94900</v>
+        <v>111200</v>
       </c>
       <c r="G57" s="3">
-        <v>79200</v>
+        <v>88600</v>
       </c>
       <c r="H57" s="3">
-        <v>62300</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
+        <v>74000</v>
+      </c>
+      <c r="I57" s="3">
+        <v>58200</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>4</v>
@@ -2396,8 +2526,11 @@
       <c r="N57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2428,34 +2561,37 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
+      <c r="M58" s="3">
+        <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>125500</v>
+        <v>128400</v>
       </c>
       <c r="E59" s="3">
-        <v>105500</v>
+        <v>117300</v>
       </c>
       <c r="F59" s="3">
-        <v>99800</v>
+        <v>98600</v>
       </c>
       <c r="G59" s="3">
-        <v>80900</v>
+        <v>93200</v>
       </c>
       <c r="H59" s="3">
-        <v>72800</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
+        <v>75600</v>
+      </c>
+      <c r="I59" s="3">
+        <v>68000</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>4</v>
@@ -2472,28 +2608,31 @@
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>253000</v>
+        <v>279600</v>
       </c>
       <c r="E60" s="3">
-        <v>224500</v>
+        <v>236300</v>
       </c>
       <c r="F60" s="3">
-        <v>194700</v>
+        <v>209700</v>
       </c>
       <c r="G60" s="3">
-        <v>160100</v>
+        <v>181900</v>
       </c>
       <c r="H60" s="3">
-        <v>135100</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>4</v>
+        <v>149500</v>
+      </c>
+      <c r="I60" s="3">
+        <v>126200</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>4</v>
@@ -2510,8 +2649,11 @@
       <c r="N60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2548,29 +2690,32 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>18700</v>
+        <v>24900</v>
       </c>
       <c r="E62" s="3">
-        <v>8300</v>
+        <v>17400</v>
       </c>
       <c r="F62" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
+        <v>7200</v>
       </c>
       <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
@@ -2586,8 +2731,11 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,28 +2854,31 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>272100</v>
+        <v>305700</v>
       </c>
       <c r="E66" s="3">
-        <v>232800</v>
+        <v>254200</v>
       </c>
       <c r="F66" s="3">
-        <v>202400</v>
+        <v>217500</v>
       </c>
       <c r="G66" s="3">
-        <v>160100</v>
+        <v>189100</v>
       </c>
       <c r="H66" s="3">
-        <v>135200</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>4</v>
+        <v>149500</v>
+      </c>
+      <c r="I66" s="3">
+        <v>126300</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>4</v>
@@ -2738,8 +2895,11 @@
       <c r="N66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2845,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>1244900</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>1218200</v>
+        <v>1162900</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>1137800</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2862,14 +3029,17 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3" t="s">
-        <v>4</v>
+      <c r="M70" s="3">
+        <v>0</v>
       </c>
       <c r="N70" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,13 +3076,16 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>4</v>
+      <c r="D72" s="3">
+        <v>-925500</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>4</v>
@@ -2920,14 +3093,14 @@
       <c r="F72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G72" s="3">
-        <v>-780700</v>
+      <c r="G72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H72" s="3">
-        <v>-750200</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>4</v>
+        <v>-729200</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-700800</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>4</v>
@@ -2944,8 +3117,11 @@
       <c r="N72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,28 +3240,31 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1106000</v>
+        <v>991800</v>
       </c>
       <c r="E76" s="3">
-        <v>1122400</v>
+        <v>1033100</v>
       </c>
       <c r="F76" s="3">
-        <v>1169500</v>
+        <v>1048400</v>
       </c>
       <c r="G76" s="3">
-        <v>-811600</v>
+        <v>1092400</v>
       </c>
       <c r="H76" s="3">
-        <v>-767000</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>4</v>
+        <v>-758100</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-716400</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>4</v>
@@ -3096,8 +3281,11 @@
       <c r="N76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-42600</v>
+        <v>-56500</v>
       </c>
       <c r="E81" s="3">
-        <v>-50700</v>
+        <v>-39800</v>
       </c>
       <c r="F81" s="3">
-        <v>-78100</v>
+        <v>-47300</v>
       </c>
       <c r="G81" s="3">
-        <v>-41000</v>
+        <v>-73000</v>
       </c>
       <c r="H81" s="3">
-        <v>-44600</v>
+        <v>-38300</v>
       </c>
       <c r="I81" s="3">
-        <v>-45500</v>
+        <v>-41700</v>
       </c>
       <c r="J81" s="3">
+        <v>-42500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-57900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-62300</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,31 +3428,32 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>3100</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>4</v>
@@ -3269,8 +3467,11 @@
       <c r="N83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,31 +3672,34 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>4</v>
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>-38600</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>4</v>
@@ -3497,8 +3713,11 @@
       <c r="N89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,31 +3732,32 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
@@ -3551,8 +3771,11 @@
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,31 +3853,34 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>67900</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
@@ -3665,8 +3894,11 @@
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,31 +4075,34 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>4</v>
@@ -3871,31 +4116,34 @@
       <c r="N100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>-21700</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>4</v>
@@ -3909,31 +4157,34 @@
       <c r="N101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>4</v>
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>9100</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>4</v>
@@ -3945,6 +4196,9 @@
         <v>4</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="92">
   <si>
     <t>ZH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,206 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>150200</v>
+        <v>108500</v>
       </c>
       <c r="E8" s="3">
-        <v>121400</v>
+        <v>148800</v>
       </c>
       <c r="F8" s="3">
-        <v>94100</v>
+        <v>120300</v>
       </c>
       <c r="G8" s="3">
-        <v>70500</v>
+        <v>93200</v>
       </c>
       <c r="H8" s="3">
-        <v>76600</v>
+        <v>69800</v>
       </c>
       <c r="I8" s="3">
-        <v>56400</v>
+        <v>75900</v>
       </c>
       <c r="J8" s="3">
+        <v>55900</v>
+      </c>
+      <c r="K8" s="3">
         <v>38500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>29700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>34500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>27100</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>79500</v>
+        <v>59500</v>
       </c>
       <c r="E9" s="3">
-        <v>58700</v>
+        <v>78800</v>
       </c>
       <c r="F9" s="3">
-        <v>38600</v>
+        <v>58200</v>
       </c>
       <c r="G9" s="3">
-        <v>30300</v>
+        <v>38200</v>
       </c>
       <c r="H9" s="3">
-        <v>27500</v>
+        <v>30000</v>
       </c>
       <c r="I9" s="3">
-        <v>48000</v>
+        <v>27300</v>
       </c>
       <c r="J9" s="3">
+        <v>47500</v>
+      </c>
+      <c r="K9" s="3">
         <v>39800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>17300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>15500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>14100</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>70700</v>
+        <v>49000</v>
       </c>
       <c r="E10" s="3">
-        <v>62600</v>
+        <v>70100</v>
       </c>
       <c r="F10" s="3">
-        <v>55500</v>
+        <v>62000</v>
       </c>
       <c r="G10" s="3">
-        <v>40200</v>
+        <v>55000</v>
       </c>
       <c r="H10" s="3">
-        <v>49100</v>
+        <v>39800</v>
       </c>
       <c r="I10" s="3">
+        <v>48600</v>
+      </c>
+      <c r="J10" s="3">
         <v>8400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-1300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>12400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>19000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>13000</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,49 +880,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>30700</v>
+        <v>24300</v>
       </c>
       <c r="E12" s="3">
-        <v>27200</v>
+        <v>30400</v>
       </c>
       <c r="F12" s="3">
-        <v>17800</v>
+        <v>27000</v>
       </c>
       <c r="G12" s="3">
-        <v>15700</v>
+        <v>17600</v>
       </c>
       <c r="H12" s="3">
-        <v>12100</v>
+        <v>15500</v>
       </c>
       <c r="I12" s="3">
-        <v>22800</v>
+        <v>12000</v>
       </c>
       <c r="J12" s="3">
+        <v>22600</v>
+      </c>
+      <c r="K12" s="3">
         <v>24600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>13700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>13900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>12900</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -984,14 +1004,17 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1025,14 +1048,17 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>205500</v>
+        <v>203200</v>
       </c>
       <c r="E17" s="3">
-        <v>168900</v>
+        <v>203600</v>
       </c>
       <c r="F17" s="3">
-        <v>145700</v>
+        <v>167300</v>
       </c>
       <c r="G17" s="3">
-        <v>120900</v>
+        <v>144400</v>
       </c>
       <c r="H17" s="3">
-        <v>92000</v>
+        <v>119900</v>
       </c>
       <c r="I17" s="3">
-        <v>75500</v>
+        <v>91200</v>
       </c>
       <c r="J17" s="3">
+        <v>74900</v>
+      </c>
+      <c r="K17" s="3">
         <v>61700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>63000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>77200</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-55300</v>
+        <v>-94700</v>
       </c>
       <c r="E18" s="3">
-        <v>-47500</v>
+        <v>-54800</v>
       </c>
       <c r="F18" s="3">
-        <v>-51600</v>
+        <v>-47100</v>
       </c>
       <c r="G18" s="3">
-        <v>-50500</v>
+        <v>-51200</v>
       </c>
       <c r="H18" s="3">
-        <v>-15400</v>
+        <v>-50000</v>
       </c>
       <c r="I18" s="3">
-        <v>-19100</v>
+        <v>-15300</v>
       </c>
       <c r="J18" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-23200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-33300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-42700</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,49 +1177,53 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-700</v>
       </c>
-      <c r="E20" s="3">
-        <v>7800</v>
-      </c>
       <c r="F20" s="3">
-        <v>4600</v>
+        <v>7700</v>
       </c>
       <c r="G20" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H20" s="3">
         <v>2700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2200</v>
       </c>
-      <c r="I20" s="3">
-        <v>3000</v>
-      </c>
       <c r="J20" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K20" s="3">
         <v>6100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5400</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1202,32 +1239,35 @@
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="3">
-        <v>-10300</v>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I21" s="3">
-        <v>-14000</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
+        <v>-10200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-13800</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>-34200</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1261,55 +1301,61 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-56000</v>
+        <v>-89400</v>
       </c>
       <c r="E23" s="3">
-        <v>-39700</v>
+        <v>-55500</v>
       </c>
       <c r="F23" s="3">
-        <v>-47100</v>
+        <v>-39400</v>
       </c>
       <c r="G23" s="3">
-        <v>-47800</v>
+        <v>-46700</v>
       </c>
       <c r="H23" s="3">
-        <v>-13200</v>
+        <v>-47300</v>
       </c>
       <c r="I23" s="3">
-        <v>-16200</v>
+        <v>-13100</v>
       </c>
       <c r="J23" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-17200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-31700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-37300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-43900</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1317,13 +1363,13 @@
         <v>400</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>200</v>
-      </c>
-      <c r="G24" s="3">
-        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>100</v>
@@ -1332,25 +1378,28 @@
         <v>100</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>4</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-56500</v>
+        <v>-89700</v>
       </c>
       <c r="E26" s="3">
-        <v>-39800</v>
+        <v>-56000</v>
       </c>
       <c r="F26" s="3">
-        <v>-47300</v>
+        <v>-39400</v>
       </c>
       <c r="G26" s="3">
-        <v>-47800</v>
+        <v>-46900</v>
       </c>
       <c r="H26" s="3">
-        <v>-13300</v>
+        <v>-47400</v>
       </c>
       <c r="I26" s="3">
-        <v>-16200</v>
+        <v>-13200</v>
       </c>
       <c r="J26" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-17100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-31800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-37300</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-56500</v>
+        <v>-89700</v>
       </c>
       <c r="E27" s="3">
-        <v>-39800</v>
+        <v>-56000</v>
       </c>
       <c r="F27" s="3">
-        <v>-47300</v>
+        <v>-39400</v>
       </c>
       <c r="G27" s="3">
-        <v>-73000</v>
+        <v>-46900</v>
       </c>
       <c r="H27" s="3">
-        <v>-38300</v>
+        <v>-72300</v>
       </c>
       <c r="I27" s="3">
-        <v>-41700</v>
+        <v>-37900</v>
       </c>
       <c r="J27" s="3">
+        <v>-41300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-42500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-57900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-62300</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1548,14 +1609,17 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>4</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E32" s="3">
         <v>700</v>
       </c>
-      <c r="E32" s="3">
-        <v>-7800</v>
-      </c>
       <c r="F32" s="3">
-        <v>-4600</v>
+        <v>-7700</v>
       </c>
       <c r="G32" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="H32" s="3">
         <v>-2700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2200</v>
       </c>
-      <c r="I32" s="3">
-        <v>-3000</v>
-      </c>
       <c r="J32" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-6100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5400</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-56500</v>
+        <v>-89700</v>
       </c>
       <c r="E33" s="3">
-        <v>-39800</v>
+        <v>-56000</v>
       </c>
       <c r="F33" s="3">
-        <v>-47300</v>
+        <v>-39400</v>
       </c>
       <c r="G33" s="3">
-        <v>-73000</v>
+        <v>-46900</v>
       </c>
       <c r="H33" s="3">
-        <v>-38300</v>
+        <v>-72300</v>
       </c>
       <c r="I33" s="3">
-        <v>-41700</v>
+        <v>-37900</v>
       </c>
       <c r="J33" s="3">
+        <v>-41300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-42500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-57900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-62300</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-56500</v>
+        <v>-89700</v>
       </c>
       <c r="E35" s="3">
-        <v>-39800</v>
+        <v>-56000</v>
       </c>
       <c r="F35" s="3">
-        <v>-47300</v>
+        <v>-39400</v>
       </c>
       <c r="G35" s="3">
-        <v>-73000</v>
+        <v>-46900</v>
       </c>
       <c r="H35" s="3">
-        <v>-38300</v>
+        <v>-72300</v>
       </c>
       <c r="I35" s="3">
-        <v>-41700</v>
+        <v>-37900</v>
       </c>
       <c r="J35" s="3">
+        <v>-41300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-42500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-57900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-62300</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,31 +1966,32 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>317900</v>
+        <v>349500</v>
       </c>
       <c r="E41" s="3">
-        <v>216200</v>
+        <v>315000</v>
       </c>
       <c r="F41" s="3">
-        <v>130300</v>
+        <v>214300</v>
       </c>
       <c r="G41" s="3">
-        <v>885000</v>
+        <v>129200</v>
       </c>
       <c r="H41" s="3">
-        <v>141100</v>
+        <v>877000</v>
       </c>
       <c r="I41" s="3">
-        <v>97700</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>4</v>
+        <v>139900</v>
+      </c>
+      <c r="J41" s="3">
+        <v>96800</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>4</v>
@@ -1921,31 +2008,34 @@
       <c r="O41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>744900</v>
+        <v>648800</v>
       </c>
       <c r="E42" s="3">
-        <v>782000</v>
+        <v>738200</v>
       </c>
       <c r="F42" s="3">
-        <v>716300</v>
+        <v>774900</v>
       </c>
       <c r="G42" s="3">
-        <v>263800</v>
+        <v>709900</v>
       </c>
       <c r="H42" s="3">
-        <v>315200</v>
+        <v>261500</v>
       </c>
       <c r="I42" s="3">
-        <v>378100</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>4</v>
+        <v>312300</v>
+      </c>
+      <c r="J42" s="3">
+        <v>374700</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>4</v>
@@ -1962,31 +2052,34 @@
       <c r="O42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>125200</v>
+        <v>124200</v>
       </c>
       <c r="E43" s="3">
-        <v>105800</v>
+        <v>124100</v>
       </c>
       <c r="F43" s="3">
-        <v>88800</v>
+        <v>104800</v>
       </c>
       <c r="G43" s="3">
-        <v>74400</v>
+        <v>88000</v>
       </c>
       <c r="H43" s="3">
-        <v>80500</v>
+        <v>73700</v>
       </c>
       <c r="I43" s="3">
-        <v>58600</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
+        <v>79800</v>
+      </c>
+      <c r="J43" s="3">
+        <v>58100</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
@@ -2003,8 +2096,11 @@
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2038,37 +2134,40 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
+      <c r="N44" s="3">
+        <v>0</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>40100</v>
+        <v>59000</v>
       </c>
       <c r="E45" s="3">
-        <v>122800</v>
+        <v>39700</v>
       </c>
       <c r="F45" s="3">
-        <v>201200</v>
+        <v>121700</v>
       </c>
       <c r="G45" s="3">
-        <v>14700</v>
+        <v>199400</v>
       </c>
       <c r="H45" s="3">
-        <v>11300</v>
+        <v>14600</v>
       </c>
       <c r="I45" s="3">
-        <v>6700</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
+        <v>11200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>6600</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>4</v>
@@ -2085,31 +2184,34 @@
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1228100</v>
+        <v>1181500</v>
       </c>
       <c r="E46" s="3">
+        <v>1217000</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1215700</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1126500</v>
+      </c>
+      <c r="H46" s="3">
         <v>1226800</v>
       </c>
-      <c r="F46" s="3">
-        <v>1136800</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1238000</v>
-      </c>
-      <c r="H46" s="3">
-        <v>548200</v>
-      </c>
       <c r="I46" s="3">
-        <v>541100</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>4</v>
+        <v>543300</v>
+      </c>
+      <c r="J46" s="3">
+        <v>536200</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>4</v>
@@ -2126,8 +2228,11 @@
       <c r="O46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2135,17 +2240,17 @@
         <v>2800</v>
       </c>
       <c r="E47" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F47" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G47" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H47" s="3">
         <v>2900</v>
       </c>
-      <c r="F47" s="3">
-        <v>2900</v>
-      </c>
-      <c r="G47" s="3">
-        <v>2900</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2167,32 +2272,35 @@
       <c r="O47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>20100</v>
+        <v>21000</v>
       </c>
       <c r="E48" s="3">
-        <v>15700</v>
+        <v>19900</v>
       </c>
       <c r="F48" s="3">
-        <v>13300</v>
+        <v>15600</v>
       </c>
       <c r="G48" s="3">
-        <v>12700</v>
+        <v>13200</v>
       </c>
       <c r="H48" s="3">
+        <v>12500</v>
+      </c>
+      <c r="I48" s="3">
         <v>1700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2700</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2208,31 +2316,34 @@
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>20900</v>
+        <v>20000</v>
       </c>
       <c r="E49" s="3">
-        <v>16200</v>
+        <v>20700</v>
       </c>
       <c r="F49" s="3">
+        <v>16100</v>
+      </c>
+      <c r="G49" s="3">
         <v>2600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3000</v>
       </c>
-      <c r="H49" s="3">
-        <v>3500</v>
-      </c>
       <c r="I49" s="3">
-        <v>3900</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
+        <v>3400</v>
+      </c>
+      <c r="J49" s="3">
+        <v>3800</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>4</v>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,32 +2448,35 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>25600</v>
+        <v>2100</v>
       </c>
       <c r="E52" s="3">
-        <v>25700</v>
+        <v>25300</v>
       </c>
       <c r="F52" s="3">
-        <v>110300</v>
+        <v>25500</v>
       </c>
       <c r="G52" s="3">
-        <v>24900</v>
+        <v>109300</v>
       </c>
       <c r="H52" s="3">
-        <v>1000</v>
+        <v>24700</v>
       </c>
       <c r="I52" s="3">
+        <v>900</v>
+      </c>
+      <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2372,8 +2492,11 @@
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,31 +2536,34 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1297500</v>
+        <v>1227400</v>
       </c>
       <c r="E54" s="3">
-        <v>1287300</v>
+        <v>1285800</v>
       </c>
       <c r="F54" s="3">
-        <v>1265900</v>
+        <v>1275700</v>
       </c>
       <c r="G54" s="3">
-        <v>1281500</v>
+        <v>1254500</v>
       </c>
       <c r="H54" s="3">
-        <v>554300</v>
+        <v>1269900</v>
       </c>
       <c r="I54" s="3">
-        <v>547700</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>4</v>
+        <v>549300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>542800</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>4</v>
@@ -2454,8 +2580,11 @@
       <c r="O54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,31 +2618,32 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>151300</v>
+        <v>149400</v>
       </c>
       <c r="E57" s="3">
-        <v>119000</v>
+        <v>149900</v>
       </c>
       <c r="F57" s="3">
-        <v>111200</v>
+        <v>117900</v>
       </c>
       <c r="G57" s="3">
-        <v>88600</v>
+        <v>110200</v>
       </c>
       <c r="H57" s="3">
-        <v>74000</v>
+        <v>87800</v>
       </c>
       <c r="I57" s="3">
-        <v>58200</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
+        <v>73300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>57700</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>4</v>
@@ -2529,8 +2660,11 @@
       <c r="O57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2564,37 +2698,40 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
+      <c r="N58" s="3">
+        <v>0</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>128400</v>
+        <v>124200</v>
       </c>
       <c r="E59" s="3">
-        <v>117300</v>
+        <v>127200</v>
       </c>
       <c r="F59" s="3">
-        <v>98600</v>
+        <v>116200</v>
       </c>
       <c r="G59" s="3">
-        <v>93200</v>
+        <v>97700</v>
       </c>
       <c r="H59" s="3">
-        <v>75600</v>
+        <v>92400</v>
       </c>
       <c r="I59" s="3">
-        <v>68000</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
+        <v>74900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>67400</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>4</v>
@@ -2611,31 +2748,34 @@
       <c r="O59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>279600</v>
+        <v>273600</v>
       </c>
       <c r="E60" s="3">
-        <v>236300</v>
+        <v>277100</v>
       </c>
       <c r="F60" s="3">
-        <v>209700</v>
+        <v>234100</v>
       </c>
       <c r="G60" s="3">
-        <v>181900</v>
+        <v>207800</v>
       </c>
       <c r="H60" s="3">
-        <v>149500</v>
+        <v>180200</v>
       </c>
       <c r="I60" s="3">
-        <v>126200</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>4</v>
+        <v>148200</v>
+      </c>
+      <c r="J60" s="3">
+        <v>125100</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>4</v>
@@ -2652,8 +2792,11 @@
       <c r="O60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2693,32 +2836,35 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>24900</v>
+        <v>24800</v>
       </c>
       <c r="E62" s="3">
-        <v>17400</v>
+        <v>24700</v>
       </c>
       <c r="F62" s="3">
-        <v>7800</v>
+        <v>17300</v>
       </c>
       <c r="G62" s="3">
+        <v>7700</v>
+      </c>
+      <c r="H62" s="3">
         <v>7200</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
       <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
         <v>100</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
@@ -2734,8 +2880,11 @@
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,31 +3012,34 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>305700</v>
+        <v>300100</v>
       </c>
       <c r="E66" s="3">
-        <v>254200</v>
+        <v>302900</v>
       </c>
       <c r="F66" s="3">
-        <v>217500</v>
+        <v>251900</v>
       </c>
       <c r="G66" s="3">
-        <v>189100</v>
+        <v>215500</v>
       </c>
       <c r="H66" s="3">
-        <v>149500</v>
+        <v>187400</v>
       </c>
       <c r="I66" s="3">
-        <v>126300</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>4</v>
+        <v>148200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>125200</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>4</v>
@@ -2898,8 +3056,11 @@
       <c r="O66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3015,13 +3183,13 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>1162900</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>1137800</v>
+        <v>1152400</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>1127600</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -3032,14 +3200,17 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3" t="s">
-        <v>4</v>
+      <c r="N70" s="3">
+        <v>0</v>
       </c>
       <c r="O70" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,16 +3250,19 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>-925500</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>4</v>
+      <c r="D72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-917200</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>4</v>
@@ -3096,14 +3270,14 @@
       <c r="G72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H72" s="3">
-        <v>-729200</v>
+      <c r="H72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I72" s="3">
-        <v>-700800</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>4</v>
+        <v>-722600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-694400</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>4</v>
@@ -3120,8 +3294,11 @@
       <c r="O72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,31 +3426,34 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>991800</v>
+        <v>927200</v>
       </c>
       <c r="E76" s="3">
-        <v>1033100</v>
+        <v>982900</v>
       </c>
       <c r="F76" s="3">
-        <v>1048400</v>
+        <v>1023800</v>
       </c>
       <c r="G76" s="3">
-        <v>1092400</v>
+        <v>1039000</v>
       </c>
       <c r="H76" s="3">
-        <v>-758100</v>
+        <v>1082500</v>
       </c>
       <c r="I76" s="3">
-        <v>-716400</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>4</v>
+        <v>-751200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-709900</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>4</v>
@@ -3284,8 +3470,11 @@
       <c r="O76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-56500</v>
+        <v>-89700</v>
       </c>
       <c r="E81" s="3">
-        <v>-39800</v>
+        <v>-56000</v>
       </c>
       <c r="F81" s="3">
-        <v>-47300</v>
+        <v>-39400</v>
       </c>
       <c r="G81" s="3">
-        <v>-73000</v>
+        <v>-46900</v>
       </c>
       <c r="H81" s="3">
-        <v>-38300</v>
+        <v>-72300</v>
       </c>
       <c r="I81" s="3">
-        <v>-41700</v>
+        <v>-37900</v>
       </c>
       <c r="J81" s="3">
+        <v>-41300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-42500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-57900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-62300</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3455,8 +3654,8 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>4</v>
@@ -3470,8 +3669,11 @@
       <c r="O83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,8 +3889,11 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3701,8 +3918,8 @@
       <c r="J89" s="3">
         <v>0</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>4</v>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>4</v>
@@ -3716,8 +3933,11 @@
       <c r="O89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3759,8 +3980,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
@@ -3774,8 +3995,11 @@
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,8 +4083,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3882,8 +4112,8 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
@@ -3897,8 +4127,11 @@
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,8 +4321,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4104,8 +4350,8 @@
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>4</v>
@@ -4119,8 +4365,11 @@
       <c r="O100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4145,8 +4394,8 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>4</v>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>4</v>
@@ -4160,8 +4409,11 @@
       <c r="O101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4186,8 +4438,8 @@
       <c r="J102" s="3">
         <v>0</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>4</v>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>4</v>
@@ -4199,6 +4451,9 @@
         <v>4</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="92">
   <si>
     <t>ZH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>108500</v>
+        <v>116400</v>
       </c>
       <c r="E8" s="3">
-        <v>148800</v>
+        <v>103500</v>
       </c>
       <c r="F8" s="3">
-        <v>120300</v>
+        <v>141900</v>
       </c>
       <c r="G8" s="3">
-        <v>93200</v>
+        <v>114600</v>
       </c>
       <c r="H8" s="3">
-        <v>69800</v>
+        <v>88900</v>
       </c>
       <c r="I8" s="3">
-        <v>75900</v>
+        <v>66600</v>
       </c>
       <c r="J8" s="3">
+        <v>72400</v>
+      </c>
+      <c r="K8" s="3">
         <v>55900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>38500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>29700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>34500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>27100</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>59500</v>
+        <v>60700</v>
       </c>
       <c r="E9" s="3">
-        <v>78800</v>
+        <v>56700</v>
       </c>
       <c r="F9" s="3">
-        <v>58200</v>
+        <v>75100</v>
       </c>
       <c r="G9" s="3">
-        <v>38200</v>
+        <v>55500</v>
       </c>
       <c r="H9" s="3">
-        <v>30000</v>
+        <v>36400</v>
       </c>
       <c r="I9" s="3">
-        <v>27300</v>
+        <v>28600</v>
       </c>
       <c r="J9" s="3">
+        <v>26000</v>
+      </c>
+      <c r="K9" s="3">
         <v>47500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>39800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>17300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>15500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>14100</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>49000</v>
+        <v>55600</v>
       </c>
       <c r="E10" s="3">
-        <v>70100</v>
+        <v>46700</v>
       </c>
       <c r="F10" s="3">
-        <v>62000</v>
+        <v>66800</v>
       </c>
       <c r="G10" s="3">
-        <v>55000</v>
+        <v>59100</v>
       </c>
       <c r="H10" s="3">
-        <v>39800</v>
+        <v>52400</v>
       </c>
       <c r="I10" s="3">
-        <v>48600</v>
+        <v>38000</v>
       </c>
       <c r="J10" s="3">
+        <v>46400</v>
+      </c>
+      <c r="K10" s="3">
         <v>8400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-1300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>12400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>19000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>13000</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,52 +894,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>24300</v>
+        <v>31100</v>
       </c>
       <c r="E12" s="3">
-        <v>30400</v>
+        <v>23200</v>
       </c>
       <c r="F12" s="3">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="G12" s="3">
-        <v>17600</v>
+        <v>25700</v>
       </c>
       <c r="H12" s="3">
-        <v>15500</v>
+        <v>16800</v>
       </c>
       <c r="I12" s="3">
-        <v>12000</v>
+        <v>14800</v>
       </c>
       <c r="J12" s="3">
+        <v>11500</v>
+      </c>
+      <c r="K12" s="3">
         <v>22600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>24600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>13700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>13900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>12900</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1007,14 +1027,17 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1051,14 +1074,17 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>203200</v>
+        <v>180500</v>
       </c>
       <c r="E17" s="3">
-        <v>203600</v>
+        <v>193700</v>
       </c>
       <c r="F17" s="3">
-        <v>167300</v>
+        <v>194100</v>
       </c>
       <c r="G17" s="3">
-        <v>144400</v>
+        <v>159500</v>
       </c>
       <c r="H17" s="3">
-        <v>119900</v>
+        <v>137700</v>
       </c>
       <c r="I17" s="3">
-        <v>91200</v>
+        <v>114200</v>
       </c>
       <c r="J17" s="3">
+        <v>86900</v>
+      </c>
+      <c r="K17" s="3">
         <v>74900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>61700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>63000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>77200</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-94700</v>
+        <v>-64100</v>
       </c>
       <c r="E18" s="3">
-        <v>-54800</v>
+        <v>-90200</v>
       </c>
       <c r="F18" s="3">
-        <v>-47100</v>
+        <v>-52200</v>
       </c>
       <c r="G18" s="3">
-        <v>-51200</v>
+        <v>-44900</v>
       </c>
       <c r="H18" s="3">
-        <v>-50000</v>
+        <v>-48800</v>
       </c>
       <c r="I18" s="3">
-        <v>-15300</v>
+        <v>-47700</v>
       </c>
       <c r="J18" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-19000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-23200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-33300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-42700</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,52 +1211,56 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5300</v>
+        <v>-2800</v>
       </c>
       <c r="E20" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-700</v>
       </c>
-      <c r="F20" s="3">
-        <v>7700</v>
-      </c>
       <c r="G20" s="3">
-        <v>4500</v>
+        <v>7400</v>
       </c>
       <c r="H20" s="3">
-        <v>2700</v>
+        <v>4300</v>
       </c>
       <c r="I20" s="3">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="J20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K20" s="3">
         <v>2900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>6100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5400</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1242,32 +1279,35 @@
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
-        <v>-10200</v>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J21" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="K21" s="3">
         <v>-13800</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>-34200</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1304,102 +1344,111 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-89400</v>
+        <v>-66900</v>
       </c>
       <c r="E23" s="3">
-        <v>-55500</v>
+        <v>-85200</v>
       </c>
       <c r="F23" s="3">
-        <v>-39400</v>
+        <v>-52900</v>
       </c>
       <c r="G23" s="3">
-        <v>-46700</v>
+        <v>-37500</v>
       </c>
       <c r="H23" s="3">
-        <v>-47300</v>
+        <v>-44500</v>
       </c>
       <c r="I23" s="3">
-        <v>-13100</v>
+        <v>-45100</v>
       </c>
       <c r="J23" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-16000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-17200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-31700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-37300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-43900</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>900</v>
+      </c>
+      <c r="E24" s="3">
+        <v>300</v>
+      </c>
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
-        <v>400</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>200</v>
-      </c>
-      <c r="H24" s="3">
-        <v>100</v>
       </c>
       <c r="I24" s="3">
         <v>100</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>4</v>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-89700</v>
+        <v>-67800</v>
       </c>
       <c r="E26" s="3">
-        <v>-56000</v>
+        <v>-85500</v>
       </c>
       <c r="F26" s="3">
-        <v>-39400</v>
+        <v>-53400</v>
       </c>
       <c r="G26" s="3">
-        <v>-46900</v>
+        <v>-37600</v>
       </c>
       <c r="H26" s="3">
-        <v>-47400</v>
+        <v>-44700</v>
       </c>
       <c r="I26" s="3">
-        <v>-13200</v>
+        <v>-45200</v>
       </c>
       <c r="J26" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-16100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-17100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-31800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-37300</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-89700</v>
+        <v>-67800</v>
       </c>
       <c r="E27" s="3">
-        <v>-56000</v>
+        <v>-85500</v>
       </c>
       <c r="F27" s="3">
-        <v>-39400</v>
+        <v>-53400</v>
       </c>
       <c r="G27" s="3">
-        <v>-46900</v>
+        <v>-37600</v>
       </c>
       <c r="H27" s="3">
-        <v>-72300</v>
+        <v>-44700</v>
       </c>
       <c r="I27" s="3">
-        <v>-37900</v>
+        <v>-68900</v>
       </c>
       <c r="J27" s="3">
+        <v>-36200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-41300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-42500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-57900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-62300</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1612,14 +1673,17 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>4</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5300</v>
+        <v>2800</v>
       </c>
       <c r="E32" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F32" s="3">
         <v>700</v>
       </c>
-      <c r="F32" s="3">
-        <v>-7700</v>
-      </c>
       <c r="G32" s="3">
-        <v>-4500</v>
+        <v>-7400</v>
       </c>
       <c r="H32" s="3">
-        <v>-2700</v>
+        <v>-4300</v>
       </c>
       <c r="I32" s="3">
-        <v>-2200</v>
+        <v>-2500</v>
       </c>
       <c r="J32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-6100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5400</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-89700</v>
+        <v>-67800</v>
       </c>
       <c r="E33" s="3">
-        <v>-56000</v>
+        <v>-85500</v>
       </c>
       <c r="F33" s="3">
-        <v>-39400</v>
+        <v>-53400</v>
       </c>
       <c r="G33" s="3">
-        <v>-46900</v>
+        <v>-37600</v>
       </c>
       <c r="H33" s="3">
-        <v>-72300</v>
+        <v>-44700</v>
       </c>
       <c r="I33" s="3">
-        <v>-37900</v>
+        <v>-68900</v>
       </c>
       <c r="J33" s="3">
+        <v>-36200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-41300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-42500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-57900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-62300</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-89700</v>
+        <v>-67800</v>
       </c>
       <c r="E35" s="3">
-        <v>-56000</v>
+        <v>-85500</v>
       </c>
       <c r="F35" s="3">
-        <v>-39400</v>
+        <v>-53400</v>
       </c>
       <c r="G35" s="3">
-        <v>-46900</v>
+        <v>-37600</v>
       </c>
       <c r="H35" s="3">
-        <v>-72300</v>
+        <v>-44700</v>
       </c>
       <c r="I35" s="3">
-        <v>-37900</v>
+        <v>-68900</v>
       </c>
       <c r="J35" s="3">
+        <v>-36200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-41300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-42500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-57900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-62300</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,35 +2053,36 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>349500</v>
+        <v>313100</v>
       </c>
       <c r="E41" s="3">
-        <v>315000</v>
+        <v>333100</v>
       </c>
       <c r="F41" s="3">
-        <v>214300</v>
+        <v>300300</v>
       </c>
       <c r="G41" s="3">
-        <v>129200</v>
+        <v>204200</v>
       </c>
       <c r="H41" s="3">
-        <v>877000</v>
+        <v>123100</v>
       </c>
       <c r="I41" s="3">
-        <v>139900</v>
+        <v>836000</v>
       </c>
       <c r="J41" s="3">
+        <v>133300</v>
+      </c>
+      <c r="K41" s="3">
         <v>96800</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2011,35 +2098,38 @@
       <c r="P41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>648800</v>
+        <v>501100</v>
       </c>
       <c r="E42" s="3">
-        <v>738200</v>
+        <v>618500</v>
       </c>
       <c r="F42" s="3">
-        <v>774900</v>
+        <v>703700</v>
       </c>
       <c r="G42" s="3">
-        <v>709900</v>
+        <v>738700</v>
       </c>
       <c r="H42" s="3">
-        <v>261500</v>
+        <v>676700</v>
       </c>
       <c r="I42" s="3">
-        <v>312300</v>
+        <v>249200</v>
       </c>
       <c r="J42" s="3">
+        <v>297700</v>
+      </c>
+      <c r="K42" s="3">
         <v>374700</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2055,35 +2145,38 @@
       <c r="P42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>124200</v>
+        <v>121300</v>
       </c>
       <c r="E43" s="3">
-        <v>124100</v>
+        <v>118400</v>
       </c>
       <c r="F43" s="3">
-        <v>104800</v>
+        <v>118300</v>
       </c>
       <c r="G43" s="3">
-        <v>88000</v>
+        <v>99900</v>
       </c>
       <c r="H43" s="3">
-        <v>73700</v>
+        <v>83900</v>
       </c>
       <c r="I43" s="3">
-        <v>79800</v>
+        <v>70300</v>
       </c>
       <c r="J43" s="3">
+        <v>76100</v>
+      </c>
+      <c r="K43" s="3">
         <v>58100</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2137,41 +2233,44 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>4</v>
+      <c r="O44" s="3">
+        <v>0</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>59000</v>
+        <v>65300</v>
       </c>
       <c r="E45" s="3">
-        <v>39700</v>
+        <v>56300</v>
       </c>
       <c r="F45" s="3">
-        <v>121700</v>
+        <v>37900</v>
       </c>
       <c r="G45" s="3">
-        <v>199400</v>
+        <v>116000</v>
       </c>
       <c r="H45" s="3">
-        <v>14600</v>
+        <v>190100</v>
       </c>
       <c r="I45" s="3">
-        <v>11200</v>
+        <v>13900</v>
       </c>
       <c r="J45" s="3">
+        <v>10700</v>
+      </c>
+      <c r="K45" s="3">
         <v>6600</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2187,35 +2286,38 @@
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1181500</v>
+        <v>1000800</v>
       </c>
       <c r="E46" s="3">
-        <v>1217000</v>
+        <v>1126300</v>
       </c>
       <c r="F46" s="3">
-        <v>1215700</v>
+        <v>1160100</v>
       </c>
       <c r="G46" s="3">
-        <v>1126500</v>
+        <v>1158800</v>
       </c>
       <c r="H46" s="3">
-        <v>1226800</v>
+        <v>1073800</v>
       </c>
       <c r="I46" s="3">
-        <v>543300</v>
+        <v>1169400</v>
       </c>
       <c r="J46" s="3">
+        <v>517800</v>
+      </c>
+      <c r="K46" s="3">
         <v>536200</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2231,28 +2333,31 @@
       <c r="P46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2800</v>
+        <v>1700</v>
       </c>
       <c r="E47" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="F47" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="G47" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="H47" s="3">
-        <v>2900</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
+        <v>2700</v>
+      </c>
+      <c r="I47" s="3">
+        <v>2700</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>4</v>
@@ -2275,35 +2380,38 @@
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21000</v>
+        <v>18300</v>
       </c>
       <c r="E48" s="3">
-        <v>19900</v>
+        <v>20100</v>
       </c>
       <c r="F48" s="3">
-        <v>15600</v>
+        <v>19000</v>
       </c>
       <c r="G48" s="3">
-        <v>13200</v>
+        <v>14900</v>
       </c>
       <c r="H48" s="3">
-        <v>12500</v>
+        <v>12600</v>
       </c>
       <c r="I48" s="3">
-        <v>1700</v>
+        <v>12000</v>
       </c>
       <c r="J48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K48" s="3">
         <v>2700</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2319,35 +2427,38 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>20000</v>
+        <v>18300</v>
       </c>
       <c r="E49" s="3">
-        <v>20700</v>
+        <v>19000</v>
       </c>
       <c r="F49" s="3">
-        <v>16100</v>
+        <v>19800</v>
       </c>
       <c r="G49" s="3">
-        <v>2600</v>
+        <v>15300</v>
       </c>
       <c r="H49" s="3">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="I49" s="3">
-        <v>3400</v>
+        <v>2900</v>
       </c>
       <c r="J49" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K49" s="3">
         <v>3800</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,35 +2568,38 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2100</v>
+        <v>125300</v>
       </c>
       <c r="E52" s="3">
-        <v>25300</v>
+        <v>2000</v>
       </c>
       <c r="F52" s="3">
-        <v>25500</v>
+        <v>24200</v>
       </c>
       <c r="G52" s="3">
-        <v>109300</v>
+        <v>24300</v>
       </c>
       <c r="H52" s="3">
-        <v>24700</v>
+        <v>104200</v>
       </c>
       <c r="I52" s="3">
+        <v>23500</v>
+      </c>
+      <c r="J52" s="3">
         <v>900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,35 +2662,38 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1227400</v>
+        <v>1164400</v>
       </c>
       <c r="E54" s="3">
-        <v>1285800</v>
+        <v>1170000</v>
       </c>
       <c r="F54" s="3">
-        <v>1275700</v>
+        <v>1225700</v>
       </c>
       <c r="G54" s="3">
-        <v>1254500</v>
+        <v>1216000</v>
       </c>
       <c r="H54" s="3">
-        <v>1269900</v>
+        <v>1195800</v>
       </c>
       <c r="I54" s="3">
-        <v>549300</v>
+        <v>1210500</v>
       </c>
       <c r="J54" s="3">
+        <v>523600</v>
+      </c>
+      <c r="K54" s="3">
         <v>542800</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>4</v>
       </c>
@@ -2583,8 +2709,11 @@
       <c r="P54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,35 +2749,36 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>149400</v>
+        <v>168900</v>
       </c>
       <c r="E57" s="3">
-        <v>149900</v>
+        <v>142400</v>
       </c>
       <c r="F57" s="3">
-        <v>117900</v>
+        <v>142900</v>
       </c>
       <c r="G57" s="3">
-        <v>110200</v>
+        <v>112400</v>
       </c>
       <c r="H57" s="3">
-        <v>87800</v>
+        <v>105000</v>
       </c>
       <c r="I57" s="3">
-        <v>73300</v>
+        <v>83700</v>
       </c>
       <c r="J57" s="3">
+        <v>69900</v>
+      </c>
+      <c r="K57" s="3">
         <v>57700</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2663,8 +2794,11 @@
       <c r="P57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2701,41 +2835,44 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
+      <c r="O58" s="3">
+        <v>0</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>124200</v>
+        <v>125600</v>
       </c>
       <c r="E59" s="3">
-        <v>127200</v>
+        <v>118400</v>
       </c>
       <c r="F59" s="3">
-        <v>116200</v>
+        <v>121300</v>
       </c>
       <c r="G59" s="3">
-        <v>97700</v>
+        <v>110800</v>
       </c>
       <c r="H59" s="3">
-        <v>92400</v>
+        <v>93100</v>
       </c>
       <c r="I59" s="3">
-        <v>74900</v>
+        <v>88100</v>
       </c>
       <c r="J59" s="3">
+        <v>71400</v>
+      </c>
+      <c r="K59" s="3">
         <v>67400</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
@@ -2751,35 +2888,38 @@
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>273600</v>
+        <v>294500</v>
       </c>
       <c r="E60" s="3">
-        <v>277100</v>
+        <v>260800</v>
       </c>
       <c r="F60" s="3">
-        <v>234100</v>
+        <v>264200</v>
       </c>
       <c r="G60" s="3">
-        <v>207800</v>
+        <v>223200</v>
       </c>
       <c r="H60" s="3">
-        <v>180200</v>
+        <v>198100</v>
       </c>
       <c r="I60" s="3">
-        <v>148200</v>
+        <v>171800</v>
       </c>
       <c r="J60" s="3">
+        <v>141200</v>
+      </c>
+      <c r="K60" s="3">
         <v>125100</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>4</v>
       </c>
@@ -2795,8 +2935,11 @@
       <c r="P60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,35 +2982,38 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>24800</v>
+        <v>22800</v>
       </c>
       <c r="E62" s="3">
-        <v>24700</v>
+        <v>23700</v>
       </c>
       <c r="F62" s="3">
-        <v>17300</v>
+        <v>23600</v>
       </c>
       <c r="G62" s="3">
-        <v>7700</v>
+        <v>16500</v>
       </c>
       <c r="H62" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="I62" s="3">
-        <v>0</v>
+        <v>6800</v>
       </c>
       <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
         <v>100</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,35 +3170,38 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>300100</v>
+        <v>319500</v>
       </c>
       <c r="E66" s="3">
-        <v>302900</v>
+        <v>286100</v>
       </c>
       <c r="F66" s="3">
-        <v>251900</v>
+        <v>288800</v>
       </c>
       <c r="G66" s="3">
-        <v>215500</v>
+        <v>240100</v>
       </c>
       <c r="H66" s="3">
-        <v>187400</v>
+        <v>205400</v>
       </c>
       <c r="I66" s="3">
-        <v>148200</v>
+        <v>178600</v>
       </c>
       <c r="J66" s="3">
+        <v>141200</v>
+      </c>
+      <c r="K66" s="3">
         <v>125200</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>4</v>
       </c>
@@ -3059,8 +3217,11 @@
       <c r="P66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3186,14 +3354,14 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>1152400</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>1098500</v>
+      </c>
+      <c r="K70" s="3">
         <v>1127600</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3203,14 +3371,17 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3" t="s">
-        <v>4</v>
+      <c r="O70" s="3">
+        <v>0</v>
       </c>
       <c r="P70" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,19 +3424,22 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-917200</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>4</v>
+      <c r="D72" s="3">
+        <v>-1027600</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-874300</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>4</v>
@@ -3273,15 +3447,15 @@
       <c r="H72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I72" s="3">
-        <v>-722600</v>
+      <c r="I72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J72" s="3">
+        <v>-688800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-694400</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>4</v>
       </c>
@@ -3297,8 +3471,11 @@
       <c r="P72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,35 +3612,38 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>927200</v>
+        <v>844900</v>
       </c>
       <c r="E76" s="3">
-        <v>982900</v>
+        <v>883900</v>
       </c>
       <c r="F76" s="3">
-        <v>1023800</v>
+        <v>936900</v>
       </c>
       <c r="G76" s="3">
-        <v>1039000</v>
+        <v>975900</v>
       </c>
       <c r="H76" s="3">
-        <v>1082500</v>
+        <v>990400</v>
       </c>
       <c r="I76" s="3">
-        <v>-751200</v>
+        <v>1031900</v>
       </c>
       <c r="J76" s="3">
+        <v>-716100</v>
+      </c>
+      <c r="K76" s="3">
         <v>-709900</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>4</v>
       </c>
@@ -3473,8 +3659,11 @@
       <c r="P76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-89700</v>
+        <v>-67800</v>
       </c>
       <c r="E81" s="3">
-        <v>-56000</v>
+        <v>-85500</v>
       </c>
       <c r="F81" s="3">
-        <v>-39400</v>
+        <v>-53400</v>
       </c>
       <c r="G81" s="3">
-        <v>-46900</v>
+        <v>-37600</v>
       </c>
       <c r="H81" s="3">
-        <v>-72300</v>
+        <v>-44700</v>
       </c>
       <c r="I81" s="3">
-        <v>-37900</v>
+        <v>-68900</v>
       </c>
       <c r="J81" s="3">
+        <v>-36200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-41300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-42500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-57900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-62300</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3657,8 +3856,8 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>4</v>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4106,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3921,8 +4138,8 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>4</v>
+      <c r="L89" s="3">
+        <v>0</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>4</v>
@@ -3936,8 +4153,11 @@
       <c r="P89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3983,8 +4204,8 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4313,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4115,8 +4345,8 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
@@ -4130,8 +4360,11 @@
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4567,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4353,8 +4599,8 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>4</v>
@@ -4368,8 +4614,11 @@
       <c r="P100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4397,8 +4646,8 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>4</v>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>4</v>
@@ -4412,8 +4661,11 @@
       <c r="P101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4441,8 +4693,8 @@
       <c r="K102" s="3">
         <v>0</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>4</v>
+      <c r="L102" s="3">
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>4</v>
@@ -4454,6 +4706,9 @@
         <v>4</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="92">
   <si>
     <t>ZH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>116400</v>
+        <v>130900</v>
       </c>
       <c r="E8" s="3">
-        <v>103500</v>
+        <v>120100</v>
       </c>
       <c r="F8" s="3">
-        <v>141900</v>
+        <v>106700</v>
       </c>
       <c r="G8" s="3">
-        <v>114600</v>
+        <v>146400</v>
       </c>
       <c r="H8" s="3">
-        <v>88900</v>
+        <v>118300</v>
       </c>
       <c r="I8" s="3">
-        <v>66600</v>
+        <v>91700</v>
       </c>
       <c r="J8" s="3">
+        <v>68700</v>
+      </c>
+      <c r="K8" s="3">
         <v>72400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>55900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>38500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>29700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>34500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>27100</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>60700</v>
+        <v>67100</v>
       </c>
       <c r="E9" s="3">
-        <v>56700</v>
+        <v>62700</v>
       </c>
       <c r="F9" s="3">
-        <v>75100</v>
+        <v>58600</v>
       </c>
       <c r="G9" s="3">
-        <v>55500</v>
+        <v>77500</v>
       </c>
       <c r="H9" s="3">
-        <v>36400</v>
+        <v>57200</v>
       </c>
       <c r="I9" s="3">
-        <v>28600</v>
+        <v>37600</v>
       </c>
       <c r="J9" s="3">
+        <v>29500</v>
+      </c>
+      <c r="K9" s="3">
         <v>26000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>47500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>39800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>17300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>15500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>14100</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>55600</v>
+        <v>63800</v>
       </c>
       <c r="E10" s="3">
-        <v>46700</v>
+        <v>57400</v>
       </c>
       <c r="F10" s="3">
-        <v>66800</v>
+        <v>48200</v>
       </c>
       <c r="G10" s="3">
-        <v>59100</v>
+        <v>68900</v>
       </c>
       <c r="H10" s="3">
-        <v>52400</v>
+        <v>61000</v>
       </c>
       <c r="I10" s="3">
-        <v>38000</v>
+        <v>54100</v>
       </c>
       <c r="J10" s="3">
+        <v>39200</v>
+      </c>
+      <c r="K10" s="3">
         <v>46400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-1300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>12400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>19000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>13000</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,55 +908,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>31100</v>
+        <v>23100</v>
       </c>
       <c r="E12" s="3">
-        <v>23200</v>
+        <v>32100</v>
       </c>
       <c r="F12" s="3">
-        <v>29000</v>
+        <v>23900</v>
       </c>
       <c r="G12" s="3">
-        <v>25700</v>
+        <v>29900</v>
       </c>
       <c r="H12" s="3">
-        <v>16800</v>
+        <v>26500</v>
       </c>
       <c r="I12" s="3">
-        <v>14800</v>
+        <v>17300</v>
       </c>
       <c r="J12" s="3">
+        <v>15300</v>
+      </c>
+      <c r="K12" s="3">
         <v>11500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>22600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>24600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>13700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>13900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>12900</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1030,14 +1050,17 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1077,14 +1100,17 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
+      <c r="P15" s="3">
+        <v>0</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>180500</v>
+        <v>171000</v>
       </c>
       <c r="E17" s="3">
-        <v>193700</v>
+        <v>186200</v>
       </c>
       <c r="F17" s="3">
-        <v>194100</v>
+        <v>199800</v>
       </c>
       <c r="G17" s="3">
-        <v>159500</v>
+        <v>200300</v>
       </c>
       <c r="H17" s="3">
-        <v>137700</v>
+        <v>164600</v>
       </c>
       <c r="I17" s="3">
-        <v>114200</v>
+        <v>142000</v>
       </c>
       <c r="J17" s="3">
+        <v>117900</v>
+      </c>
+      <c r="K17" s="3">
         <v>86900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>74900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>61700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>63000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>77200</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-64100</v>
+        <v>-40000</v>
       </c>
       <c r="E18" s="3">
-        <v>-90200</v>
+        <v>-66200</v>
       </c>
       <c r="F18" s="3">
-        <v>-52200</v>
+        <v>-93100</v>
       </c>
       <c r="G18" s="3">
-        <v>-44900</v>
+        <v>-53900</v>
       </c>
       <c r="H18" s="3">
-        <v>-48800</v>
+        <v>-46300</v>
       </c>
       <c r="I18" s="3">
-        <v>-47700</v>
+        <v>-50300</v>
       </c>
       <c r="J18" s="3">
+        <v>-49200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-14500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-19000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-23200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-33300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-42700</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,55 +1245,59 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2800</v>
+        <v>-2300</v>
       </c>
       <c r="E20" s="3">
-        <v>5100</v>
+        <v>-2900</v>
       </c>
       <c r="F20" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G20" s="3">
         <v>-700</v>
       </c>
-      <c r="G20" s="3">
-        <v>7400</v>
-      </c>
       <c r="H20" s="3">
-        <v>4300</v>
+        <v>7600</v>
       </c>
       <c r="I20" s="3">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="J20" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K20" s="3">
         <v>2100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>6100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5400</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1282,32 +1319,35 @@
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>-9700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-13800</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
         <v>-34200</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1347,108 +1387,117 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-66900</v>
+        <v>-42400</v>
       </c>
       <c r="E23" s="3">
-        <v>-85200</v>
+        <v>-69000</v>
       </c>
       <c r="F23" s="3">
-        <v>-52900</v>
+        <v>-87900</v>
       </c>
       <c r="G23" s="3">
-        <v>-37500</v>
+        <v>-54600</v>
       </c>
       <c r="H23" s="3">
-        <v>-44500</v>
+        <v>-38700</v>
       </c>
       <c r="I23" s="3">
-        <v>-45100</v>
+        <v>-45900</v>
       </c>
       <c r="J23" s="3">
+        <v>-46600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-12500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-16000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-17200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-31700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-37300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-43900</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
         <v>900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>200</v>
-      </c>
-      <c r="I24" s="3">
-        <v>100</v>
       </c>
       <c r="J24" s="3">
         <v>100</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>4</v>
+      <c r="P24" s="3">
+        <v>0</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-67800</v>
+        <v>-42700</v>
       </c>
       <c r="E26" s="3">
-        <v>-85500</v>
+        <v>-69900</v>
       </c>
       <c r="F26" s="3">
-        <v>-53400</v>
+        <v>-88200</v>
       </c>
       <c r="G26" s="3">
-        <v>-37600</v>
+        <v>-55000</v>
       </c>
       <c r="H26" s="3">
-        <v>-44700</v>
+        <v>-38800</v>
       </c>
       <c r="I26" s="3">
-        <v>-45200</v>
+        <v>-46100</v>
       </c>
       <c r="J26" s="3">
+        <v>-46600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-12500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-16100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-17100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-31800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-37300</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-67800</v>
+        <v>-43100</v>
       </c>
       <c r="E27" s="3">
-        <v>-85500</v>
+        <v>-69900</v>
       </c>
       <c r="F27" s="3">
-        <v>-53400</v>
+        <v>-88200</v>
       </c>
       <c r="G27" s="3">
-        <v>-37600</v>
+        <v>-55000</v>
       </c>
       <c r="H27" s="3">
-        <v>-44700</v>
+        <v>-38800</v>
       </c>
       <c r="I27" s="3">
-        <v>-68900</v>
+        <v>-46100</v>
       </c>
       <c r="J27" s="3">
+        <v>-71100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-36200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-41300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-42500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-57900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-62300</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1676,14 +1737,17 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>4</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="E32" s="3">
-        <v>-5100</v>
+        <v>2900</v>
       </c>
       <c r="F32" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="G32" s="3">
         <v>700</v>
       </c>
-      <c r="G32" s="3">
-        <v>-7400</v>
-      </c>
       <c r="H32" s="3">
-        <v>-4300</v>
+        <v>-7600</v>
       </c>
       <c r="I32" s="3">
-        <v>-2500</v>
+        <v>-4500</v>
       </c>
       <c r="J32" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-6100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5400</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-67800</v>
+        <v>-43100</v>
       </c>
       <c r="E33" s="3">
-        <v>-85500</v>
+        <v>-69900</v>
       </c>
       <c r="F33" s="3">
-        <v>-53400</v>
+        <v>-88200</v>
       </c>
       <c r="G33" s="3">
-        <v>-37600</v>
+        <v>-55000</v>
       </c>
       <c r="H33" s="3">
-        <v>-44700</v>
+        <v>-38800</v>
       </c>
       <c r="I33" s="3">
-        <v>-68900</v>
+        <v>-46100</v>
       </c>
       <c r="J33" s="3">
+        <v>-71100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-36200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-41300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-42500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-57900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-62300</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-67800</v>
+        <v>-43100</v>
       </c>
       <c r="E35" s="3">
-        <v>-85500</v>
+        <v>-69900</v>
       </c>
       <c r="F35" s="3">
-        <v>-53400</v>
+        <v>-88200</v>
       </c>
       <c r="G35" s="3">
-        <v>-37600</v>
+        <v>-55000</v>
       </c>
       <c r="H35" s="3">
-        <v>-44700</v>
+        <v>-38800</v>
       </c>
       <c r="I35" s="3">
-        <v>-68900</v>
+        <v>-46100</v>
       </c>
       <c r="J35" s="3">
+        <v>-71100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-36200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-41300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-42500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-57900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-62300</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,38 +2140,39 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>313100</v>
+        <v>488000</v>
       </c>
       <c r="E41" s="3">
-        <v>333100</v>
+        <v>323000</v>
       </c>
       <c r="F41" s="3">
-        <v>300300</v>
+        <v>343700</v>
       </c>
       <c r="G41" s="3">
-        <v>204200</v>
+        <v>309800</v>
       </c>
       <c r="H41" s="3">
-        <v>123100</v>
+        <v>210700</v>
       </c>
       <c r="I41" s="3">
-        <v>836000</v>
+        <v>127000</v>
       </c>
       <c r="J41" s="3">
+        <v>862500</v>
+      </c>
+      <c r="K41" s="3">
         <v>133300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>96800</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2101,38 +2188,41 @@
       <c r="Q41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>501100</v>
+        <v>463500</v>
       </c>
       <c r="E42" s="3">
-        <v>618500</v>
+        <v>517100</v>
       </c>
       <c r="F42" s="3">
-        <v>703700</v>
+        <v>638100</v>
       </c>
       <c r="G42" s="3">
-        <v>738700</v>
+        <v>726000</v>
       </c>
       <c r="H42" s="3">
-        <v>676700</v>
+        <v>762200</v>
       </c>
       <c r="I42" s="3">
-        <v>249200</v>
+        <v>698200</v>
       </c>
       <c r="J42" s="3">
+        <v>257100</v>
+      </c>
+      <c r="K42" s="3">
         <v>297700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>374700</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2148,38 +2238,41 @@
       <c r="Q42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>121300</v>
+        <v>111000</v>
       </c>
       <c r="E43" s="3">
-        <v>118400</v>
+        <v>125200</v>
       </c>
       <c r="F43" s="3">
-        <v>118300</v>
+        <v>122100</v>
       </c>
       <c r="G43" s="3">
-        <v>99900</v>
+        <v>122100</v>
       </c>
       <c r="H43" s="3">
-        <v>83900</v>
+        <v>103100</v>
       </c>
       <c r="I43" s="3">
-        <v>70300</v>
+        <v>86600</v>
       </c>
       <c r="J43" s="3">
+        <v>72500</v>
+      </c>
+      <c r="K43" s="3">
         <v>76100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>58100</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2195,8 +2288,11 @@
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2236,44 +2332,47 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>4</v>
+      <c r="P44" s="3">
+        <v>0</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>65300</v>
+        <v>33200</v>
       </c>
       <c r="E45" s="3">
-        <v>56300</v>
+        <v>67400</v>
       </c>
       <c r="F45" s="3">
-        <v>37900</v>
+        <v>58100</v>
       </c>
       <c r="G45" s="3">
-        <v>116000</v>
+        <v>39100</v>
       </c>
       <c r="H45" s="3">
-        <v>190100</v>
+        <v>119700</v>
       </c>
       <c r="I45" s="3">
-        <v>13900</v>
+        <v>196100</v>
       </c>
       <c r="J45" s="3">
+        <v>14400</v>
+      </c>
+      <c r="K45" s="3">
         <v>10700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6600</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2289,38 +2388,41 @@
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1000800</v>
+        <v>1095600</v>
       </c>
       <c r="E46" s="3">
-        <v>1126300</v>
+        <v>1032600</v>
       </c>
       <c r="F46" s="3">
-        <v>1160100</v>
+        <v>1162000</v>
       </c>
       <c r="G46" s="3">
-        <v>1158800</v>
+        <v>1197000</v>
       </c>
       <c r="H46" s="3">
-        <v>1073800</v>
+        <v>1195600</v>
       </c>
       <c r="I46" s="3">
-        <v>1169400</v>
+        <v>1107900</v>
       </c>
       <c r="J46" s="3">
+        <v>1206600</v>
+      </c>
+      <c r="K46" s="3">
         <v>517800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>536200</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2336,16 +2438,19 @@
       <c r="Q46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>2700</v>
+        <v>1800</v>
       </c>
       <c r="F47" s="3">
         <v>2700</v>
@@ -2354,13 +2459,13 @@
         <v>2700</v>
       </c>
       <c r="H47" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="I47" s="3">
-        <v>2700</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
+        <v>2800</v>
+      </c>
+      <c r="J47" s="3">
+        <v>2800</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>4</v>
@@ -2383,38 +2488,41 @@
       <c r="Q47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18300</v>
+        <v>16800</v>
       </c>
       <c r="E48" s="3">
-        <v>20100</v>
+        <v>18800</v>
       </c>
       <c r="F48" s="3">
-        <v>19000</v>
+        <v>20700</v>
       </c>
       <c r="G48" s="3">
-        <v>14900</v>
+        <v>19600</v>
       </c>
       <c r="H48" s="3">
-        <v>12600</v>
+        <v>15300</v>
       </c>
       <c r="I48" s="3">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="J48" s="3">
+        <v>12300</v>
+      </c>
+      <c r="K48" s="3">
         <v>1600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2700</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2430,38 +2538,41 @@
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>18300</v>
+        <v>30400</v>
       </c>
       <c r="E49" s="3">
-        <v>19000</v>
+        <v>18900</v>
       </c>
       <c r="F49" s="3">
-        <v>19800</v>
+        <v>19600</v>
       </c>
       <c r="G49" s="3">
-        <v>15300</v>
+        <v>20400</v>
       </c>
       <c r="H49" s="3">
-        <v>2500</v>
+        <v>15800</v>
       </c>
       <c r="I49" s="3">
-        <v>2900</v>
+        <v>2600</v>
       </c>
       <c r="J49" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K49" s="3">
         <v>3300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3800</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,38 +2688,41 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>125300</v>
+        <v>3200</v>
       </c>
       <c r="E52" s="3">
+        <v>129300</v>
+      </c>
+      <c r="F52" s="3">
         <v>2000</v>
       </c>
-      <c r="F52" s="3">
-        <v>24200</v>
-      </c>
       <c r="G52" s="3">
+        <v>24900</v>
+      </c>
+      <c r="H52" s="3">
+        <v>25100</v>
+      </c>
+      <c r="I52" s="3">
+        <v>107500</v>
+      </c>
+      <c r="J52" s="3">
         <v>24300</v>
       </c>
-      <c r="H52" s="3">
-        <v>104200</v>
-      </c>
-      <c r="I52" s="3">
-        <v>23500</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>100</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,38 +2788,41 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1164400</v>
+        <v>1146100</v>
       </c>
       <c r="E54" s="3">
-        <v>1170000</v>
+        <v>1201400</v>
       </c>
       <c r="F54" s="3">
-        <v>1225700</v>
+        <v>1207100</v>
       </c>
       <c r="G54" s="3">
-        <v>1216000</v>
+        <v>1264600</v>
       </c>
       <c r="H54" s="3">
-        <v>1195800</v>
+        <v>1254600</v>
       </c>
       <c r="I54" s="3">
-        <v>1210500</v>
+        <v>1233800</v>
       </c>
       <c r="J54" s="3">
+        <v>1249000</v>
+      </c>
+      <c r="K54" s="3">
         <v>523600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>542800</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>4</v>
       </c>
@@ -2712,8 +2838,11 @@
       <c r="Q54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,38 +2880,39 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>168900</v>
+        <v>132600</v>
       </c>
       <c r="E57" s="3">
-        <v>142400</v>
+        <v>174200</v>
       </c>
       <c r="F57" s="3">
-        <v>142900</v>
+        <v>147000</v>
       </c>
       <c r="G57" s="3">
-        <v>112400</v>
+        <v>147400</v>
       </c>
       <c r="H57" s="3">
-        <v>105000</v>
+        <v>116000</v>
       </c>
       <c r="I57" s="3">
-        <v>83700</v>
+        <v>108300</v>
       </c>
       <c r="J57" s="3">
+        <v>86400</v>
+      </c>
+      <c r="K57" s="3">
         <v>69900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>57700</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2797,8 +2928,11 @@
       <c r="Q57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2838,44 +2972,47 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
+      <c r="P58" s="3">
+        <v>0</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>125600</v>
+        <v>142800</v>
       </c>
       <c r="E59" s="3">
-        <v>118400</v>
+        <v>129600</v>
       </c>
       <c r="F59" s="3">
-        <v>121300</v>
+        <v>122100</v>
       </c>
       <c r="G59" s="3">
-        <v>110800</v>
+        <v>125100</v>
       </c>
       <c r="H59" s="3">
-        <v>93100</v>
+        <v>114300</v>
       </c>
       <c r="I59" s="3">
-        <v>88100</v>
+        <v>96100</v>
       </c>
       <c r="J59" s="3">
+        <v>90900</v>
+      </c>
+      <c r="K59" s="3">
         <v>71400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>67400</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
@@ -2891,38 +3028,41 @@
       <c r="Q59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>294500</v>
+        <v>275400</v>
       </c>
       <c r="E60" s="3">
-        <v>260800</v>
+        <v>303800</v>
       </c>
       <c r="F60" s="3">
-        <v>264200</v>
+        <v>269100</v>
       </c>
       <c r="G60" s="3">
-        <v>223200</v>
+        <v>272500</v>
       </c>
       <c r="H60" s="3">
-        <v>198100</v>
+        <v>230300</v>
       </c>
       <c r="I60" s="3">
-        <v>171800</v>
+        <v>204400</v>
       </c>
       <c r="J60" s="3">
+        <v>177200</v>
+      </c>
+      <c r="K60" s="3">
         <v>141200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>125100</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>4</v>
       </c>
@@ -2938,8 +3078,11 @@
       <c r="Q60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,38 +3128,41 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>22800</v>
+        <v>20800</v>
       </c>
       <c r="E62" s="3">
-        <v>23700</v>
+        <v>23600</v>
       </c>
       <c r="F62" s="3">
-        <v>23600</v>
+        <v>24400</v>
       </c>
       <c r="G62" s="3">
-        <v>16500</v>
+        <v>24300</v>
       </c>
       <c r="H62" s="3">
-        <v>7300</v>
+        <v>17000</v>
       </c>
       <c r="I62" s="3">
-        <v>6800</v>
+        <v>7600</v>
       </c>
       <c r="J62" s="3">
-        <v>0</v>
+        <v>7100</v>
       </c>
       <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
         <v>100</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,38 +3328,41 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>319500</v>
+        <v>300700</v>
       </c>
       <c r="E66" s="3">
-        <v>286100</v>
+        <v>329600</v>
       </c>
       <c r="F66" s="3">
-        <v>288800</v>
+        <v>295200</v>
       </c>
       <c r="G66" s="3">
-        <v>240100</v>
+        <v>297900</v>
       </c>
       <c r="H66" s="3">
-        <v>205400</v>
+        <v>247800</v>
       </c>
       <c r="I66" s="3">
-        <v>178600</v>
+        <v>212000</v>
       </c>
       <c r="J66" s="3">
+        <v>184300</v>
+      </c>
+      <c r="K66" s="3">
         <v>141200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>125200</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>4</v>
       </c>
@@ -3220,8 +3378,11 @@
       <c r="Q66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3357,14 +3525,14 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>1098500</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>1127600</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3374,14 +3542,17 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-      <c r="P70" s="3" t="s">
-        <v>4</v>
+      <c r="P70" s="3">
+        <v>0</v>
       </c>
       <c r="Q70" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,22 +3598,25 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>-1027600</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-874300</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>4</v>
+      <c r="D72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-1060200</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-902100</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>4</v>
@@ -3450,15 +3624,15 @@
       <c r="I72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K72" s="3">
         <v>-688800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-694400</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>4</v>
       </c>
@@ -3474,8 +3648,11 @@
       <c r="Q72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,38 +3798,41 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>844900</v>
+        <v>845400</v>
       </c>
       <c r="E76" s="3">
-        <v>883900</v>
+        <v>871800</v>
       </c>
       <c r="F76" s="3">
-        <v>936900</v>
+        <v>911900</v>
       </c>
       <c r="G76" s="3">
-        <v>975900</v>
+        <v>966700</v>
       </c>
       <c r="H76" s="3">
-        <v>990400</v>
+        <v>1006900</v>
       </c>
       <c r="I76" s="3">
-        <v>1031900</v>
+        <v>1021800</v>
       </c>
       <c r="J76" s="3">
+        <v>1064700</v>
+      </c>
+      <c r="K76" s="3">
         <v>-716100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-709900</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>4</v>
       </c>
@@ -3662,8 +3848,11 @@
       <c r="Q76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-67800</v>
+        <v>-43100</v>
       </c>
       <c r="E81" s="3">
-        <v>-85500</v>
+        <v>-69900</v>
       </c>
       <c r="F81" s="3">
-        <v>-53400</v>
+        <v>-88200</v>
       </c>
       <c r="G81" s="3">
-        <v>-37600</v>
+        <v>-55000</v>
       </c>
       <c r="H81" s="3">
-        <v>-44700</v>
+        <v>-38800</v>
       </c>
       <c r="I81" s="3">
-        <v>-68900</v>
+        <v>-46100</v>
       </c>
       <c r="J81" s="3">
+        <v>-71100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-36200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-41300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-42500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-57900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-62300</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3859,8 +4058,8 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>4</v>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4323,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4141,8 +4358,8 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>4</v>
+      <c r="M89" s="3">
+        <v>0</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>4</v>
@@ -4156,8 +4373,11 @@
       <c r="Q89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4207,8 +4428,8 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4543,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4348,8 +4578,8 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>4</v>
@@ -4363,8 +4593,11 @@
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +4813,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4602,8 +4848,8 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
+      <c r="M100" s="3">
+        <v>0</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>4</v>
@@ -4617,8 +4863,11 @@
       <c r="Q100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4649,8 +4898,8 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>4</v>
+      <c r="M101" s="3">
+        <v>0</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>4</v>
@@ -4664,8 +4913,11 @@
       <c r="Q101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4696,8 +4948,8 @@
       <c r="L102" s="3">
         <v>0</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>4</v>
+      <c r="M102" s="3">
+        <v>0</v>
       </c>
       <c r="N102" s="3" t="s">
         <v>4</v>
@@ -4709,6 +4961,9 @@
         <v>4</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="92">
   <si>
     <t>ZH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,244 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>130900</v>
+        <v>158400</v>
       </c>
       <c r="E8" s="3">
-        <v>120100</v>
+        <v>129600</v>
       </c>
       <c r="F8" s="3">
-        <v>106700</v>
+        <v>118800</v>
       </c>
       <c r="G8" s="3">
-        <v>146400</v>
+        <v>105600</v>
       </c>
       <c r="H8" s="3">
-        <v>118300</v>
+        <v>144900</v>
       </c>
       <c r="I8" s="3">
-        <v>91700</v>
+        <v>117100</v>
       </c>
       <c r="J8" s="3">
+        <v>90700</v>
+      </c>
+      <c r="K8" s="3">
         <v>68700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>72400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>55900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>38500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>29700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>34500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>27100</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>67100</v>
+        <v>69000</v>
       </c>
       <c r="E9" s="3">
-        <v>62700</v>
+        <v>66400</v>
       </c>
       <c r="F9" s="3">
-        <v>58600</v>
+        <v>62000</v>
       </c>
       <c r="G9" s="3">
-        <v>77500</v>
+        <v>58000</v>
       </c>
       <c r="H9" s="3">
-        <v>57200</v>
+        <v>76700</v>
       </c>
       <c r="I9" s="3">
-        <v>37600</v>
+        <v>56700</v>
       </c>
       <c r="J9" s="3">
+        <v>37200</v>
+      </c>
+      <c r="K9" s="3">
         <v>29500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>26000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>47500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>39800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>17300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>15500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>14100</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>63800</v>
+        <v>89300</v>
       </c>
       <c r="E10" s="3">
-        <v>57400</v>
+        <v>63200</v>
       </c>
       <c r="F10" s="3">
-        <v>48200</v>
+        <v>56800</v>
       </c>
       <c r="G10" s="3">
-        <v>68900</v>
+        <v>47700</v>
       </c>
       <c r="H10" s="3">
-        <v>61000</v>
+        <v>68200</v>
       </c>
       <c r="I10" s="3">
-        <v>54100</v>
+        <v>60400</v>
       </c>
       <c r="J10" s="3">
+        <v>53500</v>
+      </c>
+      <c r="K10" s="3">
         <v>39200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>46400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-1300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>12400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>19000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>13000</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>23100</v>
+        <v>30200</v>
       </c>
       <c r="E12" s="3">
-        <v>32100</v>
+        <v>22900</v>
       </c>
       <c r="F12" s="3">
-        <v>23900</v>
+        <v>31800</v>
       </c>
       <c r="G12" s="3">
-        <v>29900</v>
+        <v>23700</v>
       </c>
       <c r="H12" s="3">
-        <v>26500</v>
+        <v>29600</v>
       </c>
       <c r="I12" s="3">
-        <v>17300</v>
+        <v>26200</v>
       </c>
       <c r="J12" s="3">
+        <v>17100</v>
+      </c>
+      <c r="K12" s="3">
         <v>15300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>11500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>22600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>24600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>13700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>13900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>12900</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1053,14 +1072,17 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1103,14 +1125,17 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
+      <c r="Q15" s="3">
+        <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>171000</v>
+        <v>189100</v>
       </c>
       <c r="E17" s="3">
-        <v>186200</v>
+        <v>169200</v>
       </c>
       <c r="F17" s="3">
-        <v>199800</v>
+        <v>184300</v>
       </c>
       <c r="G17" s="3">
-        <v>200300</v>
+        <v>197800</v>
       </c>
       <c r="H17" s="3">
-        <v>164600</v>
+        <v>198200</v>
       </c>
       <c r="I17" s="3">
-        <v>142000</v>
+        <v>162900</v>
       </c>
       <c r="J17" s="3">
+        <v>140600</v>
+      </c>
+      <c r="K17" s="3">
         <v>117900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>86900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>74900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>61700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>63000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>77200</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-40000</v>
+        <v>-30700</v>
       </c>
       <c r="E18" s="3">
-        <v>-66200</v>
+        <v>-39600</v>
       </c>
       <c r="F18" s="3">
-        <v>-93100</v>
+        <v>-65500</v>
       </c>
       <c r="G18" s="3">
-        <v>-53900</v>
+        <v>-92100</v>
       </c>
       <c r="H18" s="3">
-        <v>-46300</v>
+        <v>-53300</v>
       </c>
       <c r="I18" s="3">
-        <v>-50300</v>
+        <v>-45800</v>
       </c>
       <c r="J18" s="3">
+        <v>-49800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-49200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-14500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-19000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-23200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-33300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-42700</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,58 +1278,62 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2300</v>
       </c>
-      <c r="E20" s="3">
-        <v>-2900</v>
-      </c>
       <c r="F20" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G20" s="3">
         <v>5200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-700</v>
       </c>
-      <c r="H20" s="3">
-        <v>7600</v>
-      </c>
       <c r="I20" s="3">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="J20" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K20" s="3">
         <v>2600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>6100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>5400</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1322,32 +1358,35 @@
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3">
         <v>-9700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-13800</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3">
         <v>-34200</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1390,64 +1429,70 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-42400</v>
+        <v>-25100</v>
       </c>
       <c r="E23" s="3">
-        <v>-69000</v>
+        <v>-41900</v>
       </c>
       <c r="F23" s="3">
-        <v>-87900</v>
+        <v>-68300</v>
       </c>
       <c r="G23" s="3">
-        <v>-54600</v>
+        <v>-87000</v>
       </c>
       <c r="H23" s="3">
-        <v>-38700</v>
+        <v>-54100</v>
       </c>
       <c r="I23" s="3">
-        <v>-45900</v>
+        <v>-38300</v>
       </c>
       <c r="J23" s="3">
+        <v>-45400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-46600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-12500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-16000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-17200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-31700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-37300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-43900</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1455,49 +1500,52 @@
         <v>400</v>
       </c>
       <c r="E24" s="3">
+        <v>400</v>
+      </c>
+      <c r="F24" s="3">
         <v>900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>200</v>
-      </c>
-      <c r="J24" s="3">
-        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>100</v>
       </c>
       <c r="L24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>4</v>
+      <c r="Q24" s="3">
+        <v>0</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-42700</v>
+        <v>-25500</v>
       </c>
       <c r="E26" s="3">
-        <v>-69900</v>
+        <v>-42300</v>
       </c>
       <c r="F26" s="3">
-        <v>-88200</v>
+        <v>-69200</v>
       </c>
       <c r="G26" s="3">
-        <v>-55000</v>
+        <v>-87300</v>
       </c>
       <c r="H26" s="3">
-        <v>-38800</v>
+        <v>-54500</v>
       </c>
       <c r="I26" s="3">
-        <v>-46100</v>
+        <v>-38400</v>
       </c>
       <c r="J26" s="3">
+        <v>-45600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-46600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-12500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-16100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-17100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-31800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-37300</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-43100</v>
+        <v>-25500</v>
       </c>
       <c r="E27" s="3">
-        <v>-69900</v>
+        <v>-42700</v>
       </c>
       <c r="F27" s="3">
-        <v>-88200</v>
+        <v>-69200</v>
       </c>
       <c r="G27" s="3">
-        <v>-55000</v>
+        <v>-87300</v>
       </c>
       <c r="H27" s="3">
-        <v>-38800</v>
+        <v>-54500</v>
       </c>
       <c r="I27" s="3">
-        <v>-46100</v>
+        <v>-38400</v>
       </c>
       <c r="J27" s="3">
+        <v>-45600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-71100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-36200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-41300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-42500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-57900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-62300</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1740,14 +1800,17 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>4</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E32" s="3">
         <v>2300</v>
       </c>
-      <c r="E32" s="3">
-        <v>2900</v>
-      </c>
       <c r="F32" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G32" s="3">
         <v>-5200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>700</v>
       </c>
-      <c r="H32" s="3">
-        <v>-7600</v>
-      </c>
       <c r="I32" s="3">
-        <v>-4500</v>
+        <v>-7500</v>
       </c>
       <c r="J32" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-6100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-5400</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-43100</v>
+        <v>-25500</v>
       </c>
       <c r="E33" s="3">
-        <v>-69900</v>
+        <v>-42700</v>
       </c>
       <c r="F33" s="3">
-        <v>-88200</v>
+        <v>-69200</v>
       </c>
       <c r="G33" s="3">
-        <v>-55000</v>
+        <v>-87300</v>
       </c>
       <c r="H33" s="3">
-        <v>-38800</v>
+        <v>-54500</v>
       </c>
       <c r="I33" s="3">
-        <v>-46100</v>
+        <v>-38400</v>
       </c>
       <c r="J33" s="3">
+        <v>-45600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-71100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-36200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-41300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-42500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-57900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-62300</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-43100</v>
+        <v>-25500</v>
       </c>
       <c r="E35" s="3">
-        <v>-69900</v>
+        <v>-42700</v>
       </c>
       <c r="F35" s="3">
-        <v>-88200</v>
+        <v>-69200</v>
       </c>
       <c r="G35" s="3">
-        <v>-55000</v>
+        <v>-87300</v>
       </c>
       <c r="H35" s="3">
-        <v>-38800</v>
+        <v>-54500</v>
       </c>
       <c r="I35" s="3">
-        <v>-46100</v>
+        <v>-38400</v>
       </c>
       <c r="J35" s="3">
+        <v>-45600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-71100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-36200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-41300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-42500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-57900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-62300</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,41 +2226,42 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>488000</v>
+        <v>643300</v>
       </c>
       <c r="E41" s="3">
-        <v>323000</v>
+        <v>483000</v>
       </c>
       <c r="F41" s="3">
-        <v>343700</v>
+        <v>319700</v>
       </c>
       <c r="G41" s="3">
-        <v>309800</v>
+        <v>340200</v>
       </c>
       <c r="H41" s="3">
-        <v>210700</v>
+        <v>306600</v>
       </c>
       <c r="I41" s="3">
-        <v>127000</v>
+        <v>208600</v>
       </c>
       <c r="J41" s="3">
+        <v>125700</v>
+      </c>
+      <c r="K41" s="3">
         <v>862500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>133300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>96800</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2191,41 +2277,44 @@
       <c r="R41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>463500</v>
+        <v>246700</v>
       </c>
       <c r="E42" s="3">
-        <v>517100</v>
+        <v>458700</v>
       </c>
       <c r="F42" s="3">
-        <v>638100</v>
+        <v>511800</v>
       </c>
       <c r="G42" s="3">
-        <v>726000</v>
+        <v>631600</v>
       </c>
       <c r="H42" s="3">
-        <v>762200</v>
+        <v>718600</v>
       </c>
       <c r="I42" s="3">
-        <v>698200</v>
+        <v>754400</v>
       </c>
       <c r="J42" s="3">
+        <v>691000</v>
+      </c>
+      <c r="K42" s="3">
         <v>257100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>297700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>374700</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2241,41 +2330,44 @@
       <c r="R42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>111000</v>
+        <v>122100</v>
       </c>
       <c r="E43" s="3">
-        <v>125200</v>
+        <v>109900</v>
       </c>
       <c r="F43" s="3">
-        <v>122100</v>
+        <v>123900</v>
       </c>
       <c r="G43" s="3">
-        <v>122100</v>
+        <v>120900</v>
       </c>
       <c r="H43" s="3">
-        <v>103100</v>
+        <v>120800</v>
       </c>
       <c r="I43" s="3">
-        <v>86600</v>
+        <v>102000</v>
       </c>
       <c r="J43" s="3">
+        <v>85700</v>
+      </c>
+      <c r="K43" s="3">
         <v>72500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>76100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>58100</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2291,8 +2383,11 @@
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2335,47 +2430,50 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>4</v>
+      <c r="Q44" s="3">
+        <v>0</v>
       </c>
       <c r="R44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>33200</v>
+        <v>28300</v>
       </c>
       <c r="E45" s="3">
-        <v>67400</v>
+        <v>32800</v>
       </c>
       <c r="F45" s="3">
-        <v>58100</v>
+        <v>66700</v>
       </c>
       <c r="G45" s="3">
-        <v>39100</v>
+        <v>57500</v>
       </c>
       <c r="H45" s="3">
-        <v>119700</v>
+        <v>38700</v>
       </c>
       <c r="I45" s="3">
-        <v>196100</v>
+        <v>118400</v>
       </c>
       <c r="J45" s="3">
+        <v>194100</v>
+      </c>
+      <c r="K45" s="3">
         <v>14400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6600</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2391,41 +2489,44 @@
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1095600</v>
+        <v>1040500</v>
       </c>
       <c r="E46" s="3">
-        <v>1032600</v>
+        <v>1084400</v>
       </c>
       <c r="F46" s="3">
-        <v>1162000</v>
+        <v>1022100</v>
       </c>
       <c r="G46" s="3">
-        <v>1197000</v>
+        <v>1150100</v>
       </c>
       <c r="H46" s="3">
-        <v>1195600</v>
+        <v>1184700</v>
       </c>
       <c r="I46" s="3">
-        <v>1107900</v>
+        <v>1183400</v>
       </c>
       <c r="J46" s="3">
+        <v>1096600</v>
+      </c>
+      <c r="K46" s="3">
         <v>1206600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>517800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>536200</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2441,8 +2542,11 @@
       <c r="R46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2450,16 +2554,16 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
         <v>1800</v>
-      </c>
-      <c r="F47" s="3">
-        <v>2700</v>
       </c>
       <c r="G47" s="3">
         <v>2700</v>
       </c>
       <c r="H47" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="I47" s="3">
         <v>2800</v>
@@ -2467,8 +2571,8 @@
       <c r="J47" s="3">
         <v>2800</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
+      <c r="K47" s="3">
+        <v>2800</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>4</v>
@@ -2491,41 +2595,44 @@
       <c r="R47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16800</v>
+        <v>15300</v>
       </c>
       <c r="E48" s="3">
-        <v>18800</v>
+        <v>16600</v>
       </c>
       <c r="F48" s="3">
-        <v>20700</v>
+        <v>18600</v>
       </c>
       <c r="G48" s="3">
-        <v>19600</v>
+        <v>20500</v>
       </c>
       <c r="H48" s="3">
-        <v>15300</v>
+        <v>19400</v>
       </c>
       <c r="I48" s="3">
-        <v>13000</v>
+        <v>15200</v>
       </c>
       <c r="J48" s="3">
+        <v>12900</v>
+      </c>
+      <c r="K48" s="3">
         <v>12300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2700</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2541,41 +2648,44 @@
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>30400</v>
+        <v>29400</v>
       </c>
       <c r="E49" s="3">
-        <v>18900</v>
+        <v>30100</v>
       </c>
       <c r="F49" s="3">
-        <v>19600</v>
+        <v>18700</v>
       </c>
       <c r="G49" s="3">
-        <v>20400</v>
+        <v>19400</v>
       </c>
       <c r="H49" s="3">
-        <v>15800</v>
+        <v>20200</v>
       </c>
       <c r="I49" s="3">
-        <v>2600</v>
+        <v>15600</v>
       </c>
       <c r="J49" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K49" s="3">
         <v>3000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3800</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2591,8 +2701,11 @@
       <c r="R49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2700,32 +2819,32 @@
         <v>3200</v>
       </c>
       <c r="E52" s="3">
-        <v>129300</v>
+        <v>3200</v>
       </c>
       <c r="F52" s="3">
+        <v>127900</v>
+      </c>
+      <c r="G52" s="3">
         <v>2000</v>
       </c>
-      <c r="G52" s="3">
-        <v>24900</v>
-      </c>
       <c r="H52" s="3">
-        <v>25100</v>
+        <v>24700</v>
       </c>
       <c r="I52" s="3">
-        <v>107500</v>
+        <v>24800</v>
       </c>
       <c r="J52" s="3">
+        <v>106400</v>
+      </c>
+      <c r="K52" s="3">
         <v>24300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>100</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2741,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,41 +2913,44 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1146100</v>
+        <v>1088300</v>
       </c>
       <c r="E54" s="3">
-        <v>1201400</v>
+        <v>1134300</v>
       </c>
       <c r="F54" s="3">
-        <v>1207100</v>
+        <v>1189100</v>
       </c>
       <c r="G54" s="3">
-        <v>1264600</v>
+        <v>1194800</v>
       </c>
       <c r="H54" s="3">
-        <v>1254600</v>
+        <v>1251700</v>
       </c>
       <c r="I54" s="3">
-        <v>1233800</v>
+        <v>1241800</v>
       </c>
       <c r="J54" s="3">
+        <v>1221100</v>
+      </c>
+      <c r="K54" s="3">
         <v>1249000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>523600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>542800</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>4</v>
       </c>
@@ -2841,8 +2966,11 @@
       <c r="R54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,41 +3010,42 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>132600</v>
+        <v>130200</v>
       </c>
       <c r="E57" s="3">
-        <v>174200</v>
+        <v>131200</v>
       </c>
       <c r="F57" s="3">
-        <v>147000</v>
+        <v>172500</v>
       </c>
       <c r="G57" s="3">
-        <v>147400</v>
+        <v>145500</v>
       </c>
       <c r="H57" s="3">
-        <v>116000</v>
+        <v>145900</v>
       </c>
       <c r="I57" s="3">
-        <v>108300</v>
+        <v>114800</v>
       </c>
       <c r="J57" s="3">
+        <v>107200</v>
+      </c>
+      <c r="K57" s="3">
         <v>86400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>69900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>57700</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2931,8 +3061,11 @@
       <c r="R57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2975,47 +3108,50 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
+      <c r="Q58" s="3">
+        <v>0</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>142800</v>
+        <v>129200</v>
       </c>
       <c r="E59" s="3">
-        <v>129600</v>
+        <v>141400</v>
       </c>
       <c r="F59" s="3">
-        <v>122100</v>
+        <v>128300</v>
       </c>
       <c r="G59" s="3">
-        <v>125100</v>
+        <v>120900</v>
       </c>
       <c r="H59" s="3">
-        <v>114300</v>
+        <v>123800</v>
       </c>
       <c r="I59" s="3">
-        <v>96100</v>
+        <v>113100</v>
       </c>
       <c r="J59" s="3">
+        <v>95100</v>
+      </c>
+      <c r="K59" s="3">
         <v>90900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>71400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>67400</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3031,41 +3167,44 @@
       <c r="R59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>275400</v>
+        <v>259400</v>
       </c>
       <c r="E60" s="3">
-        <v>303800</v>
+        <v>272600</v>
       </c>
       <c r="F60" s="3">
-        <v>269100</v>
+        <v>300700</v>
       </c>
       <c r="G60" s="3">
-        <v>272500</v>
+        <v>266300</v>
       </c>
       <c r="H60" s="3">
-        <v>230300</v>
+        <v>269800</v>
       </c>
       <c r="I60" s="3">
-        <v>204400</v>
+        <v>227900</v>
       </c>
       <c r="J60" s="3">
+        <v>202300</v>
+      </c>
+      <c r="K60" s="3">
         <v>177200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>141200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>125100</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>4</v>
       </c>
@@ -3081,8 +3220,11 @@
       <c r="R60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,41 +3273,44 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>20800</v>
+        <v>19500</v>
       </c>
       <c r="E62" s="3">
-        <v>23600</v>
+        <v>20600</v>
       </c>
       <c r="F62" s="3">
-        <v>24400</v>
+        <v>23300</v>
       </c>
       <c r="G62" s="3">
-        <v>24300</v>
+        <v>24200</v>
       </c>
       <c r="H62" s="3">
-        <v>17000</v>
+        <v>24100</v>
       </c>
       <c r="I62" s="3">
-        <v>7600</v>
+        <v>16800</v>
       </c>
       <c r="J62" s="3">
+        <v>7500</v>
+      </c>
+      <c r="K62" s="3">
         <v>7100</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
       <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
         <v>100</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3181,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,41 +3485,44 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>300700</v>
+        <v>284700</v>
       </c>
       <c r="E66" s="3">
-        <v>329600</v>
+        <v>297600</v>
       </c>
       <c r="F66" s="3">
-        <v>295200</v>
+        <v>326300</v>
       </c>
       <c r="G66" s="3">
-        <v>297900</v>
+        <v>292200</v>
       </c>
       <c r="H66" s="3">
-        <v>247800</v>
+        <v>294900</v>
       </c>
       <c r="I66" s="3">
-        <v>212000</v>
+        <v>245200</v>
       </c>
       <c r="J66" s="3">
+        <v>209800</v>
+      </c>
+      <c r="K66" s="3">
         <v>184300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>141200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>125200</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>4</v>
       </c>
@@ -3381,8 +3538,11 @@
       <c r="R66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3528,14 +3695,14 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>1098500</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>1127600</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3545,14 +3712,17 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-      <c r="Q70" s="3" t="s">
-        <v>4</v>
+      <c r="Q70" s="3">
+        <v>0</v>
       </c>
       <c r="R70" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,25 +3771,28 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-1060200</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-902100</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>4</v>
+      <c r="D72" s="3">
+        <v>-1117600</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-1049400</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-892800</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>4</v>
@@ -3627,15 +3800,15 @@
       <c r="J72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L72" s="3">
         <v>-688800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-694400</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>4</v>
       </c>
@@ -3651,8 +3824,11 @@
       <c r="R72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,41 +3983,44 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>845400</v>
+        <v>803700</v>
       </c>
       <c r="E76" s="3">
-        <v>871800</v>
+        <v>836700</v>
       </c>
       <c r="F76" s="3">
-        <v>911900</v>
+        <v>862800</v>
       </c>
       <c r="G76" s="3">
-        <v>966700</v>
+        <v>902600</v>
       </c>
       <c r="H76" s="3">
-        <v>1006900</v>
+        <v>956800</v>
       </c>
       <c r="I76" s="3">
-        <v>1021800</v>
+        <v>996600</v>
       </c>
       <c r="J76" s="3">
+        <v>1011300</v>
+      </c>
+      <c r="K76" s="3">
         <v>1064700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-716100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-709900</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>4</v>
       </c>
@@ -3851,8 +4036,11 @@
       <c r="R76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-43100</v>
+        <v>-25500</v>
       </c>
       <c r="E81" s="3">
-        <v>-69900</v>
+        <v>-42700</v>
       </c>
       <c r="F81" s="3">
-        <v>-88200</v>
+        <v>-69200</v>
       </c>
       <c r="G81" s="3">
-        <v>-55000</v>
+        <v>-87300</v>
       </c>
       <c r="H81" s="3">
-        <v>-38800</v>
+        <v>-54500</v>
       </c>
       <c r="I81" s="3">
-        <v>-46100</v>
+        <v>-38400</v>
       </c>
       <c r="J81" s="3">
+        <v>-45600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-71100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-36200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-41300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-42500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-57900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-62300</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4061,8 +4259,8 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>4</v>
@@ -4076,8 +4274,11 @@
       <c r="R83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4361,8 +4577,8 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>4</v>
+      <c r="N89" s="3">
+        <v>0</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>4</v>
@@ -4376,8 +4592,11 @@
       <c r="R89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4431,8 +4651,8 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
@@ -4446,8 +4666,11 @@
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4581,8 +4810,8 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>4</v>
@@ -4596,8 +4825,11 @@
       <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4851,8 +5096,8 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>4</v>
@@ -4866,8 +5111,11 @@
       <c r="R100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4901,8 +5149,8 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>4</v>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>4</v>
@@ -4916,8 +5164,11 @@
       <c r="R101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4951,8 +5202,8 @@
       <c r="M102" s="3">
         <v>0</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>4</v>
+      <c r="N102" s="3">
+        <v>0</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>4</v>
@@ -4964,6 +5215,9 @@
         <v>4</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="92">
   <si>
     <t>ZH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,270 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>158400</v>
+        <v>143900</v>
       </c>
       <c r="E8" s="3">
-        <v>129600</v>
+        <v>137000</v>
       </c>
       <c r="F8" s="3">
-        <v>118800</v>
+        <v>153500</v>
       </c>
       <c r="G8" s="3">
-        <v>105600</v>
+        <v>125600</v>
       </c>
       <c r="H8" s="3">
-        <v>144900</v>
+        <v>115200</v>
       </c>
       <c r="I8" s="3">
+        <v>102400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>140400</v>
+      </c>
+      <c r="K8" s="3">
         <v>117100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>90700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>68700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>72400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>55900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>38500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>29700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>34500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>27100</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>69000</v>
+        <v>66400</v>
       </c>
       <c r="E9" s="3">
         <v>66400</v>
       </c>
       <c r="F9" s="3">
-        <v>62000</v>
+        <v>66900</v>
       </c>
       <c r="G9" s="3">
-        <v>58000</v>
+        <v>64400</v>
       </c>
       <c r="H9" s="3">
-        <v>76700</v>
+        <v>60100</v>
       </c>
       <c r="I9" s="3">
+        <v>56200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>74300</v>
+      </c>
+      <c r="K9" s="3">
         <v>56700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>37200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>29500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>26000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>47500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>39800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>17300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>15500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>14100</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>89300</v>
+        <v>77400</v>
       </c>
       <c r="E10" s="3">
-        <v>63200</v>
+        <v>70600</v>
       </c>
       <c r="F10" s="3">
-        <v>56800</v>
+        <v>86600</v>
       </c>
       <c r="G10" s="3">
-        <v>47700</v>
+        <v>61200</v>
       </c>
       <c r="H10" s="3">
-        <v>68200</v>
+        <v>55100</v>
       </c>
       <c r="I10" s="3">
+        <v>46200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>66100</v>
+      </c>
+      <c r="K10" s="3">
         <v>60400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>53500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>39200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>46400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>8400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>-1300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>12400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>19000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>13000</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,61 +948,69 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>30200</v>
+        <v>32500</v>
       </c>
       <c r="E12" s="3">
+        <v>25200</v>
+      </c>
+      <c r="F12" s="3">
+        <v>29300</v>
+      </c>
+      <c r="G12" s="3">
+        <v>22100</v>
+      </c>
+      <c r="H12" s="3">
+        <v>30800</v>
+      </c>
+      <c r="I12" s="3">
         <v>22900</v>
       </c>
-      <c r="F12" s="3">
-        <v>31800</v>
-      </c>
-      <c r="G12" s="3">
-        <v>23700</v>
-      </c>
-      <c r="H12" s="3">
-        <v>29600</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
+        <v>28700</v>
+      </c>
+      <c r="K12" s="3">
         <v>26200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>17100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>15300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>11500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>22600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>24600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>13700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>13900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>12900</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1062,14 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1075,14 +1115,20 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1128,14 +1174,20 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1204,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>189100</v>
+        <v>189000</v>
       </c>
       <c r="E17" s="3">
-        <v>169200</v>
+        <v>166800</v>
       </c>
       <c r="F17" s="3">
-        <v>184300</v>
+        <v>183300</v>
       </c>
       <c r="G17" s="3">
-        <v>197800</v>
+        <v>164000</v>
       </c>
       <c r="H17" s="3">
-        <v>198200</v>
+        <v>178700</v>
       </c>
       <c r="I17" s="3">
+        <v>191700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>192100</v>
+      </c>
+      <c r="K17" s="3">
         <v>162900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>140600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>117900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>86900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>74900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>61700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>63000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>77200</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-30700</v>
+        <v>-45100</v>
       </c>
       <c r="E18" s="3">
-        <v>-39600</v>
+        <v>-29900</v>
       </c>
       <c r="F18" s="3">
-        <v>-65500</v>
+        <v>-29800</v>
       </c>
       <c r="G18" s="3">
-        <v>-92100</v>
+        <v>-38400</v>
       </c>
       <c r="H18" s="3">
-        <v>-53300</v>
+        <v>-63500</v>
       </c>
       <c r="I18" s="3">
+        <v>-89300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-51700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-45800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-49800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-49200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-14500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-19000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-23200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-33300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-42700</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,61 +1345,69 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5600</v>
+        <v>7000</v>
       </c>
       <c r="E20" s="3">
-        <v>-2300</v>
+        <v>5900</v>
       </c>
       <c r="F20" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="H20" s="3">
         <v>-2800</v>
       </c>
-      <c r="G20" s="3">
-        <v>5200</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J20" s="3">
         <v>-700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>7500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>4400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>2600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>2100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>2900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>6100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>1600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>5400</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1361,32 +1435,38 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>-9700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-13800</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
         <v>-34200</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1432,120 +1512,138 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-25100</v>
+        <v>-38100</v>
       </c>
       <c r="E23" s="3">
-        <v>-41900</v>
+        <v>-24000</v>
       </c>
       <c r="F23" s="3">
-        <v>-68300</v>
+        <v>-24400</v>
       </c>
       <c r="G23" s="3">
-        <v>-87000</v>
+        <v>-40600</v>
       </c>
       <c r="H23" s="3">
-        <v>-54100</v>
+        <v>-66200</v>
       </c>
       <c r="I23" s="3">
+        <v>-84300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-52400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-38300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-45400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-46600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-12500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-16000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-17200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-31700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-37300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-43900</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>700</v>
+      </c>
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1695,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-25500</v>
+        <v>-38400</v>
       </c>
       <c r="E26" s="3">
-        <v>-42300</v>
+        <v>-24700</v>
       </c>
       <c r="F26" s="3">
-        <v>-69200</v>
+        <v>-24700</v>
       </c>
       <c r="G26" s="3">
-        <v>-87300</v>
+        <v>-41000</v>
       </c>
       <c r="H26" s="3">
-        <v>-54500</v>
+        <v>-67100</v>
       </c>
       <c r="I26" s="3">
+        <v>-84600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-52800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-38400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-45600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-46600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-12500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-16100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-17100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-31800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-37300</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-25500</v>
+        <v>-38600</v>
       </c>
       <c r="E27" s="3">
-        <v>-42700</v>
+        <v>-25000</v>
       </c>
       <c r="F27" s="3">
-        <v>-69200</v>
+        <v>-24800</v>
       </c>
       <c r="G27" s="3">
-        <v>-87300</v>
+        <v>-41400</v>
       </c>
       <c r="H27" s="3">
-        <v>-54500</v>
+        <v>-67100</v>
       </c>
       <c r="I27" s="3">
+        <v>-84600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-52800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-38400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-45600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-71100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-36200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-41300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-42500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-57900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-62300</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1803,14 +1925,20 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +2049,132 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5600</v>
+        <v>-7000</v>
       </c>
       <c r="E32" s="3">
-        <v>2300</v>
+        <v>-5900</v>
       </c>
       <c r="F32" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="G32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H32" s="3">
         <v>2800</v>
       </c>
-      <c r="G32" s="3">
-        <v>-5200</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="J32" s="3">
         <v>700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-7500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-4400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-2600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-2100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-2900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-6100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-1600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-25500</v>
+        <v>-38600</v>
       </c>
       <c r="E33" s="3">
-        <v>-42700</v>
+        <v>-25000</v>
       </c>
       <c r="F33" s="3">
-        <v>-69200</v>
+        <v>-24800</v>
       </c>
       <c r="G33" s="3">
-        <v>-87300</v>
+        <v>-41400</v>
       </c>
       <c r="H33" s="3">
-        <v>-54500</v>
+        <v>-67100</v>
       </c>
       <c r="I33" s="3">
+        <v>-84600</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-52800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-38400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-45600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-71100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-36200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-41300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-42500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-57900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-62300</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2226,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-25500</v>
+        <v>-38600</v>
       </c>
       <c r="E35" s="3">
-        <v>-42700</v>
+        <v>-25000</v>
       </c>
       <c r="F35" s="3">
-        <v>-69200</v>
+        <v>-24800</v>
       </c>
       <c r="G35" s="3">
-        <v>-87300</v>
+        <v>-41400</v>
       </c>
       <c r="H35" s="3">
-        <v>-54500</v>
+        <v>-67100</v>
       </c>
       <c r="I35" s="3">
+        <v>-84600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-52800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-38400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-45600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-71100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-36200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-41300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-42500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-57900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-62300</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,47 +2399,49 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>643300</v>
+        <v>555800</v>
       </c>
       <c r="E41" s="3">
-        <v>483000</v>
+        <v>574800</v>
       </c>
       <c r="F41" s="3">
-        <v>319700</v>
+        <v>623600</v>
       </c>
       <c r="G41" s="3">
-        <v>340200</v>
+        <v>468100</v>
       </c>
       <c r="H41" s="3">
-        <v>306600</v>
+        <v>309900</v>
       </c>
       <c r="I41" s="3">
+        <v>329700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>297200</v>
+      </c>
+      <c r="K41" s="3">
         <v>208600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>125700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>862500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>133300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>96800</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2280,47 +2454,53 @@
       <c r="S41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>246700</v>
+        <v>292800</v>
       </c>
       <c r="E42" s="3">
-        <v>458700</v>
+        <v>287400</v>
       </c>
       <c r="F42" s="3">
-        <v>511800</v>
+        <v>239100</v>
       </c>
       <c r="G42" s="3">
-        <v>631600</v>
+        <v>444600</v>
       </c>
       <c r="H42" s="3">
-        <v>718600</v>
+        <v>496000</v>
       </c>
       <c r="I42" s="3">
+        <v>612200</v>
+      </c>
+      <c r="J42" s="3">
+        <v>696500</v>
+      </c>
+      <c r="K42" s="3">
         <v>754400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>691000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>257100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>297700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>374700</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2333,47 +2513,53 @@
       <c r="S42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>122100</v>
+        <v>104900</v>
       </c>
       <c r="E43" s="3">
-        <v>109900</v>
+        <v>107100</v>
       </c>
       <c r="F43" s="3">
-        <v>123900</v>
+        <v>118400</v>
       </c>
       <c r="G43" s="3">
-        <v>120900</v>
+        <v>106500</v>
       </c>
       <c r="H43" s="3">
-        <v>120800</v>
+        <v>120100</v>
       </c>
       <c r="I43" s="3">
+        <v>117200</v>
+      </c>
+      <c r="J43" s="3">
+        <v>117100</v>
+      </c>
+      <c r="K43" s="3">
         <v>102000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>85700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>72500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>76100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>58100</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2386,8 +2572,14 @@
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2433,53 +2625,59 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S44" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>28300</v>
+        <v>33000</v>
       </c>
       <c r="E45" s="3">
-        <v>32800</v>
+        <v>29600</v>
       </c>
       <c r="F45" s="3">
-        <v>66700</v>
+        <v>27500</v>
       </c>
       <c r="G45" s="3">
-        <v>57500</v>
+        <v>31800</v>
       </c>
       <c r="H45" s="3">
-        <v>38700</v>
+        <v>64700</v>
       </c>
       <c r="I45" s="3">
+        <v>55700</v>
+      </c>
+      <c r="J45" s="3">
+        <v>37500</v>
+      </c>
+      <c r="K45" s="3">
         <v>118400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>194100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>14400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>10700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>6600</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2492,47 +2690,53 @@
       <c r="S45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1040500</v>
+        <v>986400</v>
       </c>
       <c r="E46" s="3">
-        <v>1084400</v>
+        <v>998900</v>
       </c>
       <c r="F46" s="3">
-        <v>1022100</v>
+        <v>1008500</v>
       </c>
       <c r="G46" s="3">
-        <v>1150100</v>
+        <v>1051000</v>
       </c>
       <c r="H46" s="3">
-        <v>1184700</v>
+        <v>990600</v>
       </c>
       <c r="I46" s="3">
+        <v>1114800</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1148300</v>
+      </c>
+      <c r="K46" s="3">
         <v>1183400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1096600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1206600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>517800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>536200</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2545,40 +2749,46 @@
       <c r="S46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>4100</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
+        <v>4100</v>
       </c>
       <c r="F47" s="3">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
-        <v>2700</v>
+        <v>1700</v>
       </c>
       <c r="I47" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="J47" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="K47" s="3">
         <v>2800</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
+      <c r="L47" s="3">
+        <v>2800</v>
+      </c>
+      <c r="M47" s="3">
+        <v>2800</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>4</v>
@@ -2598,47 +2808,53 @@
       <c r="S47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15300</v>
+        <v>12600</v>
       </c>
       <c r="E48" s="3">
-        <v>16600</v>
+        <v>13900</v>
       </c>
       <c r="F48" s="3">
-        <v>18600</v>
+        <v>14800</v>
       </c>
       <c r="G48" s="3">
-        <v>20500</v>
+        <v>16100</v>
       </c>
       <c r="H48" s="3">
-        <v>19400</v>
+        <v>18100</v>
       </c>
       <c r="I48" s="3">
+        <v>19800</v>
+      </c>
+      <c r="J48" s="3">
+        <v>18800</v>
+      </c>
+      <c r="K48" s="3">
         <v>15200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>12900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>12300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2700</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2651,47 +2867,53 @@
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>29400</v>
+        <v>44500</v>
       </c>
       <c r="E49" s="3">
-        <v>30100</v>
+        <v>28000</v>
       </c>
       <c r="F49" s="3">
-        <v>18700</v>
+        <v>28500</v>
       </c>
       <c r="G49" s="3">
-        <v>19400</v>
+        <v>29200</v>
       </c>
       <c r="H49" s="3">
-        <v>20200</v>
+        <v>18100</v>
       </c>
       <c r="I49" s="3">
+        <v>18800</v>
+      </c>
+      <c r="J49" s="3">
+        <v>19600</v>
+      </c>
+      <c r="K49" s="3">
         <v>15600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>2500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>3000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>3300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>3800</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2704,8 +2926,14 @@
       <c r="S49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,47 +3044,53 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3200</v>
+        <v>4100</v>
       </c>
       <c r="E52" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="F52" s="3">
-        <v>127900</v>
+        <v>3100</v>
       </c>
       <c r="G52" s="3">
-        <v>2000</v>
+        <v>3100</v>
       </c>
       <c r="H52" s="3">
-        <v>24700</v>
+        <v>124000</v>
       </c>
       <c r="I52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J52" s="3">
+        <v>23900</v>
+      </c>
+      <c r="K52" s="3">
         <v>24800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>106400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>24300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>100</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2863,8 +3103,14 @@
       <c r="S52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,47 +3162,53 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1088300</v>
+        <v>1051800</v>
       </c>
       <c r="E54" s="3">
-        <v>1134300</v>
+        <v>1048100</v>
       </c>
       <c r="F54" s="3">
-        <v>1189100</v>
+        <v>1054900</v>
       </c>
       <c r="G54" s="3">
-        <v>1194800</v>
+        <v>1099500</v>
       </c>
       <c r="H54" s="3">
-        <v>1251700</v>
+        <v>1152500</v>
       </c>
       <c r="I54" s="3">
+        <v>1158000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1213200</v>
+      </c>
+      <c r="K54" s="3">
         <v>1241800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1221100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1249000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>523600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>542800</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>4</v>
       </c>
@@ -2969,8 +3221,14 @@
       <c r="S54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,47 +3271,49 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>130200</v>
+        <v>156600</v>
       </c>
       <c r="E57" s="3">
-        <v>131200</v>
+        <v>138000</v>
       </c>
       <c r="F57" s="3">
-        <v>172500</v>
+        <v>126200</v>
       </c>
       <c r="G57" s="3">
-        <v>145500</v>
+        <v>127200</v>
       </c>
       <c r="H57" s="3">
-        <v>145900</v>
+        <v>167200</v>
       </c>
       <c r="I57" s="3">
+        <v>141000</v>
+      </c>
+      <c r="J57" s="3">
+        <v>141400</v>
+      </c>
+      <c r="K57" s="3">
         <v>114800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>107200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>86400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>69900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>57700</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3064,8 +3326,14 @@
       <c r="S57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3111,53 +3379,59 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>129200</v>
+        <v>131400</v>
       </c>
       <c r="E59" s="3">
-        <v>141400</v>
+        <v>129500</v>
       </c>
       <c r="F59" s="3">
-        <v>128300</v>
+        <v>125200</v>
       </c>
       <c r="G59" s="3">
-        <v>120900</v>
+        <v>137000</v>
       </c>
       <c r="H59" s="3">
-        <v>123800</v>
+        <v>124300</v>
       </c>
       <c r="I59" s="3">
+        <v>117200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>120000</v>
+      </c>
+      <c r="K59" s="3">
         <v>113100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>95100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>90900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>71400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>67400</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3170,47 +3444,53 @@
       <c r="S59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>259400</v>
+        <v>288000</v>
       </c>
       <c r="E60" s="3">
-        <v>272600</v>
+        <v>267500</v>
       </c>
       <c r="F60" s="3">
-        <v>300700</v>
+        <v>251400</v>
       </c>
       <c r="G60" s="3">
-        <v>266300</v>
+        <v>264200</v>
       </c>
       <c r="H60" s="3">
-        <v>269800</v>
+        <v>291500</v>
       </c>
       <c r="I60" s="3">
+        <v>258200</v>
+      </c>
+      <c r="J60" s="3">
+        <v>261500</v>
+      </c>
+      <c r="K60" s="3">
         <v>227900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>202300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>177200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>141200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>125100</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>4</v>
       </c>
@@ -3223,8 +3503,14 @@
       <c r="S60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,47 +3562,53 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>19500</v>
+        <v>27200</v>
       </c>
       <c r="E62" s="3">
-        <v>20600</v>
+        <v>18400</v>
       </c>
       <c r="F62" s="3">
+        <v>18900</v>
+      </c>
+      <c r="G62" s="3">
+        <v>20000</v>
+      </c>
+      <c r="H62" s="3">
+        <v>22600</v>
+      </c>
+      <c r="I62" s="3">
+        <v>23400</v>
+      </c>
+      <c r="J62" s="3">
         <v>23300</v>
       </c>
-      <c r="G62" s="3">
-        <v>24200</v>
-      </c>
-      <c r="H62" s="3">
-        <v>24100</v>
-      </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>16800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>7500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>7100</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
         <v>100</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3329,8 +3621,14 @@
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,47 +3798,53 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>284700</v>
+        <v>325500</v>
       </c>
       <c r="E66" s="3">
-        <v>297600</v>
+        <v>293100</v>
       </c>
       <c r="F66" s="3">
-        <v>326300</v>
+        <v>275900</v>
       </c>
       <c r="G66" s="3">
-        <v>292200</v>
+        <v>288500</v>
       </c>
       <c r="H66" s="3">
-        <v>294900</v>
+        <v>316200</v>
       </c>
       <c r="I66" s="3">
+        <v>283200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>285800</v>
+      </c>
+      <c r="K66" s="3">
         <v>245200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>209800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>184300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>141200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>125200</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>4</v>
       </c>
@@ -3541,8 +3857,14 @@
       <c r="S66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3698,31 +4034,37 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>1098500</v>
       </c>
-      <c r="M70" s="3">
+      <c r="O70" s="3">
         <v>1127600</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-      <c r="R70" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S70" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U70" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,47 +4116,53 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>-1117600</v>
+      <c r="D72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F72" s="3">
-        <v>-1049400</v>
+        <v>-1083200</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H72" s="3">
-        <v>-892800</v>
+        <v>-1017100</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>4</v>
+      <c r="J72" s="3">
+        <v>-865400</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N72" s="3">
         <v>-688800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-694400</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>4</v>
       </c>
@@ -3827,8 +4175,14 @@
       <c r="S72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,47 +4352,53 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>803700</v>
+        <v>726300</v>
       </c>
       <c r="E76" s="3">
-        <v>836700</v>
+        <v>755000</v>
       </c>
       <c r="F76" s="3">
-        <v>862800</v>
+        <v>779000</v>
       </c>
       <c r="G76" s="3">
-        <v>902600</v>
+        <v>811000</v>
       </c>
       <c r="H76" s="3">
-        <v>956800</v>
+        <v>836300</v>
       </c>
       <c r="I76" s="3">
+        <v>874900</v>
+      </c>
+      <c r="J76" s="3">
+        <v>927300</v>
+      </c>
+      <c r="K76" s="3">
         <v>996600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1011300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1064700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-716100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-709900</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>4</v>
       </c>
@@ -4039,8 +4411,14 @@
       <c r="S76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4470,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-25500</v>
+        <v>-38600</v>
       </c>
       <c r="E81" s="3">
-        <v>-42700</v>
+        <v>-25000</v>
       </c>
       <c r="F81" s="3">
-        <v>-69200</v>
+        <v>-24800</v>
       </c>
       <c r="G81" s="3">
-        <v>-87300</v>
+        <v>-41400</v>
       </c>
       <c r="H81" s="3">
-        <v>-54500</v>
+        <v>-67100</v>
       </c>
       <c r="I81" s="3">
+        <v>-84600</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-52800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-38400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-45600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-71100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-36200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-41300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-42500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-57900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-62300</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U81" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4620,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4262,11 +4660,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>4</v>
@@ -4277,8 +4675,14 @@
       <c r="S83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4970,14 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4580,11 +5014,11 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>4</v>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>4</v>
@@ -4595,8 +5029,14 @@
       <c r="S89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +5056,10 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4654,11 +5096,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
@@ -4669,8 +5111,14 @@
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5229,14 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4813,11 +5273,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>4</v>
@@ -4828,8 +5288,14 @@
       <c r="S94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5547,14 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5099,11 +5591,11 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>4</v>
@@ -5114,8 +5606,14 @@
       <c r="S100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5152,11 +5650,11 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P101" s="3" t="s">
-        <v>4</v>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>4</v>
@@ -5167,8 +5665,14 @@
       <c r="S101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5205,11 +5709,11 @@
       <c r="N102" s="3">
         <v>0</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>4</v>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
       </c>
       <c r="Q102" s="3" t="s">
         <v>4</v>
@@ -5218,6 +5722,12 @@
         <v>4</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZH_QTR_FIN.xlsx
@@ -756,25 +756,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>143900</v>
+        <v>144200</v>
       </c>
       <c r="E8" s="3">
-        <v>137000</v>
+        <v>137300</v>
       </c>
       <c r="F8" s="3">
-        <v>153500</v>
+        <v>153800</v>
       </c>
       <c r="G8" s="3">
-        <v>125600</v>
+        <v>125900</v>
       </c>
       <c r="H8" s="3">
-        <v>115200</v>
+        <v>115400</v>
       </c>
       <c r="I8" s="3">
-        <v>102400</v>
+        <v>102600</v>
       </c>
       <c r="J8" s="3">
-        <v>140400</v>
+        <v>140700</v>
       </c>
       <c r="K8" s="3">
         <v>117100</v>
@@ -815,25 +815,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>66400</v>
+        <v>66600</v>
       </c>
       <c r="E9" s="3">
-        <v>66400</v>
+        <v>66600</v>
       </c>
       <c r="F9" s="3">
-        <v>66900</v>
+        <v>67000</v>
       </c>
       <c r="G9" s="3">
-        <v>64400</v>
+        <v>64500</v>
       </c>
       <c r="H9" s="3">
-        <v>60100</v>
+        <v>60300</v>
       </c>
       <c r="I9" s="3">
-        <v>56200</v>
+        <v>56300</v>
       </c>
       <c r="J9" s="3">
-        <v>74300</v>
+        <v>74500</v>
       </c>
       <c r="K9" s="3">
         <v>56700</v>
@@ -874,25 +874,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>77400</v>
+        <v>77600</v>
       </c>
       <c r="E10" s="3">
-        <v>70600</v>
+        <v>70700</v>
       </c>
       <c r="F10" s="3">
-        <v>86600</v>
+        <v>86800</v>
       </c>
       <c r="G10" s="3">
-        <v>61200</v>
+        <v>61400</v>
       </c>
       <c r="H10" s="3">
-        <v>55100</v>
+        <v>55200</v>
       </c>
       <c r="I10" s="3">
-        <v>46200</v>
+        <v>46300</v>
       </c>
       <c r="J10" s="3">
-        <v>66100</v>
+        <v>66300</v>
       </c>
       <c r="K10" s="3">
         <v>60400</v>
@@ -956,22 +956,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>32500</v>
+        <v>32600</v>
       </c>
       <c r="E12" s="3">
-        <v>25200</v>
+        <v>25300</v>
       </c>
       <c r="F12" s="3">
         <v>29300</v>
       </c>
       <c r="G12" s="3">
-        <v>22100</v>
+        <v>22200</v>
       </c>
       <c r="H12" s="3">
-        <v>30800</v>
+        <v>30900</v>
       </c>
       <c r="I12" s="3">
-        <v>22900</v>
+        <v>23000</v>
       </c>
       <c r="J12" s="3">
         <v>28700</v>
@@ -1212,25 +1212,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>189000</v>
+        <v>189400</v>
       </c>
       <c r="E17" s="3">
-        <v>166800</v>
+        <v>167200</v>
       </c>
       <c r="F17" s="3">
-        <v>183300</v>
+        <v>183700</v>
       </c>
       <c r="G17" s="3">
-        <v>164000</v>
+        <v>164400</v>
       </c>
       <c r="H17" s="3">
-        <v>178700</v>
+        <v>179000</v>
       </c>
       <c r="I17" s="3">
-        <v>191700</v>
+        <v>192100</v>
       </c>
       <c r="J17" s="3">
-        <v>192100</v>
+        <v>192500</v>
       </c>
       <c r="K17" s="3">
         <v>162900</v>
@@ -1271,25 +1271,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-45100</v>
+        <v>-45200</v>
       </c>
       <c r="E18" s="3">
         <v>-29900</v>
       </c>
       <c r="F18" s="3">
-        <v>-29800</v>
+        <v>-29900</v>
       </c>
       <c r="G18" s="3">
-        <v>-38400</v>
+        <v>-38500</v>
       </c>
       <c r="H18" s="3">
-        <v>-63500</v>
+        <v>-63600</v>
       </c>
       <c r="I18" s="3">
-        <v>-89300</v>
+        <v>-89500</v>
       </c>
       <c r="J18" s="3">
-        <v>-51700</v>
+        <v>-51800</v>
       </c>
       <c r="K18" s="3">
         <v>-45800</v>
@@ -1359,10 +1359,10 @@
         <v>5900</v>
       </c>
       <c r="F20" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="G20" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="H20" s="3">
         <v>-2800</v>
@@ -1530,7 +1530,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-38100</v>
+        <v>-38200</v>
       </c>
       <c r="E23" s="3">
         <v>-24000</v>
@@ -1539,16 +1539,16 @@
         <v>-24400</v>
       </c>
       <c r="G23" s="3">
-        <v>-40600</v>
+        <v>-40700</v>
       </c>
       <c r="H23" s="3">
-        <v>-66200</v>
+        <v>-66400</v>
       </c>
       <c r="I23" s="3">
-        <v>-84300</v>
+        <v>-84500</v>
       </c>
       <c r="J23" s="3">
-        <v>-52400</v>
+        <v>-52500</v>
       </c>
       <c r="K23" s="3">
         <v>-38300</v>
@@ -1707,25 +1707,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-38400</v>
+        <v>-38500</v>
       </c>
       <c r="E26" s="3">
         <v>-24700</v>
       </c>
       <c r="F26" s="3">
-        <v>-24700</v>
+        <v>-24800</v>
       </c>
       <c r="G26" s="3">
-        <v>-41000</v>
+        <v>-41100</v>
       </c>
       <c r="H26" s="3">
-        <v>-67100</v>
+        <v>-67200</v>
       </c>
       <c r="I26" s="3">
-        <v>-84600</v>
+        <v>-84800</v>
       </c>
       <c r="J26" s="3">
-        <v>-52800</v>
+        <v>-52900</v>
       </c>
       <c r="K26" s="3">
         <v>-38400</v>
@@ -1778,13 +1778,13 @@
         <v>-41400</v>
       </c>
       <c r="H27" s="3">
-        <v>-67100</v>
+        <v>-67200</v>
       </c>
       <c r="I27" s="3">
-        <v>-84600</v>
+        <v>-84800</v>
       </c>
       <c r="J27" s="3">
-        <v>-52800</v>
+        <v>-52900</v>
       </c>
       <c r="K27" s="3">
         <v>-38400</v>
@@ -2067,10 +2067,10 @@
         <v>-5900</v>
       </c>
       <c r="F32" s="3">
-        <v>-5400</v>
+        <v>-5500</v>
       </c>
       <c r="G32" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="H32" s="3">
         <v>2800</v>
@@ -2132,13 +2132,13 @@
         <v>-41400</v>
       </c>
       <c r="H33" s="3">
-        <v>-67100</v>
+        <v>-67200</v>
       </c>
       <c r="I33" s="3">
-        <v>-84600</v>
+        <v>-84800</v>
       </c>
       <c r="J33" s="3">
-        <v>-52800</v>
+        <v>-52900</v>
       </c>
       <c r="K33" s="3">
         <v>-38400</v>
@@ -2250,13 +2250,13 @@
         <v>-41400</v>
       </c>
       <c r="H35" s="3">
-        <v>-67100</v>
+        <v>-67200</v>
       </c>
       <c r="I35" s="3">
-        <v>-84600</v>
+        <v>-84800</v>
       </c>
       <c r="J35" s="3">
-        <v>-52800</v>
+        <v>-52900</v>
       </c>
       <c r="K35" s="3">
         <v>-38400</v>
@@ -2407,25 +2407,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>555800</v>
+        <v>557000</v>
       </c>
       <c r="E41" s="3">
-        <v>574800</v>
+        <v>576100</v>
       </c>
       <c r="F41" s="3">
-        <v>623600</v>
+        <v>624900</v>
       </c>
       <c r="G41" s="3">
-        <v>468100</v>
+        <v>469100</v>
       </c>
       <c r="H41" s="3">
-        <v>309900</v>
+        <v>310600</v>
       </c>
       <c r="I41" s="3">
-        <v>329700</v>
+        <v>330400</v>
       </c>
       <c r="J41" s="3">
-        <v>297200</v>
+        <v>297900</v>
       </c>
       <c r="K41" s="3">
         <v>208600</v>
@@ -2466,25 +2466,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>292800</v>
+        <v>293400</v>
       </c>
       <c r="E42" s="3">
-        <v>287400</v>
+        <v>288000</v>
       </c>
       <c r="F42" s="3">
-        <v>239100</v>
+        <v>239700</v>
       </c>
       <c r="G42" s="3">
-        <v>444600</v>
+        <v>445600</v>
       </c>
       <c r="H42" s="3">
-        <v>496000</v>
+        <v>497100</v>
       </c>
       <c r="I42" s="3">
-        <v>612200</v>
+        <v>613500</v>
       </c>
       <c r="J42" s="3">
-        <v>696500</v>
+        <v>698000</v>
       </c>
       <c r="K42" s="3">
         <v>754400</v>
@@ -2525,25 +2525,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>104900</v>
+        <v>105100</v>
       </c>
       <c r="E43" s="3">
-        <v>107100</v>
+        <v>107400</v>
       </c>
       <c r="F43" s="3">
-        <v>118400</v>
+        <v>118600</v>
       </c>
       <c r="G43" s="3">
-        <v>106500</v>
+        <v>106700</v>
       </c>
       <c r="H43" s="3">
-        <v>120100</v>
+        <v>120300</v>
       </c>
       <c r="I43" s="3">
-        <v>117200</v>
+        <v>117400</v>
       </c>
       <c r="J43" s="3">
-        <v>117100</v>
+        <v>117300</v>
       </c>
       <c r="K43" s="3">
         <v>102000</v>
@@ -2643,25 +2643,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>33000</v>
+        <v>33100</v>
       </c>
       <c r="E45" s="3">
-        <v>29600</v>
+        <v>29700</v>
       </c>
       <c r="F45" s="3">
         <v>27500</v>
       </c>
       <c r="G45" s="3">
-        <v>31800</v>
+        <v>31900</v>
       </c>
       <c r="H45" s="3">
-        <v>64700</v>
+        <v>64800</v>
       </c>
       <c r="I45" s="3">
-        <v>55700</v>
+        <v>55800</v>
       </c>
       <c r="J45" s="3">
-        <v>37500</v>
+        <v>37600</v>
       </c>
       <c r="K45" s="3">
         <v>118400</v>
@@ -2702,25 +2702,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>986400</v>
+        <v>988600</v>
       </c>
       <c r="E46" s="3">
-        <v>998900</v>
+        <v>1001100</v>
       </c>
       <c r="F46" s="3">
-        <v>1008500</v>
+        <v>1010700</v>
       </c>
       <c r="G46" s="3">
-        <v>1051000</v>
+        <v>1053300</v>
       </c>
       <c r="H46" s="3">
-        <v>990600</v>
+        <v>992800</v>
       </c>
       <c r="I46" s="3">
-        <v>1114800</v>
+        <v>1117200</v>
       </c>
       <c r="J46" s="3">
-        <v>1148300</v>
+        <v>1150800</v>
       </c>
       <c r="K46" s="3">
         <v>1183400</v>
@@ -2823,19 +2823,19 @@
         <v>12600</v>
       </c>
       <c r="E48" s="3">
-        <v>13900</v>
+        <v>14000</v>
       </c>
       <c r="F48" s="3">
         <v>14800</v>
       </c>
       <c r="G48" s="3">
-        <v>16100</v>
+        <v>16200</v>
       </c>
       <c r="H48" s="3">
         <v>18100</v>
       </c>
       <c r="I48" s="3">
-        <v>19800</v>
+        <v>19900</v>
       </c>
       <c r="J48" s="3">
         <v>18800</v>
@@ -2879,7 +2879,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>44500</v>
+        <v>44600</v>
       </c>
       <c r="E49" s="3">
         <v>28000</v>
@@ -2888,13 +2888,13 @@
         <v>28500</v>
       </c>
       <c r="G49" s="3">
-        <v>29200</v>
+        <v>29300</v>
       </c>
       <c r="H49" s="3">
-        <v>18100</v>
+        <v>18200</v>
       </c>
       <c r="I49" s="3">
-        <v>18800</v>
+        <v>18900</v>
       </c>
       <c r="J49" s="3">
         <v>19600</v>
@@ -3068,13 +3068,13 @@
         <v>3100</v>
       </c>
       <c r="H52" s="3">
-        <v>124000</v>
+        <v>124300</v>
       </c>
       <c r="I52" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="J52" s="3">
-        <v>23900</v>
+        <v>24000</v>
       </c>
       <c r="K52" s="3">
         <v>24800</v>
@@ -3174,25 +3174,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1051800</v>
+        <v>1054000</v>
       </c>
       <c r="E54" s="3">
-        <v>1048100</v>
+        <v>1050400</v>
       </c>
       <c r="F54" s="3">
-        <v>1054900</v>
+        <v>1057200</v>
       </c>
       <c r="G54" s="3">
-        <v>1099500</v>
+        <v>1101800</v>
       </c>
       <c r="H54" s="3">
-        <v>1152500</v>
+        <v>1155100</v>
       </c>
       <c r="I54" s="3">
-        <v>1158000</v>
+        <v>1160600</v>
       </c>
       <c r="J54" s="3">
-        <v>1213200</v>
+        <v>1215800</v>
       </c>
       <c r="K54" s="3">
         <v>1241800</v>
@@ -3279,25 +3279,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>156600</v>
+        <v>157000</v>
       </c>
       <c r="E57" s="3">
-        <v>138000</v>
+        <v>138300</v>
       </c>
       <c r="F57" s="3">
-        <v>126200</v>
+        <v>126500</v>
       </c>
       <c r="G57" s="3">
-        <v>127200</v>
+        <v>127400</v>
       </c>
       <c r="H57" s="3">
-        <v>167200</v>
+        <v>167500</v>
       </c>
       <c r="I57" s="3">
-        <v>141000</v>
+        <v>141300</v>
       </c>
       <c r="J57" s="3">
-        <v>141400</v>
+        <v>141700</v>
       </c>
       <c r="K57" s="3">
         <v>114800</v>
@@ -3397,25 +3397,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>131400</v>
+        <v>131700</v>
       </c>
       <c r="E59" s="3">
-        <v>129500</v>
+        <v>129800</v>
       </c>
       <c r="F59" s="3">
-        <v>125200</v>
+        <v>125500</v>
       </c>
       <c r="G59" s="3">
-        <v>137000</v>
+        <v>137300</v>
       </c>
       <c r="H59" s="3">
-        <v>124300</v>
+        <v>124600</v>
       </c>
       <c r="I59" s="3">
-        <v>117200</v>
+        <v>117400</v>
       </c>
       <c r="J59" s="3">
-        <v>120000</v>
+        <v>120300</v>
       </c>
       <c r="K59" s="3">
         <v>113100</v>
@@ -3456,25 +3456,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>288000</v>
+        <v>288700</v>
       </c>
       <c r="E60" s="3">
-        <v>267500</v>
+        <v>268000</v>
       </c>
       <c r="F60" s="3">
-        <v>251400</v>
+        <v>252000</v>
       </c>
       <c r="G60" s="3">
-        <v>264200</v>
+        <v>264800</v>
       </c>
       <c r="H60" s="3">
-        <v>291500</v>
+        <v>292100</v>
       </c>
       <c r="I60" s="3">
-        <v>258200</v>
+        <v>258700</v>
       </c>
       <c r="J60" s="3">
-        <v>261500</v>
+        <v>262000</v>
       </c>
       <c r="K60" s="3">
         <v>227900</v>
@@ -3574,10 +3574,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>27200</v>
+        <v>27300</v>
       </c>
       <c r="E62" s="3">
-        <v>18400</v>
+        <v>18500</v>
       </c>
       <c r="F62" s="3">
         <v>18900</v>
@@ -3589,10 +3589,10 @@
         <v>22600</v>
       </c>
       <c r="I62" s="3">
+        <v>23500</v>
+      </c>
+      <c r="J62" s="3">
         <v>23400</v>
-      </c>
-      <c r="J62" s="3">
-        <v>23300</v>
       </c>
       <c r="K62" s="3">
         <v>16800</v>
@@ -3810,25 +3810,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>325500</v>
+        <v>326200</v>
       </c>
       <c r="E66" s="3">
-        <v>293100</v>
+        <v>293700</v>
       </c>
       <c r="F66" s="3">
-        <v>275900</v>
+        <v>276500</v>
       </c>
       <c r="G66" s="3">
-        <v>288500</v>
+        <v>289100</v>
       </c>
       <c r="H66" s="3">
-        <v>316200</v>
+        <v>316900</v>
       </c>
       <c r="I66" s="3">
-        <v>283200</v>
+        <v>283800</v>
       </c>
       <c r="J66" s="3">
-        <v>285800</v>
+        <v>286400</v>
       </c>
       <c r="K66" s="3">
         <v>245200</v>
@@ -4134,19 +4134,19 @@
         <v>4</v>
       </c>
       <c r="F72" s="3">
-        <v>-1083200</v>
+        <v>-1085600</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H72" s="3">
-        <v>-1017100</v>
+        <v>-1019300</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J72" s="3">
-        <v>-865400</v>
+        <v>-867300</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>4</v>
@@ -4364,25 +4364,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>726300</v>
+        <v>727900</v>
       </c>
       <c r="E76" s="3">
-        <v>755000</v>
+        <v>756700</v>
       </c>
       <c r="F76" s="3">
-        <v>779000</v>
+        <v>780700</v>
       </c>
       <c r="G76" s="3">
-        <v>811000</v>
+        <v>812800</v>
       </c>
       <c r="H76" s="3">
-        <v>836300</v>
+        <v>838100</v>
       </c>
       <c r="I76" s="3">
-        <v>874900</v>
+        <v>876800</v>
       </c>
       <c r="J76" s="3">
-        <v>927300</v>
+        <v>929400</v>
       </c>
       <c r="K76" s="3">
         <v>996600</v>
@@ -4558,13 +4558,13 @@
         <v>-41400</v>
       </c>
       <c r="H81" s="3">
-        <v>-67100</v>
+        <v>-67200</v>
       </c>
       <c r="I81" s="3">
-        <v>-84600</v>
+        <v>-84800</v>
       </c>
       <c r="J81" s="3">
-        <v>-52800</v>
+        <v>-52900</v>
       </c>
       <c r="K81" s="3">
         <v>-38400</v>
